--- a/Produktionsförderung/Anlage_9_Vorlage_Kostenplan_GBW.xlsx
+++ b/Produktionsförderung/Anlage_9_Vorlage_Kostenplan_GBW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20395FB-BF3E-4070-BB68-E2A7D316DF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76442A6-58F4-4CC0-B190-4BD2C53C90AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten_Planung" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="67">
   <si>
     <t>Monat</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Bitte passen Sie die Tabelle Ihren Bedürfnissen an. .</t>
+  </si>
+  <si>
+    <t>Microsoft 365 &amp; Cloud für Audioresourcen</t>
   </si>
 </sst>
 </file>
@@ -1450,84 +1453,20 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="13" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="13" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1538,12 +1477,6 @@
     </xf>
     <xf numFmtId="167" fontId="13" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="13" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1557,12 +1490,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1577,6 +1574,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
@@ -1854,7 +1857,7 @@
   <dimension ref="A1:AD1035"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1864,7 +1867,8 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="28" width="7.85546875" customWidth="1"/>
-    <col min="29" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1875,39 +1879,39 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
     </row>
     <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="148"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="176"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -1985,9 +1989,9 @@
     </row>
     <row r="4" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="38" t="s">
         <v>1</v>
       </c>
@@ -2060,10 +2064,10 @@
       <c r="AB4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="149" t="s">
+      <c r="AC4" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="172" t="s">
+      <c r="AD4" s="146" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2074,32 +2078,32 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="143"/>
-      <c r="W5" s="143"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
-      <c r="AA5" s="143"/>
-      <c r="AB5" s="143"/>
-      <c r="AC5" s="149"/>
-      <c r="AD5" s="172"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
+      <c r="X5" s="159"/>
+      <c r="Y5" s="159"/>
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="146"/>
     </row>
     <row r="6" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2112,32 +2116,32 @@
       <c r="D6" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
-      <c r="AB6" s="147"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="142"/>
+      <c r="T6" s="142"/>
+      <c r="U6" s="142"/>
+      <c r="V6" s="142"/>
+      <c r="W6" s="142"/>
+      <c r="X6" s="142"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="142"/>
+      <c r="AA6" s="142"/>
+      <c r="AB6" s="142"/>
       <c r="AC6" s="61"/>
       <c r="AD6" s="89"/>
     </row>
@@ -2147,47 +2151,47 @@
         <v>4</v>
       </c>
       <c r="C7" s="25">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D7" s="21">
         <f>C7-D8</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E7" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F7" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G7" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H7" s="29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I7" s="29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J7" s="29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" s="29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L7" s="29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M7" s="29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N7" s="29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="O7" s="29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P7" s="29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="29">
         <v>0</v>
@@ -2227,10 +2231,10 @@
       </c>
       <c r="AC7" s="36">
         <f>SUM(E7:AB7)*D7</f>
-        <v>90000</v>
-      </c>
-      <c r="AD7" s="173">
-        <v>0</v>
+        <v>120000</v>
+      </c>
+      <c r="AD7" s="147">
+        <v>120000</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -2345,7 +2349,7 @@
         <f t="shared" ref="AC8:AC24" si="1">SUM(E8:AB8)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="174"/>
+      <c r="AD8" s="148"/>
     </row>
     <row r="9" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2353,47 +2357,47 @@
         <v>5</v>
       </c>
       <c r="C9" s="27">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="D9" s="23">
         <f>C9-D10</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="E9" s="30">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F9" s="30">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G9" s="30">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H9" s="30">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="I9" s="30">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J9" s="30">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K9" s="30">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L9" s="30">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M9" s="30">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N9" s="30">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O9" s="30">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="P9" s="30">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="30">
         <v>0</v>
@@ -2433,10 +2437,10 @@
       </c>
       <c r="AC9" s="36">
         <f>SUM(E9:AB9)*D9</f>
-        <v>96000</v>
-      </c>
-      <c r="AD9" s="173">
-        <v>0</v>
+        <v>57200</v>
+      </c>
+      <c r="AD9" s="147">
+        <v>57200</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -2551,7 +2555,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="174"/>
+      <c r="AD10" s="148"/>
     </row>
     <row r="11" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -2559,47 +2563,47 @@
         <v>6</v>
       </c>
       <c r="C11" s="27">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="D11" s="23">
         <f>C11-D12</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="E11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P11" s="30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="30">
         <v>0</v>
@@ -2639,10 +2643,10 @@
       </c>
       <c r="AC11" s="36">
         <f>SUM(E11:AB11)*D11</f>
-        <v>24000</v>
-      </c>
-      <c r="AD11" s="173">
-        <v>0</v>
+        <v>15600</v>
+      </c>
+      <c r="AD11" s="147">
+        <v>15600</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -2757,7 +2761,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="174"/>
+      <c r="AD12" s="148"/>
     </row>
     <row r="13" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -2765,11 +2769,11 @@
         <v>7</v>
       </c>
       <c r="C13" s="27">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="D13" s="23">
         <f>C13-D14</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="E13" s="30">
         <v>10</v>
@@ -2845,10 +2849,10 @@
       </c>
       <c r="AC13" s="36">
         <f>SUM(E13:AB13)*D13</f>
-        <v>24000</v>
-      </c>
-      <c r="AD13" s="173">
-        <v>0</v>
+        <v>31200</v>
+      </c>
+      <c r="AD13" s="147">
+        <v>31200</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -2963,7 +2967,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="174"/>
+      <c r="AD14" s="148"/>
     </row>
     <row r="15" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -2971,11 +2975,11 @@
         <v>8</v>
       </c>
       <c r="C15" s="27">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D15" s="23">
         <f>C15-D16</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E15" s="30">
         <v>4</v>
@@ -3051,10 +3055,10 @@
       </c>
       <c r="AC15" s="36">
         <f>SUM(E15:AB15)*D15</f>
-        <v>12000</v>
-      </c>
-      <c r="AD15" s="173">
-        <v>0</v>
+        <v>14400</v>
+      </c>
+      <c r="AD15" s="147">
+        <v>14400</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -3169,7 +3173,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="174"/>
+      <c r="AD16" s="148"/>
     </row>
     <row r="17" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -3177,47 +3181,47 @@
         <v>9</v>
       </c>
       <c r="C17" s="27">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="D17" s="23">
         <f>C17-D18</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="E17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P17" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="30">
         <v>0</v>
@@ -3257,9 +3261,9 @@
       </c>
       <c r="AC17" s="36">
         <f>SUM(E17:AB17)*D17</f>
-        <v>9600</v>
-      </c>
-      <c r="AD17" s="173">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="147">
         <v>0</v>
       </c>
     </row>
@@ -3375,7 +3379,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="174"/>
+      <c r="AD18" s="148"/>
     </row>
     <row r="19" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -3465,7 +3469,7 @@
         <f>SUM(E19:AB19)*D19</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="173">
+      <c r="AD19" s="147">
         <v>0</v>
       </c>
     </row>
@@ -3581,7 +3585,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="174"/>
+      <c r="AD20" s="148"/>
     </row>
     <row r="21" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -3671,7 +3675,7 @@
         <f>SUM(E21:AB21)*D21</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="173">
+      <c r="AD21" s="147">
         <v>0</v>
       </c>
     </row>
@@ -3787,7 +3791,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="174"/>
+      <c r="AD22" s="148"/>
     </row>
     <row r="23" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -3798,51 +3802,51 @@
       <c r="D23" s="45"/>
       <c r="E23" s="46">
         <f>E7*$D$7+E9*$D$9+E11*$D$11+E13*$D$13+E15*$D$15+E17*$D$17+E19*$D$19+E21*$D$21</f>
-        <v>21300</v>
+        <v>12400</v>
       </c>
       <c r="F23" s="46">
         <f t="shared" ref="F23:AB23" si="9">F7*$D$7+F9*$D$9+F11*$D$11+F13*$D$13+F15*$D$15+F17*$D$17+F19*$D$19+F21*$D$21</f>
-        <v>21300</v>
+        <v>12400</v>
       </c>
       <c r="G23" s="46">
         <f t="shared" si="9"/>
-        <v>21300</v>
+        <v>12400</v>
       </c>
       <c r="H23" s="46">
         <f t="shared" si="9"/>
-        <v>21300</v>
+        <v>12400</v>
       </c>
       <c r="I23" s="46">
         <f t="shared" si="9"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="J23" s="46">
         <f t="shared" si="9"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="K23" s="46">
         <f t="shared" si="9"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="L23" s="46">
         <f t="shared" si="9"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="M23" s="46">
         <f t="shared" si="9"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="N23" s="46">
         <f t="shared" si="9"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="O23" s="46">
         <f t="shared" si="9"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="P23" s="46">
         <f t="shared" si="9"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="Q23" s="46">
         <f t="shared" si="9"/>
@@ -3894,9 +3898,9 @@
       </c>
       <c r="AC23" s="46">
         <f t="shared" ref="AC23" si="10">SUM(E23:AB23)</f>
-        <v>255600</v>
-      </c>
-      <c r="AD23" s="175" t="s">
+        <v>238400</v>
+      </c>
+      <c r="AD23" s="140" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4007,7 +4011,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="176"/>
+      <c r="AD24" s="141"/>
     </row>
     <row r="25" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -4018,51 +4022,51 @@
       <c r="D25" s="69"/>
       <c r="E25" s="70">
         <f>E23+E24</f>
-        <v>21300</v>
+        <v>12400</v>
       </c>
       <c r="F25" s="70">
         <f t="shared" ref="F25:AB25" si="12">F23+F24</f>
-        <v>21300</v>
+        <v>12400</v>
       </c>
       <c r="G25" s="71">
         <f t="shared" si="12"/>
-        <v>21300</v>
+        <v>12400</v>
       </c>
       <c r="H25" s="70">
         <f t="shared" si="12"/>
-        <v>21300</v>
+        <v>12400</v>
       </c>
       <c r="I25" s="70">
         <f t="shared" si="12"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="J25" s="71">
         <f t="shared" si="12"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="K25" s="70">
         <f t="shared" si="12"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="L25" s="70">
         <f t="shared" si="12"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="M25" s="71">
         <f t="shared" si="12"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="N25" s="70">
         <f t="shared" si="12"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="O25" s="70">
         <f t="shared" si="12"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="P25" s="71">
         <f t="shared" si="12"/>
-        <v>21300</v>
+        <v>23600</v>
       </c>
       <c r="Q25" s="70">
         <f t="shared" si="12"/>
@@ -4114,11 +4118,11 @@
       </c>
       <c r="AC25" s="134">
         <f>AC23+AC24</f>
-        <v>255600</v>
+        <v>238400</v>
       </c>
       <c r="AD25" s="135">
         <f>AD7+AD9+AD11+AD13+AD15+AD17+AD19+AD21</f>
-        <v>0</v>
+        <v>238400</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -4164,32 +4168,32 @@
       <c r="D27" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="147" t="s">
+      <c r="E27" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="143"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="143"/>
+      <c r="W27" s="143"/>
+      <c r="X27" s="143"/>
+      <c r="Y27" s="143"/>
+      <c r="Z27" s="143"/>
+      <c r="AA27" s="143"/>
+      <c r="AB27" s="143"/>
       <c r="AC27" s="61"/>
       <c r="AD27" s="89"/>
     </row>
@@ -4199,29 +4203,29 @@
         <v>5</v>
       </c>
       <c r="C28" s="25">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D28" s="21">
         <f>C28-D29</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E28" s="29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F28" s="29">
-        <v>0</v>
-      </c>
-      <c r="G28" s="50">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G28" s="29">
+        <v>20</v>
       </c>
       <c r="H28" s="29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I28" s="29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J28" s="50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K28" s="29">
         <v>0</v>
@@ -4279,10 +4283,10 @@
       </c>
       <c r="AC28" s="36">
         <f>SUM(E28:AB28)*D28</f>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="173">
-        <v>0</v>
+        <v>9600</v>
+      </c>
+      <c r="AD28" s="147">
+        <v>9600</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -4397,7 +4401,7 @@
         <f t="shared" ref="AC29" si="14">SUM(E29:AB29)</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="174"/>
+      <c r="AD29" s="148"/>
     </row>
     <row r="30" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -4487,7 +4491,7 @@
         <f>SUM(E30:AB30)*D30</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="173">
+      <c r="AD30" s="147">
         <v>0</v>
       </c>
     </row>
@@ -4603,7 +4607,7 @@
         <f t="shared" ref="AC31" si="16">SUM(E31:AB31)</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="174"/>
+      <c r="AD31" s="148"/>
     </row>
     <row r="32" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -4693,7 +4697,7 @@
         <f>SUM(E32:AB32)*D32</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="173">
+      <c r="AD32" s="147">
         <v>0</v>
       </c>
     </row>
@@ -4809,7 +4813,7 @@
         <f t="shared" ref="AC33" si="18">SUM(E33:AB33)</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="174"/>
+      <c r="AD33" s="148"/>
     </row>
     <row r="34" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
@@ -4899,7 +4903,7 @@
         <f>SUM(E34:AB34)*D34</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="177">
+      <c r="AD34" s="149">
         <v>0</v>
       </c>
     </row>
@@ -5015,7 +5019,7 @@
         <f t="shared" ref="AC35" si="20">SUM(E35:AB35)</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="174"/>
+      <c r="AD35" s="148"/>
     </row>
     <row r="36" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
@@ -5105,7 +5109,7 @@
         <f>SUM(E36:AB36)*D36</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="173">
+      <c r="AD36" s="147">
         <v>0</v>
       </c>
     </row>
@@ -5221,7 +5225,7 @@
         <f t="shared" ref="AC37" si="22">SUM(E37:AB37)</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="174"/>
+      <c r="AD37" s="148"/>
     </row>
     <row r="38" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
@@ -5311,7 +5315,7 @@
         <f>SUM(E38:AB38)*D38</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="173">
+      <c r="AD38" s="147">
         <v>0</v>
       </c>
     </row>
@@ -5427,7 +5431,7 @@
         <f t="shared" ref="AC39" si="24">SUM(E39:AB39)</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="174"/>
+      <c r="AD39" s="148"/>
     </row>
     <row r="40" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
@@ -5517,7 +5521,7 @@
         <f>SUM(E40:AB40)*D40</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="173">
+      <c r="AD40" s="147">
         <v>0</v>
       </c>
     </row>
@@ -5633,7 +5637,7 @@
         <f t="shared" ref="AC41:AC43" si="26">SUM(E41:AB41)</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="174"/>
+      <c r="AD41" s="148"/>
     </row>
     <row r="42" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -5644,19 +5648,19 @@
       <c r="D42" s="45"/>
       <c r="E42" s="96">
         <f>E28*$D$28+E30*$D$30+E32*$D$32+E34*$D$34+E36*$D$36+E38*$D$38+E40*$D$40</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F42" s="96">
         <f t="shared" ref="F42:AB42" si="27">F28*$D$28+F30*$D$30+F32*$D$32+F34*$D$34+F36*$D$36+F38*$D$38+F40*$D$40</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G42" s="96">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="H42" s="96">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I42" s="96">
         <f t="shared" si="27"/>
@@ -5740,9 +5744,9 @@
       </c>
       <c r="AC42" s="96">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="172" t="s">
+        <v>9600</v>
+      </c>
+      <c r="AD42" s="146" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5853,7 +5857,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD43" s="172"/>
+      <c r="AD43" s="146"/>
     </row>
     <row r="44" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
@@ -5864,19 +5868,19 @@
       <c r="D44" s="69"/>
       <c r="E44" s="99">
         <f>E42+E43</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F44" s="99">
         <f t="shared" ref="F44:AB44" si="29">F42+F43</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G44" s="100">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="H44" s="99">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I44" s="99">
         <f t="shared" si="29"/>
@@ -5960,11 +5964,11 @@
       </c>
       <c r="AC44" s="136">
         <f>AC42+AC43</f>
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="AD44" s="137">
         <f>AD28+AD30+AD32+AD34+AD36+AD38+AD40</f>
-        <v>0</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -6006,42 +6010,42 @@
       </c>
       <c r="C46" s="66"/>
       <c r="D46" s="66"/>
-      <c r="E46" s="147" t="s">
+      <c r="E46" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="155"/>
-      <c r="G46" s="155"/>
-      <c r="H46" s="155"/>
-      <c r="I46" s="155"/>
-      <c r="J46" s="155"/>
-      <c r="K46" s="155"/>
-      <c r="L46" s="155"/>
-      <c r="M46" s="155"/>
-      <c r="N46" s="155"/>
-      <c r="O46" s="155"/>
-      <c r="P46" s="155"/>
-      <c r="Q46" s="155"/>
-      <c r="R46" s="155"/>
-      <c r="S46" s="155"/>
-      <c r="T46" s="155"/>
-      <c r="U46" s="155"/>
-      <c r="V46" s="155"/>
-      <c r="W46" s="155"/>
-      <c r="X46" s="155"/>
-      <c r="Y46" s="155"/>
-      <c r="Z46" s="155"/>
-      <c r="AA46" s="155"/>
-      <c r="AB46" s="155"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
+      <c r="K46" s="143"/>
+      <c r="L46" s="143"/>
+      <c r="M46" s="143"/>
+      <c r="N46" s="143"/>
+      <c r="O46" s="143"/>
+      <c r="P46" s="143"/>
+      <c r="Q46" s="143"/>
+      <c r="R46" s="143"/>
+      <c r="S46" s="143"/>
+      <c r="T46" s="143"/>
+      <c r="U46" s="143"/>
+      <c r="V46" s="143"/>
+      <c r="W46" s="143"/>
+      <c r="X46" s="143"/>
+      <c r="Y46" s="143"/>
+      <c r="Z46" s="143"/>
+      <c r="AA46" s="143"/>
+      <c r="AB46" s="143"/>
       <c r="AC46" s="61"/>
       <c r="AD46" s="89"/>
     </row>
     <row r="47" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="150" t="s">
+      <c r="B47" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
       <c r="E47" s="12">
         <v>0</v>
       </c>
@@ -6055,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="12">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J47" s="13">
         <v>0</v>
@@ -6116,7 +6120,7 @@
       </c>
       <c r="AC47" s="14">
         <f t="shared" ref="AC47:AC51" si="30">SUM(E47:AB47)</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="AD47" s="122">
         <v>0</v>
@@ -6124,11 +6128,11 @@
     </row>
     <row r="48" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="156" t="s">
+      <c r="B48" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="157"/>
-      <c r="D48" s="157"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="15">
         <v>0</v>
       </c>
@@ -6211,11 +6215,11 @@
     </row>
     <row r="49" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="15">
         <v>0</v>
       </c>
@@ -6298,11 +6302,11 @@
     </row>
     <row r="50" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="156" t="s">
+      <c r="B50" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
       <c r="E50" s="18">
         <v>0</v>
       </c>
@@ -6408,7 +6412,7 @@
       </c>
       <c r="I51" s="63">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J51" s="64">
         <f t="shared" si="31"/>
@@ -6488,7 +6492,7 @@
       </c>
       <c r="AC51" s="138">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="AD51" s="137">
         <f>SUM(AD47:AD50)</f>
@@ -6529,82 +6533,94 @@
     </row>
     <row r="53" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="152" t="s">
+      <c r="B53" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="153"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="147" t="s">
+      <c r="C53" s="178"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="155"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
-      <c r="N53" s="155"/>
-      <c r="O53" s="155"/>
-      <c r="P53" s="155"/>
-      <c r="Q53" s="155"/>
-      <c r="R53" s="155"/>
-      <c r="S53" s="155"/>
-      <c r="T53" s="155"/>
-      <c r="U53" s="155"/>
-      <c r="V53" s="155"/>
-      <c r="W53" s="155"/>
-      <c r="X53" s="155"/>
-      <c r="Y53" s="155"/>
-      <c r="Z53" s="155"/>
-      <c r="AA53" s="155"/>
-      <c r="AB53" s="155"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="143"/>
+      <c r="J53" s="143"/>
+      <c r="K53" s="143"/>
+      <c r="L53" s="143"/>
+      <c r="M53" s="143"/>
+      <c r="N53" s="143"/>
+      <c r="O53" s="143"/>
+      <c r="P53" s="143"/>
+      <c r="Q53" s="143"/>
+      <c r="R53" s="143"/>
+      <c r="S53" s="143"/>
+      <c r="T53" s="143"/>
+      <c r="U53" s="143"/>
+      <c r="V53" s="143"/>
+      <c r="W53" s="143"/>
+      <c r="X53" s="143"/>
+      <c r="Y53" s="143"/>
+      <c r="Z53" s="143"/>
+      <c r="AA53" s="143"/>
+      <c r="AB53" s="143"/>
       <c r="AC53" s="61"/>
       <c r="AD53" s="89"/>
     </row>
     <row r="54" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="150" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
+      <c r="B54" s="161" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="162"/>
+      <c r="D54" s="162"/>
       <c r="E54" s="12">
-        <v>0</v>
+        <f>23.4+17.24</f>
+        <v>40.64</v>
       </c>
       <c r="F54" s="12">
-        <v>0</v>
-      </c>
-      <c r="G54" s="13">
-        <v>0</v>
+        <f t="shared" ref="F54:P54" si="32">23.4+17.24</f>
+        <v>40.64</v>
+      </c>
+      <c r="G54" s="12">
+        <f t="shared" si="32"/>
+        <v>40.64</v>
       </c>
       <c r="H54" s="12">
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>40.64</v>
       </c>
       <c r="I54" s="12">
-        <v>0</v>
-      </c>
-      <c r="J54" s="13">
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>40.64</v>
+      </c>
+      <c r="J54" s="12">
+        <f t="shared" si="32"/>
+        <v>40.64</v>
       </c>
       <c r="K54" s="12">
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>40.64</v>
       </c>
       <c r="L54" s="12">
-        <v>0</v>
-      </c>
-      <c r="M54" s="13">
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>40.64</v>
+      </c>
+      <c r="M54" s="12">
+        <f t="shared" si="32"/>
+        <v>40.64</v>
       </c>
       <c r="N54" s="12">
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>40.64</v>
       </c>
       <c r="O54" s="12">
-        <v>0</v>
-      </c>
-      <c r="P54" s="13">
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>40.64</v>
+      </c>
+      <c r="P54" s="12">
+        <f t="shared" si="32"/>
+        <v>40.64</v>
       </c>
       <c r="Q54" s="12">
         <v>0</v>
@@ -6643,8 +6659,8 @@
         <v>0</v>
       </c>
       <c r="AC54" s="14">
-        <f t="shared" ref="AC54:AC58" si="32">SUM(E54:AB54)</f>
-        <v>0</v>
+        <f t="shared" ref="AC54:AC58" si="33">SUM(E54:AB54)</f>
+        <v>487.67999999999989</v>
       </c>
       <c r="AD54" s="122">
         <v>0</v>
@@ -6652,11 +6668,11 @@
     </row>
     <row r="55" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="156" t="s">
+      <c r="B55" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="157"/>
-      <c r="D55" s="157"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
       <c r="E55" s="15">
         <v>0</v>
       </c>
@@ -6730,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD55" s="122">
@@ -6739,11 +6755,11 @@
     </row>
     <row r="56" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="156" t="s">
+      <c r="B56" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="15">
         <v>0</v>
       </c>
@@ -6817,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD56" s="122">
@@ -6826,11 +6842,11 @@
     </row>
     <row r="57" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="156" t="s">
+      <c r="B57" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
       <c r="E57" s="18">
         <v>0</v>
       </c>
@@ -6904,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="20">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD57" s="122">
@@ -6919,104 +6935,104 @@
       <c r="C58" s="62"/>
       <c r="D58" s="62"/>
       <c r="E58" s="63">
-        <f t="shared" ref="E58:AB58" si="33">SUM(E54:E57)</f>
-        <v>0</v>
+        <f t="shared" ref="E58:AB58" si="34">SUM(E54:E57)</f>
+        <v>40.64</v>
       </c>
       <c r="F58" s="63">
+        <f t="shared" si="34"/>
+        <v>40.64</v>
+      </c>
+      <c r="G58" s="64">
+        <f t="shared" si="34"/>
+        <v>40.64</v>
+      </c>
+      <c r="H58" s="63">
+        <f t="shared" si="34"/>
+        <v>40.64</v>
+      </c>
+      <c r="I58" s="63">
+        <f t="shared" si="34"/>
+        <v>40.64</v>
+      </c>
+      <c r="J58" s="64">
+        <f t="shared" si="34"/>
+        <v>40.64</v>
+      </c>
+      <c r="K58" s="63">
+        <f t="shared" si="34"/>
+        <v>40.64</v>
+      </c>
+      <c r="L58" s="63">
+        <f t="shared" si="34"/>
+        <v>40.64</v>
+      </c>
+      <c r="M58" s="64">
+        <f t="shared" si="34"/>
+        <v>40.64</v>
+      </c>
+      <c r="N58" s="63">
+        <f t="shared" si="34"/>
+        <v>40.64</v>
+      </c>
+      <c r="O58" s="63">
+        <f t="shared" si="34"/>
+        <v>40.64</v>
+      </c>
+      <c r="P58" s="64">
+        <f t="shared" si="34"/>
+        <v>40.64</v>
+      </c>
+      <c r="Q58" s="63">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="63">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="64">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="63">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="63">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="64">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="63">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="63">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="64">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="63">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="63">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="64">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="138">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="64">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="64">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="64">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="64">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="64">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="T58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="U58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="V58" s="64">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="X58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="64">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Z58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AA58" s="63">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AB58" s="64">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AC58" s="138">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <v>487.67999999999989</v>
       </c>
       <c r="AD58" s="137">
         <f>SUM(AD54:AD57)</f>
@@ -7057,47 +7073,47 @@
     </row>
     <row r="60" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="168" t="s">
+      <c r="B60" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
-      <c r="E60" s="147" t="s">
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="155"/>
-      <c r="J60" s="155"/>
-      <c r="K60" s="155"/>
-      <c r="L60" s="155"/>
-      <c r="M60" s="155"/>
-      <c r="N60" s="155"/>
-      <c r="O60" s="155"/>
-      <c r="P60" s="155"/>
-      <c r="Q60" s="155"/>
-      <c r="R60" s="155"/>
-      <c r="S60" s="155"/>
-      <c r="T60" s="155"/>
-      <c r="U60" s="155"/>
-      <c r="V60" s="155"/>
-      <c r="W60" s="155"/>
-      <c r="X60" s="155"/>
-      <c r="Y60" s="155"/>
-      <c r="Z60" s="155"/>
-      <c r="AA60" s="155"/>
-      <c r="AB60" s="155"/>
+      <c r="F60" s="143"/>
+      <c r="G60" s="143"/>
+      <c r="H60" s="143"/>
+      <c r="I60" s="143"/>
+      <c r="J60" s="143"/>
+      <c r="K60" s="143"/>
+      <c r="L60" s="143"/>
+      <c r="M60" s="143"/>
+      <c r="N60" s="143"/>
+      <c r="O60" s="143"/>
+      <c r="P60" s="143"/>
+      <c r="Q60" s="143"/>
+      <c r="R60" s="143"/>
+      <c r="S60" s="143"/>
+      <c r="T60" s="143"/>
+      <c r="U60" s="143"/>
+      <c r="V60" s="143"/>
+      <c r="W60" s="143"/>
+      <c r="X60" s="143"/>
+      <c r="Y60" s="143"/>
+      <c r="Z60" s="143"/>
+      <c r="AA60" s="143"/>
+      <c r="AB60" s="143"/>
       <c r="AC60" s="61"/>
       <c r="AD60" s="89"/>
     </row>
     <row r="61" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="150" t="s">
+      <c r="B61" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="151"/>
-      <c r="D61" s="151"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="162"/>
       <c r="E61" s="12">
         <v>0</v>
       </c>
@@ -7171,7 +7187,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="14">
-        <f t="shared" ref="AC61:AC68" si="34">SUM(E61:AB61)</f>
+        <f t="shared" ref="AC61:AC68" si="35">SUM(E61:AB61)</f>
         <v>0</v>
       </c>
       <c r="AD61" s="122">
@@ -7180,11 +7196,11 @@
     </row>
     <row r="62" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="156" t="s">
+      <c r="B62" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="157"/>
-      <c r="D62" s="157"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="15">
         <v>0</v>
       </c>
@@ -7258,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD62" s="122">
@@ -7267,11 +7283,11 @@
     </row>
     <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="156" t="s">
+      <c r="B63" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="15">
         <v>0</v>
       </c>
@@ -7345,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD63" s="122">
@@ -7360,103 +7376,103 @@
       <c r="C64" s="62"/>
       <c r="D64" s="62"/>
       <c r="E64" s="63">
-        <f t="shared" ref="E64:AB64" si="35">SUM(E61:E63)</f>
+        <f t="shared" ref="E64:AB64" si="36">SUM(E61:E63)</f>
         <v>0</v>
       </c>
       <c r="F64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="64">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="64">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="64">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="64">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="64">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="64">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="64">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="63">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="64">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="138">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="R64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="S64" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="T64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="U64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="V64" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="X64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Y64" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Z64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AA64" s="63">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AB64" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AC64" s="138">
-        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AD64" s="137">
@@ -7504,106 +7520,106 @@
       <c r="C66" s="102"/>
       <c r="D66" s="102"/>
       <c r="E66" s="103">
-        <f t="shared" ref="E66:AB66" si="36">E64+E58+E51+E42+E23</f>
-        <v>21300</v>
+        <f t="shared" ref="E66:AB66" si="37">E64+E58+E51+E42+E23</f>
+        <v>14840.64</v>
       </c>
       <c r="F66" s="103">
-        <f t="shared" si="36"/>
-        <v>21300</v>
+        <f t="shared" si="37"/>
+        <v>14840.64</v>
       </c>
       <c r="G66" s="103">
-        <f t="shared" si="36"/>
-        <v>21300</v>
+        <f t="shared" si="37"/>
+        <v>14840.64</v>
       </c>
       <c r="H66" s="103">
-        <f t="shared" si="36"/>
-        <v>21300</v>
+        <f t="shared" si="37"/>
+        <v>14840.64</v>
       </c>
       <c r="I66" s="103">
-        <f t="shared" si="36"/>
-        <v>21300</v>
+        <f t="shared" si="37"/>
+        <v>31640.639999999999</v>
       </c>
       <c r="J66" s="103">
-        <f t="shared" si="36"/>
-        <v>21300</v>
+        <f t="shared" si="37"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="K66" s="103">
-        <f t="shared" si="36"/>
-        <v>21300</v>
+        <f t="shared" si="37"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="L66" s="103">
-        <f t="shared" si="36"/>
-        <v>21300</v>
+        <f t="shared" si="37"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="M66" s="103">
-        <f t="shared" si="36"/>
-        <v>21300</v>
+        <f t="shared" si="37"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="N66" s="103">
-        <f t="shared" si="36"/>
-        <v>21300</v>
+        <f t="shared" si="37"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="O66" s="103">
-        <f t="shared" si="36"/>
-        <v>21300</v>
+        <f t="shared" si="37"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="P66" s="103">
-        <f t="shared" si="36"/>
-        <v>21300</v>
+        <f t="shared" si="37"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="Q66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="U66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="W66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="X66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Y66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Z66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AA66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AB66" s="103">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AC66" s="104">
-        <f t="shared" ref="AC66:AC67" si="37">SUM(E66:AB66)</f>
-        <v>255600</v>
-      </c>
-      <c r="AD66" s="181"/>
+        <f t="shared" ref="AC66:AC67" si="38">SUM(E66:AB66)</f>
+        <v>256487.68000000005</v>
+      </c>
+      <c r="AD66" s="153"/>
     </row>
     <row r="67" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
@@ -7613,106 +7629,106 @@
       <c r="C67" s="106"/>
       <c r="D67" s="106"/>
       <c r="E67" s="107">
-        <f t="shared" ref="E67:AB67" si="38">E43+E24</f>
+        <f t="shared" ref="E67:AB67" si="39">E43+E24</f>
         <v>0</v>
       </c>
       <c r="F67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="U67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AB67" s="107">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AC67" s="108">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="R67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="T67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="U67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="V67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="W67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="Z67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="107">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AC67" s="108">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AD67" s="172"/>
+      <c r="AD67" s="146"/>
     </row>
     <row r="68" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
@@ -7723,105 +7739,105 @@
       <c r="D68" s="106"/>
       <c r="E68" s="107">
         <f>E66+E67</f>
-        <v>21300</v>
+        <v>14840.64</v>
       </c>
       <c r="F68" s="107">
-        <f t="shared" ref="F68:AB68" si="39">F66+F67</f>
-        <v>21300</v>
+        <f t="shared" ref="F68:AB68" si="40">F66+F67</f>
+        <v>14840.64</v>
       </c>
       <c r="G68" s="107">
-        <f t="shared" si="39"/>
-        <v>21300</v>
+        <f t="shared" si="40"/>
+        <v>14840.64</v>
       </c>
       <c r="H68" s="107">
-        <f t="shared" si="39"/>
-        <v>21300</v>
+        <f t="shared" si="40"/>
+        <v>14840.64</v>
       </c>
       <c r="I68" s="107">
-        <f t="shared" si="39"/>
-        <v>21300</v>
+        <f t="shared" si="40"/>
+        <v>31640.639999999999</v>
       </c>
       <c r="J68" s="107">
-        <f t="shared" si="39"/>
-        <v>21300</v>
+        <f t="shared" si="40"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="K68" s="107">
-        <f t="shared" si="39"/>
-        <v>21300</v>
+        <f t="shared" si="40"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="L68" s="107">
-        <f t="shared" si="39"/>
-        <v>21300</v>
+        <f t="shared" si="40"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="M68" s="107">
-        <f t="shared" si="39"/>
-        <v>21300</v>
+        <f t="shared" si="40"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="N68" s="107">
-        <f t="shared" si="39"/>
-        <v>21300</v>
+        <f t="shared" si="40"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="O68" s="107">
-        <f t="shared" si="39"/>
-        <v>21300</v>
+        <f t="shared" si="40"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="P68" s="107">
-        <f t="shared" si="39"/>
-        <v>21300</v>
+        <f t="shared" si="40"/>
+        <v>23640.639999999999</v>
       </c>
       <c r="Q68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AA68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AB68" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AC68" s="139">
-        <f t="shared" si="34"/>
-        <v>255600</v>
-      </c>
-      <c r="AD68" s="172"/>
+        <f t="shared" si="35"/>
+        <v>256487.68000000005</v>
+      </c>
+      <c r="AD68" s="146"/>
     </row>
     <row r="69" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
@@ -7832,102 +7848,102 @@
       <c r="D69" s="110"/>
       <c r="E69" s="111">
         <f>E68</f>
-        <v>21300</v>
+        <v>14840.64</v>
       </c>
       <c r="F69" s="111">
         <f>E69+F68</f>
-        <v>42600</v>
+        <v>29681.279999999999</v>
       </c>
       <c r="G69" s="111">
-        <f t="shared" ref="G69:AB69" si="40">F69+G68</f>
-        <v>63900</v>
+        <f t="shared" ref="G69:AB69" si="41">F69+G68</f>
+        <v>44521.919999999998</v>
       </c>
       <c r="H69" s="111">
-        <f t="shared" si="40"/>
-        <v>85200</v>
+        <f t="shared" si="41"/>
+        <v>59362.559999999998</v>
       </c>
       <c r="I69" s="111">
-        <f t="shared" si="40"/>
-        <v>106500</v>
+        <f t="shared" si="41"/>
+        <v>91003.199999999997</v>
       </c>
       <c r="J69" s="111">
-        <f t="shared" si="40"/>
-        <v>127800</v>
+        <f t="shared" si="41"/>
+        <v>114643.84</v>
       </c>
       <c r="K69" s="111">
-        <f t="shared" si="40"/>
-        <v>149100</v>
+        <f t="shared" si="41"/>
+        <v>138284.47999999998</v>
       </c>
       <c r="L69" s="111">
-        <f t="shared" si="40"/>
-        <v>170400</v>
+        <f t="shared" si="41"/>
+        <v>161925.12</v>
       </c>
       <c r="M69" s="111">
-        <f t="shared" si="40"/>
-        <v>191700</v>
+        <f t="shared" si="41"/>
+        <v>185565.76</v>
       </c>
       <c r="N69" s="111">
-        <f t="shared" si="40"/>
-        <v>213000</v>
+        <f t="shared" si="41"/>
+        <v>209206.40000000002</v>
       </c>
       <c r="O69" s="111">
-        <f t="shared" si="40"/>
-        <v>234300</v>
+        <f t="shared" si="41"/>
+        <v>232847.04000000004</v>
       </c>
       <c r="P69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="Q69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="R69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="S69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="T69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="U69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="V69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="W69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="X69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="Y69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="Z69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="AA69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="AB69" s="111">
-        <f t="shared" si="40"/>
-        <v>255600</v>
+        <f t="shared" si="41"/>
+        <v>256487.68000000005</v>
       </c>
       <c r="AC69" s="112"/>
-      <c r="AD69" s="182"/>
+      <c r="AD69" s="154"/>
     </row>
     <row r="70" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
@@ -7968,31 +7984,31 @@
       </c>
       <c r="C71" s="60"/>
       <c r="D71" s="60"/>
-      <c r="E71" s="178"/>
-      <c r="F71" s="155"/>
-      <c r="G71" s="155"/>
-      <c r="H71" s="155"/>
-      <c r="I71" s="155"/>
-      <c r="J71" s="155"/>
-      <c r="K71" s="155"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
-      <c r="N71" s="155"/>
-      <c r="O71" s="155"/>
-      <c r="P71" s="155"/>
-      <c r="Q71" s="155"/>
-      <c r="R71" s="155"/>
-      <c r="S71" s="155"/>
-      <c r="T71" s="155"/>
-      <c r="U71" s="155"/>
-      <c r="V71" s="155"/>
-      <c r="W71" s="155"/>
-      <c r="X71" s="155"/>
-      <c r="Y71" s="155"/>
-      <c r="Z71" s="155"/>
-      <c r="AA71" s="155"/>
-      <c r="AB71" s="155"/>
-      <c r="AC71" s="155"/>
+      <c r="E71" s="150"/>
+      <c r="F71" s="143"/>
+      <c r="G71" s="143"/>
+      <c r="H71" s="143"/>
+      <c r="I71" s="143"/>
+      <c r="J71" s="143"/>
+      <c r="K71" s="143"/>
+      <c r="L71" s="143"/>
+      <c r="M71" s="143"/>
+      <c r="N71" s="143"/>
+      <c r="O71" s="143"/>
+      <c r="P71" s="143"/>
+      <c r="Q71" s="143"/>
+      <c r="R71" s="143"/>
+      <c r="S71" s="143"/>
+      <c r="T71" s="143"/>
+      <c r="U71" s="143"/>
+      <c r="V71" s="143"/>
+      <c r="W71" s="143"/>
+      <c r="X71" s="143"/>
+      <c r="Y71" s="143"/>
+      <c r="Z71" s="143"/>
+      <c r="AA71" s="143"/>
+      <c r="AB71" s="143"/>
+      <c r="AC71" s="143"/>
       <c r="AD71" s="89"/>
     </row>
     <row r="72" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -8004,78 +8020,78 @@
         <v>23</v>
       </c>
       <c r="D72" s="126">
-        <v>0</v>
-      </c>
-      <c r="E72" s="160">
+        <v>5854.8</v>
+      </c>
+      <c r="E72" s="182">
         <f>D72-E73</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="160"/>
-      <c r="G72" s="160"/>
-      <c r="H72" s="160"/>
-      <c r="I72" s="160"/>
-      <c r="J72" s="160"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="160"/>
-      <c r="M72" s="160"/>
-      <c r="N72" s="160"/>
-      <c r="O72" s="160"/>
-      <c r="P72" s="160"/>
-      <c r="Q72" s="160"/>
-      <c r="R72" s="160"/>
-      <c r="S72" s="160"/>
-      <c r="T72" s="160"/>
-      <c r="U72" s="160"/>
-      <c r="V72" s="160"/>
-      <c r="W72" s="160"/>
-      <c r="X72" s="160"/>
-      <c r="Y72" s="160"/>
-      <c r="Z72" s="160"/>
-      <c r="AA72" s="160"/>
-      <c r="AB72" s="160"/>
-      <c r="AC72" s="160"/>
-      <c r="AD72" s="140">
-        <v>0</v>
+        <v>5854.8</v>
+      </c>
+      <c r="F72" s="182"/>
+      <c r="G72" s="182"/>
+      <c r="H72" s="182"/>
+      <c r="I72" s="182"/>
+      <c r="J72" s="182"/>
+      <c r="K72" s="182"/>
+      <c r="L72" s="182"/>
+      <c r="M72" s="182"/>
+      <c r="N72" s="182"/>
+      <c r="O72" s="182"/>
+      <c r="P72" s="182"/>
+      <c r="Q72" s="182"/>
+      <c r="R72" s="182"/>
+      <c r="S72" s="182"/>
+      <c r="T72" s="182"/>
+      <c r="U72" s="182"/>
+      <c r="V72" s="182"/>
+      <c r="W72" s="182"/>
+      <c r="X72" s="182"/>
+      <c r="Y72" s="182"/>
+      <c r="Z72" s="182"/>
+      <c r="AA72" s="182"/>
+      <c r="AB72" s="182"/>
+      <c r="AC72" s="182"/>
+      <c r="AD72" s="171">
+        <v>5854.8</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="170" t="s">
+      <c r="B73" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="171"/>
+      <c r="C73" s="166"/>
       <c r="D73" s="127">
         <v>0</v>
       </c>
-      <c r="E73" s="158">
+      <c r="E73" s="180">
         <f>D72*D73</f>
         <v>0</v>
       </c>
-      <c r="F73" s="158"/>
-      <c r="G73" s="158"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="158"/>
-      <c r="J73" s="158"/>
-      <c r="K73" s="158"/>
-      <c r="L73" s="158"/>
-      <c r="M73" s="158"/>
-      <c r="N73" s="158"/>
-      <c r="O73" s="158"/>
-      <c r="P73" s="158"/>
-      <c r="Q73" s="158"/>
-      <c r="R73" s="158"/>
-      <c r="S73" s="158"/>
-      <c r="T73" s="158"/>
-      <c r="U73" s="158"/>
-      <c r="V73" s="158"/>
-      <c r="W73" s="158"/>
-      <c r="X73" s="158"/>
-      <c r="Y73" s="158"/>
-      <c r="Z73" s="158"/>
-      <c r="AA73" s="158"/>
-      <c r="AB73" s="158"/>
-      <c r="AC73" s="158"/>
-      <c r="AD73" s="141"/>
+      <c r="F73" s="180"/>
+      <c r="G73" s="180"/>
+      <c r="H73" s="180"/>
+      <c r="I73" s="180"/>
+      <c r="J73" s="180"/>
+      <c r="K73" s="180"/>
+      <c r="L73" s="180"/>
+      <c r="M73" s="180"/>
+      <c r="N73" s="180"/>
+      <c r="O73" s="180"/>
+      <c r="P73" s="180"/>
+      <c r="Q73" s="180"/>
+      <c r="R73" s="180"/>
+      <c r="S73" s="180"/>
+      <c r="T73" s="180"/>
+      <c r="U73" s="180"/>
+      <c r="V73" s="180"/>
+      <c r="W73" s="180"/>
+      <c r="X73" s="180"/>
+      <c r="Y73" s="180"/>
+      <c r="Z73" s="180"/>
+      <c r="AA73" s="180"/>
+      <c r="AB73" s="180"/>
+      <c r="AC73" s="180"/>
+      <c r="AD73" s="172"/>
     </row>
     <row r="74" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
@@ -8088,35 +8104,35 @@
       <c r="D74" s="117">
         <v>0</v>
       </c>
-      <c r="E74" s="159">
+      <c r="E74" s="181">
         <f>D74</f>
         <v>0</v>
       </c>
-      <c r="F74" s="159"/>
-      <c r="G74" s="159"/>
-      <c r="H74" s="159"/>
-      <c r="I74" s="159"/>
-      <c r="J74" s="159"/>
-      <c r="K74" s="159"/>
-      <c r="L74" s="159"/>
-      <c r="M74" s="159"/>
-      <c r="N74" s="159"/>
-      <c r="O74" s="159"/>
-      <c r="P74" s="159"/>
-      <c r="Q74" s="159"/>
-      <c r="R74" s="159"/>
-      <c r="S74" s="159"/>
-      <c r="T74" s="159"/>
-      <c r="U74" s="159"/>
-      <c r="V74" s="159"/>
-      <c r="W74" s="159"/>
-      <c r="X74" s="159"/>
-      <c r="Y74" s="159"/>
-      <c r="Z74" s="159"/>
-      <c r="AA74" s="159"/>
-      <c r="AB74" s="159"/>
-      <c r="AC74" s="159"/>
-      <c r="AD74" s="172" t="s">
+      <c r="F74" s="181"/>
+      <c r="G74" s="181"/>
+      <c r="H74" s="181"/>
+      <c r="I74" s="181"/>
+      <c r="J74" s="181"/>
+      <c r="K74" s="181"/>
+      <c r="L74" s="181"/>
+      <c r="M74" s="181"/>
+      <c r="N74" s="181"/>
+      <c r="O74" s="181"/>
+      <c r="P74" s="181"/>
+      <c r="Q74" s="181"/>
+      <c r="R74" s="181"/>
+      <c r="S74" s="181"/>
+      <c r="T74" s="181"/>
+      <c r="U74" s="181"/>
+      <c r="V74" s="181"/>
+      <c r="W74" s="181"/>
+      <c r="X74" s="181"/>
+      <c r="Y74" s="181"/>
+      <c r="Z74" s="181"/>
+      <c r="AA74" s="181"/>
+      <c r="AB74" s="181"/>
+      <c r="AC74" s="181"/>
+      <c r="AD74" s="146" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8127,74 +8143,74 @@
       </c>
       <c r="C75" s="129"/>
       <c r="D75" s="129"/>
-      <c r="E75" s="179"/>
-      <c r="F75" s="180"/>
-      <c r="G75" s="180"/>
-      <c r="H75" s="180"/>
-      <c r="I75" s="180"/>
-      <c r="J75" s="180"/>
-      <c r="K75" s="180"/>
-      <c r="L75" s="180"/>
-      <c r="M75" s="180"/>
-      <c r="N75" s="180"/>
-      <c r="O75" s="180"/>
-      <c r="P75" s="180"/>
-      <c r="Q75" s="180"/>
-      <c r="R75" s="180"/>
-      <c r="S75" s="180"/>
-      <c r="T75" s="180"/>
-      <c r="U75" s="180"/>
-      <c r="V75" s="180"/>
-      <c r="W75" s="180"/>
-      <c r="X75" s="180"/>
-      <c r="Y75" s="180"/>
-      <c r="Z75" s="180"/>
-      <c r="AA75" s="180"/>
-      <c r="AB75" s="180"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="152"/>
+      <c r="G75" s="152"/>
+      <c r="H75" s="152"/>
+      <c r="I75" s="152"/>
+      <c r="J75" s="152"/>
+      <c r="K75" s="152"/>
+      <c r="L75" s="152"/>
+      <c r="M75" s="152"/>
+      <c r="N75" s="152"/>
+      <c r="O75" s="152"/>
+      <c r="P75" s="152"/>
+      <c r="Q75" s="152"/>
+      <c r="R75" s="152"/>
+      <c r="S75" s="152"/>
+      <c r="T75" s="152"/>
+      <c r="U75" s="152"/>
+      <c r="V75" s="152"/>
+      <c r="W75" s="152"/>
+      <c r="X75" s="152"/>
+      <c r="Y75" s="152"/>
+      <c r="Z75" s="152"/>
+      <c r="AA75" s="152"/>
+      <c r="AB75" s="152"/>
       <c r="AC75" s="130">
         <f>D72+D74</f>
-        <v>0</v>
-      </c>
-      <c r="AD75" s="172"/>
+        <v>5854.8</v>
+      </c>
+      <c r="AD75" s="146"/>
     </row>
     <row r="76" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
-      <c r="B76" s="164" t="s">
+      <c r="B76" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="165"/>
+      <c r="C76" s="157"/>
       <c r="D76" s="131"/>
-      <c r="E76" s="167"/>
-      <c r="F76" s="165"/>
-      <c r="G76" s="165"/>
-      <c r="H76" s="165"/>
-      <c r="I76" s="165"/>
-      <c r="J76" s="165"/>
-      <c r="K76" s="165"/>
-      <c r="L76" s="165"/>
-      <c r="M76" s="165"/>
-      <c r="N76" s="165"/>
-      <c r="O76" s="165"/>
-      <c r="P76" s="165"/>
-      <c r="Q76" s="165"/>
-      <c r="R76" s="165"/>
-      <c r="S76" s="165"/>
-      <c r="T76" s="165"/>
-      <c r="U76" s="165"/>
-      <c r="V76" s="165"/>
-      <c r="W76" s="165"/>
-      <c r="X76" s="165"/>
-      <c r="Y76" s="165"/>
-      <c r="Z76" s="165"/>
-      <c r="AA76" s="165"/>
-      <c r="AB76" s="165"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="157"/>
+      <c r="G76" s="157"/>
+      <c r="H76" s="157"/>
+      <c r="I76" s="157"/>
+      <c r="J76" s="157"/>
+      <c r="K76" s="157"/>
+      <c r="L76" s="157"/>
+      <c r="M76" s="157"/>
+      <c r="N76" s="157"/>
+      <c r="O76" s="157"/>
+      <c r="P76" s="157"/>
+      <c r="Q76" s="157"/>
+      <c r="R76" s="157"/>
+      <c r="S76" s="157"/>
+      <c r="T76" s="157"/>
+      <c r="U76" s="157"/>
+      <c r="V76" s="157"/>
+      <c r="W76" s="157"/>
+      <c r="X76" s="157"/>
+      <c r="Y76" s="157"/>
+      <c r="Z76" s="157"/>
+      <c r="AA76" s="157"/>
+      <c r="AB76" s="157"/>
       <c r="AC76" s="132">
         <f>AC75+AC68</f>
-        <v>255600</v>
+        <v>262342.48000000004</v>
       </c>
       <c r="AD76" s="133">
         <f>AD72+AD64+AD58+AD51+AD44+AD25</f>
-        <v>0</v>
+        <v>253854.8</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="15" x14ac:dyDescent="0.3">
@@ -8261,10 +8277,10 @@
     </row>
     <row r="79" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="166" t="s">
+      <c r="B79" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="143"/>
+      <c r="C79" s="159"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -8427,10 +8443,10 @@
     </row>
     <row r="84" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="142" t="s">
+      <c r="B84" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="143"/>
+      <c r="C84" s="159"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8459,10 +8475,10 @@
     </row>
     <row r="85" spans="1:29" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="163" t="s">
+      <c r="B85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="143"/>
+      <c r="C85" s="159"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8522,10 +8538,10 @@
     </row>
     <row r="87" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="162" t="s">
+      <c r="B87" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="143"/>
+      <c r="C87" s="159"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8554,10 +8570,10 @@
     </row>
     <row r="88" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="161" t="s">
+      <c r="B88" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="143"/>
+      <c r="C88" s="159"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -8586,8 +8602,8 @@
     </row>
     <row r="89" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="143"/>
-      <c r="C89" s="143"/>
+      <c r="B89" s="159"/>
+      <c r="C89" s="159"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -8647,10 +8663,10 @@
     </row>
     <row r="91" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="142" t="s">
+      <c r="B91" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="143"/>
+      <c r="C91" s="159"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
@@ -8679,10 +8695,10 @@
     </row>
     <row r="92" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="161" t="s">
+      <c r="B92" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="C92" s="143"/>
+      <c r="C92" s="159"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -8711,8 +8727,8 @@
     </row>
     <row r="93" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="143"/>
-      <c r="C93" s="143"/>
+      <c r="B93" s="159"/>
+      <c r="C93" s="159"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -37943,6 +37959,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="AD72:AD73"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E2:AC2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E6:AB6"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E5:AB5"/>
+    <mergeCell ref="E53:AB53"/>
+    <mergeCell ref="E27:AB27"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E73:AC73"/>
+    <mergeCell ref="E74:AC74"/>
+    <mergeCell ref="E72:AC72"/>
+    <mergeCell ref="B92:C93"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B88:C89"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E60:AB60"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E76:AB76"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="AD23:AD24"/>
     <mergeCell ref="E46:AB46"/>
     <mergeCell ref="B50:D50"/>
@@ -37959,49 +38018,6 @@
     <mergeCell ref="E71:AC71"/>
     <mergeCell ref="E75:AB75"/>
     <mergeCell ref="AD66:AD69"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E60:AB60"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E76:AB76"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B92:C93"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B88:C89"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="AD72:AD73"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E2:AC2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E6:AB6"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E5:AB5"/>
-    <mergeCell ref="E53:AB53"/>
-    <mergeCell ref="E27:AB27"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E73:AC73"/>
-    <mergeCell ref="E74:AC74"/>
-    <mergeCell ref="E72:AC72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.56333333333333335" bottom="0.44958333333333333" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
@@ -38041,44 +38057,44 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
     </row>
     <row r="2" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="148"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="176"/>
       <c r="E2" s="72">
         <v>1</v>
       </c>
@@ -38156,9 +38172,9 @@
     </row>
     <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
@@ -38231,10 +38247,10 @@
       <c r="AB3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="149" t="s">
+      <c r="AC3" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="172" t="s">
+      <c r="AD3" s="146" t="s">
         <v>45</v>
       </c>
     </row>
@@ -38245,32 +38261,32 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="172"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="159"/>
+      <c r="T4" s="159"/>
+      <c r="U4" s="159"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="146"/>
     </row>
     <row r="5" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -38283,32 +38299,32 @@
       <c r="D5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
       <c r="AC5" s="61"/>
       <c r="AD5" s="89"/>
     </row>
@@ -38400,7 +38416,7 @@
         <f>SUM(E6:AB6)*D6</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="173">
+      <c r="AD6" s="147">
         <v>0</v>
       </c>
     </row>
@@ -38516,7 +38532,7 @@
         <f t="shared" ref="AC7:AC23" si="1">SUM(E7:AB7)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="174"/>
+      <c r="AD7" s="148"/>
     </row>
     <row r="8" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -38606,7 +38622,7 @@
         <f>SUM(E8:AB8)*D8</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="173">
+      <c r="AD8" s="147">
         <v>0</v>
       </c>
     </row>
@@ -38722,7 +38738,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="174"/>
+      <c r="AD9" s="148"/>
     </row>
     <row r="10" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -38812,7 +38828,7 @@
         <f>SUM(E10:AB10)*D10</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="173">
+      <c r="AD10" s="147">
         <v>0</v>
       </c>
     </row>
@@ -38928,7 +38944,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="174"/>
+      <c r="AD11" s="148"/>
     </row>
     <row r="12" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -39018,7 +39034,7 @@
         <f>SUM(E12:AB12)*D12</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="173">
+      <c r="AD12" s="147">
         <v>0</v>
       </c>
     </row>
@@ -39134,7 +39150,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="174"/>
+      <c r="AD13" s="148"/>
     </row>
     <row r="14" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -39224,7 +39240,7 @@
         <f>SUM(E14:AB14)*D14</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="173">
+      <c r="AD14" s="147">
         <v>0</v>
       </c>
     </row>
@@ -39340,7 +39356,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="174"/>
+      <c r="AD15" s="148"/>
     </row>
     <row r="16" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -39430,7 +39446,7 @@
         <f>SUM(E16:AB16)*D16</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="173">
+      <c r="AD16" s="147">
         <v>0</v>
       </c>
     </row>
@@ -39546,7 +39562,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="174"/>
+      <c r="AD17" s="148"/>
     </row>
     <row r="18" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -39636,7 +39652,7 @@
         <f>SUM(E18:AB18)*D18</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="173">
+      <c r="AD18" s="147">
         <v>0</v>
       </c>
     </row>
@@ -39752,7 +39768,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="174"/>
+      <c r="AD19" s="148"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -39842,7 +39858,7 @@
         <f>SUM(E20:AB20)*D20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="173">
+      <c r="AD20" s="147">
         <v>0</v>
       </c>
     </row>
@@ -39958,7 +39974,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="174"/>
+      <c r="AD21" s="148"/>
     </row>
     <row r="22" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -40067,7 +40083,7 @@
         <f t="shared" ref="AC22" si="10">SUM(E22:AB22)</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="175" t="s">
+      <c r="AD22" s="140" t="s">
         <v>45</v>
       </c>
     </row>
@@ -40178,7 +40194,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="176"/>
+      <c r="AD23" s="141"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -40335,32 +40351,32 @@
       <c r="D26" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="147" t="s">
+      <c r="E26" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="143"/>
+      <c r="X26" s="143"/>
+      <c r="Y26" s="143"/>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="143"/>
+      <c r="AB26" s="143"/>
       <c r="AC26" s="61"/>
       <c r="AD26" s="89"/>
     </row>
@@ -40452,7 +40468,7 @@
         <f>SUM(E27:AB27)*D27</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="173">
+      <c r="AD27" s="147">
         <v>0</v>
       </c>
     </row>
@@ -40568,7 +40584,7 @@
         <f t="shared" ref="AC28" si="14">SUM(E28:AB28)</f>
         <v>0</v>
       </c>
-      <c r="AD28" s="174"/>
+      <c r="AD28" s="148"/>
     </row>
     <row r="29" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -40658,7 +40674,7 @@
         <f>SUM(E29:AB29)*D29</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="173">
+      <c r="AD29" s="147">
         <v>0</v>
       </c>
     </row>
@@ -40774,7 +40790,7 @@
         <f t="shared" ref="AC30" si="16">SUM(E30:AB30)</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="174"/>
+      <c r="AD30" s="148"/>
     </row>
     <row r="31" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -40864,7 +40880,7 @@
         <f>SUM(E31:AB31)*D31</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="173">
+      <c r="AD31" s="147">
         <v>0</v>
       </c>
     </row>
@@ -40980,7 +40996,7 @@
         <f t="shared" ref="AC32" si="18">SUM(E32:AB32)</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="174"/>
+      <c r="AD32" s="148"/>
     </row>
     <row r="33" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -41070,7 +41086,7 @@
         <f>SUM(E33:AB33)*D33</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="177">
+      <c r="AD33" s="149">
         <v>0</v>
       </c>
     </row>
@@ -41186,7 +41202,7 @@
         <f t="shared" ref="AC34" si="20">SUM(E34:AB34)</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="174"/>
+      <c r="AD34" s="148"/>
     </row>
     <row r="35" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -41276,7 +41292,7 @@
         <f>SUM(E35:AB35)*D35</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="173">
+      <c r="AD35" s="147">
         <v>0</v>
       </c>
     </row>
@@ -41392,7 +41408,7 @@
         <f t="shared" ref="AC36" si="22">SUM(E36:AB36)</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="174"/>
+      <c r="AD36" s="148"/>
     </row>
     <row r="37" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
@@ -41482,7 +41498,7 @@
         <f>SUM(E37:AB37)*D37</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="173">
+      <c r="AD37" s="147">
         <v>0</v>
       </c>
     </row>
@@ -41598,7 +41614,7 @@
         <f t="shared" ref="AC38" si="24">SUM(E38:AB38)</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="174"/>
+      <c r="AD38" s="148"/>
     </row>
     <row r="39" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -41688,7 +41704,7 @@
         <f>SUM(E39:AB39)*D39</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="173">
+      <c r="AD39" s="147">
         <v>0</v>
       </c>
     </row>
@@ -41804,7 +41820,7 @@
         <f t="shared" ref="AC40:AC42" si="26">SUM(E40:AB40)</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="174"/>
+      <c r="AD40" s="148"/>
     </row>
     <row r="41" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
@@ -41913,7 +41929,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD41" s="172" t="s">
+      <c r="AD41" s="146" t="s">
         <v>45</v>
       </c>
     </row>
@@ -42024,7 +42040,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="172"/>
+      <c r="AD42" s="146"/>
     </row>
     <row r="43" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
@@ -42177,42 +42193,42 @@
       </c>
       <c r="C45" s="66"/>
       <c r="D45" s="66"/>
-      <c r="E45" s="147" t="s">
+      <c r="E45" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="155"/>
-      <c r="G45" s="155"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="155"/>
-      <c r="L45" s="155"/>
-      <c r="M45" s="155"/>
-      <c r="N45" s="155"/>
-      <c r="O45" s="155"/>
-      <c r="P45" s="155"/>
-      <c r="Q45" s="155"/>
-      <c r="R45" s="155"/>
-      <c r="S45" s="155"/>
-      <c r="T45" s="155"/>
-      <c r="U45" s="155"/>
-      <c r="V45" s="155"/>
-      <c r="W45" s="155"/>
-      <c r="X45" s="155"/>
-      <c r="Y45" s="155"/>
-      <c r="Z45" s="155"/>
-      <c r="AA45" s="155"/>
-      <c r="AB45" s="155"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="143"/>
+      <c r="L45" s="143"/>
+      <c r="M45" s="143"/>
+      <c r="N45" s="143"/>
+      <c r="O45" s="143"/>
+      <c r="P45" s="143"/>
+      <c r="Q45" s="143"/>
+      <c r="R45" s="143"/>
+      <c r="S45" s="143"/>
+      <c r="T45" s="143"/>
+      <c r="U45" s="143"/>
+      <c r="V45" s="143"/>
+      <c r="W45" s="143"/>
+      <c r="X45" s="143"/>
+      <c r="Y45" s="143"/>
+      <c r="Z45" s="143"/>
+      <c r="AA45" s="143"/>
+      <c r="AB45" s="143"/>
       <c r="AC45" s="61"/>
       <c r="AD45" s="89"/>
     </row>
     <row r="46" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="150" t="s">
+      <c r="B46" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
+      <c r="C46" s="162"/>
+      <c r="D46" s="162"/>
       <c r="E46" s="12">
         <v>0</v>
       </c>
@@ -42295,11 +42311,11 @@
     </row>
     <row r="47" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="156" t="s">
+      <c r="B47" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="15">
         <v>0</v>
       </c>
@@ -42382,11 +42398,11 @@
     </row>
     <row r="48" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="156" t="s">
+      <c r="B48" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="157"/>
-      <c r="D48" s="157"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="15">
         <v>0</v>
       </c>
@@ -42469,11 +42485,11 @@
     </row>
     <row r="49" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="18">
         <v>0</v>
       </c>
@@ -42700,47 +42716,47 @@
     </row>
     <row r="52" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="152" t="s">
+      <c r="B52" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="147" t="s">
+      <c r="C52" s="178"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="155"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="155"/>
-      <c r="S52" s="155"/>
-      <c r="T52" s="155"/>
-      <c r="U52" s="155"/>
-      <c r="V52" s="155"/>
-      <c r="W52" s="155"/>
-      <c r="X52" s="155"/>
-      <c r="Y52" s="155"/>
-      <c r="Z52" s="155"/>
-      <c r="AA52" s="155"/>
-      <c r="AB52" s="155"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="143"/>
+      <c r="K52" s="143"/>
+      <c r="L52" s="143"/>
+      <c r="M52" s="143"/>
+      <c r="N52" s="143"/>
+      <c r="O52" s="143"/>
+      <c r="P52" s="143"/>
+      <c r="Q52" s="143"/>
+      <c r="R52" s="143"/>
+      <c r="S52" s="143"/>
+      <c r="T52" s="143"/>
+      <c r="U52" s="143"/>
+      <c r="V52" s="143"/>
+      <c r="W52" s="143"/>
+      <c r="X52" s="143"/>
+      <c r="Y52" s="143"/>
+      <c r="Z52" s="143"/>
+      <c r="AA52" s="143"/>
+      <c r="AB52" s="143"/>
       <c r="AC52" s="61"/>
       <c r="AD52" s="89"/>
     </row>
     <row r="53" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="150" t="s">
+      <c r="B53" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="151"/>
-      <c r="D53" s="151"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="162"/>
       <c r="E53" s="12">
         <v>0</v>
       </c>
@@ -42823,11 +42839,11 @@
     </row>
     <row r="54" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="156" t="s">
+      <c r="B54" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
       <c r="E54" s="15">
         <v>0</v>
       </c>
@@ -42910,11 +42926,11 @@
     </row>
     <row r="55" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="156" t="s">
+      <c r="B55" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="157"/>
-      <c r="D55" s="157"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
       <c r="E55" s="15">
         <v>0</v>
       </c>
@@ -42997,11 +43013,11 @@
     </row>
     <row r="56" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="156" t="s">
+      <c r="B56" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="18">
         <v>0</v>
       </c>
@@ -43228,47 +43244,47 @@
     </row>
     <row r="59" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="168" t="s">
+      <c r="B59" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
-      <c r="E59" s="147" t="s">
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
-      <c r="I59" s="155"/>
-      <c r="J59" s="155"/>
-      <c r="K59" s="155"/>
-      <c r="L59" s="155"/>
-      <c r="M59" s="155"/>
-      <c r="N59" s="155"/>
-      <c r="O59" s="155"/>
-      <c r="P59" s="155"/>
-      <c r="Q59" s="155"/>
-      <c r="R59" s="155"/>
-      <c r="S59" s="155"/>
-      <c r="T59" s="155"/>
-      <c r="U59" s="155"/>
-      <c r="V59" s="155"/>
-      <c r="W59" s="155"/>
-      <c r="X59" s="155"/>
-      <c r="Y59" s="155"/>
-      <c r="Z59" s="155"/>
-      <c r="AA59" s="155"/>
-      <c r="AB59" s="155"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="143"/>
+      <c r="J59" s="143"/>
+      <c r="K59" s="143"/>
+      <c r="L59" s="143"/>
+      <c r="M59" s="143"/>
+      <c r="N59" s="143"/>
+      <c r="O59" s="143"/>
+      <c r="P59" s="143"/>
+      <c r="Q59" s="143"/>
+      <c r="R59" s="143"/>
+      <c r="S59" s="143"/>
+      <c r="T59" s="143"/>
+      <c r="U59" s="143"/>
+      <c r="V59" s="143"/>
+      <c r="W59" s="143"/>
+      <c r="X59" s="143"/>
+      <c r="Y59" s="143"/>
+      <c r="Z59" s="143"/>
+      <c r="AA59" s="143"/>
+      <c r="AB59" s="143"/>
       <c r="AC59" s="61"/>
       <c r="AD59" s="89"/>
     </row>
     <row r="60" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="150" t="s">
+      <c r="B60" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="151"/>
-      <c r="D60" s="151"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="162"/>
       <c r="E60" s="12">
         <v>0</v>
       </c>
@@ -43351,11 +43367,11 @@
     </row>
     <row r="61" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="156" t="s">
+      <c r="B61" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="15">
         <v>0</v>
       </c>
@@ -43438,11 +43454,11 @@
     </row>
     <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="156" t="s">
+      <c r="B62" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="157"/>
-      <c r="D62" s="157"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="15">
         <v>0</v>
       </c>
@@ -43774,7 +43790,7 @@
         <f t="shared" ref="AC65:AC66" si="37">SUM(E65:AB65)</f>
         <v>0</v>
       </c>
-      <c r="AD65" s="181"/>
+      <c r="AD65" s="153"/>
     </row>
     <row r="66" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
@@ -43883,7 +43899,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AD66" s="172"/>
+      <c r="AD66" s="146"/>
     </row>
     <row r="67" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
@@ -43992,7 +44008,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AD67" s="172"/>
+      <c r="AD67" s="146"/>
     </row>
     <row r="68" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
@@ -44098,7 +44114,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="112"/>
-      <c r="AD68" s="182"/>
+      <c r="AD68" s="154"/>
     </row>
     <row r="69" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
@@ -44139,31 +44155,31 @@
       </c>
       <c r="C70" s="60"/>
       <c r="D70" s="60"/>
-      <c r="E70" s="178"/>
-      <c r="F70" s="155"/>
-      <c r="G70" s="155"/>
-      <c r="H70" s="155"/>
-      <c r="I70" s="155"/>
-      <c r="J70" s="155"/>
-      <c r="K70" s="155"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
-      <c r="N70" s="155"/>
-      <c r="O70" s="155"/>
-      <c r="P70" s="155"/>
-      <c r="Q70" s="155"/>
-      <c r="R70" s="155"/>
-      <c r="S70" s="155"/>
-      <c r="T70" s="155"/>
-      <c r="U70" s="155"/>
-      <c r="V70" s="155"/>
-      <c r="W70" s="155"/>
-      <c r="X70" s="155"/>
-      <c r="Y70" s="155"/>
-      <c r="Z70" s="155"/>
-      <c r="AA70" s="155"/>
-      <c r="AB70" s="155"/>
-      <c r="AC70" s="155"/>
+      <c r="E70" s="150"/>
+      <c r="F70" s="143"/>
+      <c r="G70" s="143"/>
+      <c r="H70" s="143"/>
+      <c r="I70" s="143"/>
+      <c r="J70" s="143"/>
+      <c r="K70" s="143"/>
+      <c r="L70" s="143"/>
+      <c r="M70" s="143"/>
+      <c r="N70" s="143"/>
+      <c r="O70" s="143"/>
+      <c r="P70" s="143"/>
+      <c r="Q70" s="143"/>
+      <c r="R70" s="143"/>
+      <c r="S70" s="143"/>
+      <c r="T70" s="143"/>
+      <c r="U70" s="143"/>
+      <c r="V70" s="143"/>
+      <c r="W70" s="143"/>
+      <c r="X70" s="143"/>
+      <c r="Y70" s="143"/>
+      <c r="Z70" s="143"/>
+      <c r="AA70" s="143"/>
+      <c r="AB70" s="143"/>
+      <c r="AC70" s="143"/>
       <c r="AD70" s="89"/>
     </row>
     <row r="71" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -44177,76 +44193,76 @@
       <c r="D71" s="25">
         <v>0</v>
       </c>
-      <c r="E71" s="190">
+      <c r="E71" s="186">
         <f>D71-E72</f>
         <v>0</v>
       </c>
-      <c r="F71" s="190"/>
-      <c r="G71" s="190"/>
-      <c r="H71" s="190"/>
-      <c r="I71" s="190"/>
-      <c r="J71" s="190"/>
-      <c r="K71" s="190"/>
-      <c r="L71" s="190"/>
-      <c r="M71" s="190"/>
-      <c r="N71" s="190"/>
-      <c r="O71" s="190"/>
-      <c r="P71" s="190"/>
-      <c r="Q71" s="190"/>
-      <c r="R71" s="190"/>
-      <c r="S71" s="190"/>
-      <c r="T71" s="190"/>
-      <c r="U71" s="190"/>
-      <c r="V71" s="190"/>
-      <c r="W71" s="190"/>
-      <c r="X71" s="190"/>
-      <c r="Y71" s="190"/>
-      <c r="Z71" s="190"/>
-      <c r="AA71" s="190"/>
-      <c r="AB71" s="190"/>
-      <c r="AC71" s="190"/>
-      <c r="AD71" s="173">
+      <c r="F71" s="186"/>
+      <c r="G71" s="186"/>
+      <c r="H71" s="186"/>
+      <c r="I71" s="186"/>
+      <c r="J71" s="186"/>
+      <c r="K71" s="186"/>
+      <c r="L71" s="186"/>
+      <c r="M71" s="186"/>
+      <c r="N71" s="186"/>
+      <c r="O71" s="186"/>
+      <c r="P71" s="186"/>
+      <c r="Q71" s="186"/>
+      <c r="R71" s="186"/>
+      <c r="S71" s="186"/>
+      <c r="T71" s="186"/>
+      <c r="U71" s="186"/>
+      <c r="V71" s="186"/>
+      <c r="W71" s="186"/>
+      <c r="X71" s="186"/>
+      <c r="Y71" s="186"/>
+      <c r="Z71" s="186"/>
+      <c r="AA71" s="186"/>
+      <c r="AB71" s="186"/>
+      <c r="AC71" s="186"/>
+      <c r="AD71" s="147">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="191" t="s">
+      <c r="B72" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="192"/>
+      <c r="C72" s="188"/>
       <c r="D72" s="121">
         <v>0</v>
       </c>
-      <c r="E72" s="190">
+      <c r="E72" s="186">
         <f>D71*D72</f>
         <v>0</v>
       </c>
-      <c r="F72" s="190"/>
-      <c r="G72" s="190"/>
-      <c r="H72" s="190"/>
-      <c r="I72" s="190"/>
-      <c r="J72" s="190"/>
-      <c r="K72" s="190"/>
-      <c r="L72" s="190"/>
-      <c r="M72" s="190"/>
-      <c r="N72" s="190"/>
-      <c r="O72" s="190"/>
-      <c r="P72" s="190"/>
-      <c r="Q72" s="190"/>
-      <c r="R72" s="190"/>
-      <c r="S72" s="190"/>
-      <c r="T72" s="190"/>
-      <c r="U72" s="190"/>
-      <c r="V72" s="190"/>
-      <c r="W72" s="190"/>
-      <c r="X72" s="190"/>
-      <c r="Y72" s="190"/>
-      <c r="Z72" s="190"/>
-      <c r="AA72" s="190"/>
-      <c r="AB72" s="190"/>
-      <c r="AC72" s="190"/>
-      <c r="AD72" s="174"/>
+      <c r="F72" s="186"/>
+      <c r="G72" s="186"/>
+      <c r="H72" s="186"/>
+      <c r="I72" s="186"/>
+      <c r="J72" s="186"/>
+      <c r="K72" s="186"/>
+      <c r="L72" s="186"/>
+      <c r="M72" s="186"/>
+      <c r="N72" s="186"/>
+      <c r="O72" s="186"/>
+      <c r="P72" s="186"/>
+      <c r="Q72" s="186"/>
+      <c r="R72" s="186"/>
+      <c r="S72" s="186"/>
+      <c r="T72" s="186"/>
+      <c r="U72" s="186"/>
+      <c r="V72" s="186"/>
+      <c r="W72" s="186"/>
+      <c r="X72" s="186"/>
+      <c r="Y72" s="186"/>
+      <c r="Z72" s="186"/>
+      <c r="AA72" s="186"/>
+      <c r="AB72" s="186"/>
+      <c r="AC72" s="186"/>
+      <c r="AD72" s="148"/>
     </row>
     <row r="73" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
@@ -44259,35 +44275,35 @@
       <c r="D73" s="117">
         <v>0</v>
       </c>
-      <c r="E73" s="189">
+      <c r="E73" s="185">
         <f>D73</f>
         <v>0</v>
       </c>
-      <c r="F73" s="189"/>
-      <c r="G73" s="189"/>
-      <c r="H73" s="189"/>
-      <c r="I73" s="189"/>
-      <c r="J73" s="189"/>
-      <c r="K73" s="189"/>
-      <c r="L73" s="189"/>
-      <c r="M73" s="189"/>
-      <c r="N73" s="189"/>
-      <c r="O73" s="189"/>
-      <c r="P73" s="189"/>
-      <c r="Q73" s="189"/>
-      <c r="R73" s="189"/>
-      <c r="S73" s="189"/>
-      <c r="T73" s="189"/>
-      <c r="U73" s="189"/>
-      <c r="V73" s="189"/>
-      <c r="W73" s="189"/>
-      <c r="X73" s="189"/>
-      <c r="Y73" s="189"/>
-      <c r="Z73" s="189"/>
-      <c r="AA73" s="189"/>
-      <c r="AB73" s="189"/>
-      <c r="AC73" s="189"/>
-      <c r="AD73" s="172" t="s">
+      <c r="F73" s="185"/>
+      <c r="G73" s="185"/>
+      <c r="H73" s="185"/>
+      <c r="I73" s="185"/>
+      <c r="J73" s="185"/>
+      <c r="K73" s="185"/>
+      <c r="L73" s="185"/>
+      <c r="M73" s="185"/>
+      <c r="N73" s="185"/>
+      <c r="O73" s="185"/>
+      <c r="P73" s="185"/>
+      <c r="Q73" s="185"/>
+      <c r="R73" s="185"/>
+      <c r="S73" s="185"/>
+      <c r="T73" s="185"/>
+      <c r="U73" s="185"/>
+      <c r="V73" s="185"/>
+      <c r="W73" s="185"/>
+      <c r="X73" s="185"/>
+      <c r="Y73" s="185"/>
+      <c r="Z73" s="185"/>
+      <c r="AA73" s="185"/>
+      <c r="AB73" s="185"/>
+      <c r="AC73" s="185"/>
+      <c r="AD73" s="146" t="s">
         <v>54</v>
       </c>
     </row>
@@ -44298,67 +44314,67 @@
       </c>
       <c r="C74" s="119"/>
       <c r="D74" s="119"/>
-      <c r="E74" s="187"/>
-      <c r="F74" s="188"/>
-      <c r="G74" s="188"/>
-      <c r="H74" s="188"/>
-      <c r="I74" s="188"/>
-      <c r="J74" s="188"/>
-      <c r="K74" s="188"/>
-      <c r="L74" s="188"/>
-      <c r="M74" s="188"/>
-      <c r="N74" s="188"/>
-      <c r="O74" s="188"/>
-      <c r="P74" s="188"/>
-      <c r="Q74" s="188"/>
-      <c r="R74" s="188"/>
-      <c r="S74" s="188"/>
-      <c r="T74" s="188"/>
-      <c r="U74" s="188"/>
-      <c r="V74" s="188"/>
-      <c r="W74" s="188"/>
-      <c r="X74" s="188"/>
-      <c r="Y74" s="188"/>
-      <c r="Z74" s="188"/>
-      <c r="AA74" s="188"/>
-      <c r="AB74" s="188"/>
+      <c r="E74" s="183"/>
+      <c r="F74" s="184"/>
+      <c r="G74" s="184"/>
+      <c r="H74" s="184"/>
+      <c r="I74" s="184"/>
+      <c r="J74" s="184"/>
+      <c r="K74" s="184"/>
+      <c r="L74" s="184"/>
+      <c r="M74" s="184"/>
+      <c r="N74" s="184"/>
+      <c r="O74" s="184"/>
+      <c r="P74" s="184"/>
+      <c r="Q74" s="184"/>
+      <c r="R74" s="184"/>
+      <c r="S74" s="184"/>
+      <c r="T74" s="184"/>
+      <c r="U74" s="184"/>
+      <c r="V74" s="184"/>
+      <c r="W74" s="184"/>
+      <c r="X74" s="184"/>
+      <c r="Y74" s="184"/>
+      <c r="Z74" s="184"/>
+      <c r="AA74" s="184"/>
+      <c r="AB74" s="184"/>
       <c r="AC74" s="120">
         <f>D71+D73</f>
         <v>0</v>
       </c>
-      <c r="AD74" s="182"/>
+      <c r="AD74" s="154"/>
     </row>
     <row r="75" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
-      <c r="B75" s="184" t="s">
+      <c r="B75" s="190" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="185"/>
+      <c r="C75" s="191"/>
       <c r="D75" s="88"/>
-      <c r="E75" s="186"/>
-      <c r="F75" s="185"/>
-      <c r="G75" s="185"/>
-      <c r="H75" s="185"/>
-      <c r="I75" s="185"/>
-      <c r="J75" s="185"/>
-      <c r="K75" s="185"/>
-      <c r="L75" s="185"/>
-      <c r="M75" s="185"/>
-      <c r="N75" s="185"/>
-      <c r="O75" s="185"/>
-      <c r="P75" s="185"/>
-      <c r="Q75" s="185"/>
-      <c r="R75" s="185"/>
-      <c r="S75" s="185"/>
-      <c r="T75" s="185"/>
-      <c r="U75" s="185"/>
-      <c r="V75" s="185"/>
-      <c r="W75" s="185"/>
-      <c r="X75" s="185"/>
-      <c r="Y75" s="185"/>
-      <c r="Z75" s="185"/>
-      <c r="AA75" s="185"/>
-      <c r="AB75" s="185"/>
+      <c r="E75" s="192"/>
+      <c r="F75" s="191"/>
+      <c r="G75" s="191"/>
+      <c r="H75" s="191"/>
+      <c r="I75" s="191"/>
+      <c r="J75" s="191"/>
+      <c r="K75" s="191"/>
+      <c r="L75" s="191"/>
+      <c r="M75" s="191"/>
+      <c r="N75" s="191"/>
+      <c r="O75" s="191"/>
+      <c r="P75" s="191"/>
+      <c r="Q75" s="191"/>
+      <c r="R75" s="191"/>
+      <c r="S75" s="191"/>
+      <c r="T75" s="191"/>
+      <c r="U75" s="191"/>
+      <c r="V75" s="191"/>
+      <c r="W75" s="191"/>
+      <c r="X75" s="191"/>
+      <c r="Y75" s="191"/>
+      <c r="Z75" s="191"/>
+      <c r="AA75" s="191"/>
+      <c r="AB75" s="191"/>
       <c r="AC75" s="94">
         <f>AC74+AC67</f>
         <v>0</v>
@@ -44432,10 +44448,10 @@
     </row>
     <row r="78" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="166" t="s">
+      <c r="B78" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="143"/>
+      <c r="C78" s="159"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -44565,10 +44581,10 @@
     </row>
     <row r="82" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="142" t="s">
+      <c r="B82" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="143"/>
+      <c r="C82" s="159"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -44597,10 +44613,10 @@
     </row>
     <row r="83" spans="1:29" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="163" t="s">
+      <c r="B83" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="143"/>
+      <c r="C83" s="159"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -44660,10 +44676,10 @@
     </row>
     <row r="85" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="162" t="s">
+      <c r="B85" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="143"/>
+      <c r="C85" s="159"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -44692,10 +44708,10 @@
     </row>
     <row r="86" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="161" t="s">
+      <c r="B86" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="143"/>
+      <c r="C86" s="159"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -44724,8 +44740,8 @@
     </row>
     <row r="87" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
+      <c r="B87" s="159"/>
+      <c r="C87" s="159"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -44785,10 +44801,10 @@
     </row>
     <row r="89" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="142" t="s">
+      <c r="B89" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="143"/>
+      <c r="C89" s="159"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
@@ -44817,10 +44833,10 @@
     </row>
     <row r="90" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="161" t="s">
+      <c r="B90" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="143"/>
+      <c r="C90" s="159"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -44849,8 +44865,8 @@
     </row>
     <row r="91" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="143"/>
-      <c r="C91" s="143"/>
+      <c r="B91" s="159"/>
+      <c r="C91" s="159"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -74081,49 +74097,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="E4:AB4"/>
-    <mergeCell ref="E26:AB26"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="E5:AB5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AD39:AD40"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="AD41:AD42"/>
-    <mergeCell ref="E45:AB45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="AD73:AD74"/>
-    <mergeCell ref="E74:AB74"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:AB59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E73:AC73"/>
-    <mergeCell ref="AD65:AD68"/>
-    <mergeCell ref="E71:AC71"/>
-    <mergeCell ref="AD71:AD72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:AC72"/>
     <mergeCell ref="B86:C87"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B90:C91"/>
@@ -74140,6 +74113,49 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
+    <mergeCell ref="AD73:AD74"/>
+    <mergeCell ref="E74:AB74"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:AB59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E73:AC73"/>
+    <mergeCell ref="AD65:AD68"/>
+    <mergeCell ref="E71:AC71"/>
+    <mergeCell ref="AD71:AD72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:AC72"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="AD41:AD42"/>
+    <mergeCell ref="E45:AB45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="AD39:AD40"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="E26:AB26"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="E5:AB5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="E4:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>

--- a/Produktionsförderung/Anlage_9_Vorlage_Kostenplan_GBW.xlsx
+++ b/Produktionsförderung/Anlage_9_Vorlage_Kostenplan_GBW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76442A6-58F4-4CC0-B190-4BD2C53C90AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E35BC7-845E-4FC5-82C7-610D60F7614E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,44 +263,52 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF274E13"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -318,23 +326,27 @@
       <sz val="8"/>
       <color rgb="FF4D4D4D"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF4D4D4D"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF274E13"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -346,6 +358,7 @@
       <b/>
       <sz val="8"/>
       <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1453,20 +1466,84 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="13" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="13" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1477,6 +1554,12 @@
     </xf>
     <xf numFmtId="167" fontId="13" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="13" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1490,76 +1573,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,12 +1593,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
@@ -1857,7 +1870,7 @@
   <dimension ref="A1:AD1035"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AH24" sqref="AH24"/>
+      <selection activeCell="AF26" sqref="AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1866,7 +1879,11 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="28" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="25" width="9" hidden="1" customWidth="1"/>
+    <col min="26" max="28" width="7.85546875" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="13.140625" customWidth="1"/>
     <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1879,39 +1896,39 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
     </row>
     <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="174"/>
-      <c r="C3" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="176"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="148"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -1989,9 +2006,9 @@
     </row>
     <row r="4" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
       <c r="E4" s="38" t="s">
         <v>1</v>
       </c>
@@ -2064,10 +2081,10 @@
       <c r="AB4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="155" t="s">
+      <c r="AC4" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="146" t="s">
+      <c r="AD4" s="172" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2078,32 +2095,32 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="146"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="149"/>
+      <c r="AD5" s="172"/>
     </row>
     <row r="6" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2116,32 +2133,32 @@
       <c r="D6" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="142"/>
-      <c r="AB6" s="142"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="147"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="147"/>
+      <c r="U6" s="147"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="147"/>
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="147"/>
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="147"/>
       <c r="AC6" s="61"/>
       <c r="AD6" s="89"/>
     </row>
@@ -2233,7 +2250,7 @@
         <f>SUM(E7:AB7)*D7</f>
         <v>120000</v>
       </c>
-      <c r="AD7" s="147">
+      <c r="AD7" s="173">
         <v>120000</v>
       </c>
     </row>
@@ -2349,7 +2366,7 @@
         <f t="shared" ref="AC8:AC24" si="1">SUM(E8:AB8)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="148"/>
+      <c r="AD8" s="174"/>
     </row>
     <row r="9" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2439,7 +2456,7 @@
         <f>SUM(E9:AB9)*D9</f>
         <v>57200</v>
       </c>
-      <c r="AD9" s="147">
+      <c r="AD9" s="173">
         <v>57200</v>
       </c>
     </row>
@@ -2555,7 +2572,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="148"/>
+      <c r="AD10" s="174"/>
     </row>
     <row r="11" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -2645,7 +2662,7 @@
         <f>SUM(E11:AB11)*D11</f>
         <v>15600</v>
       </c>
-      <c r="AD11" s="147">
+      <c r="AD11" s="173">
         <v>15600</v>
       </c>
     </row>
@@ -2761,7 +2778,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="148"/>
+      <c r="AD12" s="174"/>
     </row>
     <row r="13" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -2851,7 +2868,7 @@
         <f>SUM(E13:AB13)*D13</f>
         <v>31200</v>
       </c>
-      <c r="AD13" s="147">
+      <c r="AD13" s="173">
         <v>31200</v>
       </c>
     </row>
@@ -2967,7 +2984,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="148"/>
+      <c r="AD14" s="174"/>
     </row>
     <row r="15" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -3057,7 +3074,7 @@
         <f>SUM(E15:AB15)*D15</f>
         <v>14400</v>
       </c>
-      <c r="AD15" s="147">
+      <c r="AD15" s="173">
         <v>14400</v>
       </c>
     </row>
@@ -3173,9 +3190,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="148"/>
-    </row>
-    <row r="17" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD16" s="174"/>
+    </row>
+    <row r="17" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="57" t="s">
         <v>9</v>
@@ -3263,11 +3280,11 @@
         <f>SUM(E17:AB17)*D17</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD17" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="55" t="s">
         <v>34</v>
@@ -3379,9 +3396,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="148"/>
-    </row>
-    <row r="19" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD18" s="174"/>
+    </row>
+    <row r="19" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="56" t="s">
         <v>10</v>
@@ -3469,11 +3486,11 @@
         <f>SUM(E19:AB19)*D19</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD19" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="55" t="s">
         <v>34</v>
@@ -3585,9 +3602,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="148"/>
-    </row>
-    <row r="21" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD20" s="174"/>
+    </row>
+    <row r="21" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="56" t="s">
         <v>10</v>
@@ -3675,11 +3692,11 @@
         <f>SUM(E21:AB21)*D21</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD21" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="55" t="s">
         <v>34</v>
@@ -3791,7 +3808,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="148"/>
+      <c r="AD22" s="174"/>
     </row>
     <row r="23" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -3900,7 +3917,7 @@
         <f t="shared" ref="AC23" si="10">SUM(E23:AB23)</f>
         <v>238400</v>
       </c>
-      <c r="AD23" s="140" t="s">
+      <c r="AD23" s="175" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4011,7 +4028,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="141"/>
+      <c r="AD24" s="176"/>
     </row>
     <row r="25" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -4168,32 +4185,32 @@
       <c r="D27" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="142" t="s">
+      <c r="E27" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="143"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="143"/>
-      <c r="W27" s="143"/>
-      <c r="X27" s="143"/>
-      <c r="Y27" s="143"/>
-      <c r="Z27" s="143"/>
-      <c r="AA27" s="143"/>
-      <c r="AB27" s="143"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="155"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="155"/>
       <c r="AC27" s="61"/>
       <c r="AD27" s="89"/>
     </row>
@@ -4285,7 +4302,7 @@
         <f>SUM(E28:AB28)*D28</f>
         <v>9600</v>
       </c>
-      <c r="AD28" s="147">
+      <c r="AD28" s="173">
         <v>9600</v>
       </c>
     </row>
@@ -4401,9 +4418,9 @@
         <f t="shared" ref="AC29" si="14">SUM(E29:AB29)</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="148"/>
-    </row>
-    <row r="30" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD29" s="174"/>
+    </row>
+    <row r="30" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="56" t="s">
         <v>6</v>
@@ -4491,11 +4508,11 @@
         <f>SUM(E30:AB30)*D30</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD30" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="55" t="s">
         <v>34</v>
@@ -4607,9 +4624,9 @@
         <f t="shared" ref="AC31" si="16">SUM(E31:AB31)</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="148"/>
-    </row>
-    <row r="32" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD31" s="174"/>
+    </row>
+    <row r="32" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="57" t="s">
         <v>14</v>
@@ -4697,11 +4714,11 @@
         <f>SUM(E32:AB32)*D32</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD32" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="55" t="s">
         <v>34</v>
@@ -4813,9 +4830,9 @@
         <f t="shared" ref="AC33" si="18">SUM(E33:AB33)</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="148"/>
-    </row>
-    <row r="34" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD33" s="174"/>
+    </row>
+    <row r="34" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="56" t="s">
         <v>9</v>
@@ -4903,11 +4920,11 @@
         <f>SUM(E34:AB34)*D34</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD34" s="177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="55" t="s">
         <v>34</v>
@@ -5019,9 +5036,9 @@
         <f t="shared" ref="AC35" si="20">SUM(E35:AB35)</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="148"/>
-    </row>
-    <row r="36" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD35" s="174"/>
+    </row>
+    <row r="36" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="54" t="s">
         <v>4</v>
@@ -5109,11 +5126,11 @@
         <f>SUM(E36:AB36)*D36</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD36" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="55" t="s">
         <v>34</v>
@@ -5225,9 +5242,9 @@
         <f t="shared" ref="AC37" si="22">SUM(E37:AB37)</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="148"/>
-    </row>
-    <row r="38" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD37" s="174"/>
+    </row>
+    <row r="38" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="56" t="s">
         <v>51</v>
@@ -5315,11 +5332,11 @@
         <f>SUM(E38:AB38)*D38</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD38" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="55" t="s">
         <v>34</v>
@@ -5431,9 +5448,9 @@
         <f t="shared" ref="AC39" si="24">SUM(E39:AB39)</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="148"/>
-    </row>
-    <row r="40" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD39" s="174"/>
+    </row>
+    <row r="40" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="56" t="s">
         <v>51</v>
@@ -5521,11 +5538,11 @@
         <f>SUM(E40:AB40)*D40</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD40" s="173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="55" t="s">
         <v>34</v>
@@ -5637,7 +5654,7 @@
         <f t="shared" ref="AC41:AC43" si="26">SUM(E41:AB41)</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="148"/>
+      <c r="AD41" s="174"/>
     </row>
     <row r="42" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -5746,7 +5763,7 @@
         <f t="shared" si="26"/>
         <v>9600</v>
       </c>
-      <c r="AD42" s="146" t="s">
+      <c r="AD42" s="172" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5857,7 +5874,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD43" s="146"/>
+      <c r="AD43" s="172"/>
     </row>
     <row r="44" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
@@ -6010,42 +6027,42 @@
       </c>
       <c r="C46" s="66"/>
       <c r="D46" s="66"/>
-      <c r="E46" s="142" t="s">
+      <c r="E46" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
-      <c r="K46" s="143"/>
-      <c r="L46" s="143"/>
-      <c r="M46" s="143"/>
-      <c r="N46" s="143"/>
-      <c r="O46" s="143"/>
-      <c r="P46" s="143"/>
-      <c r="Q46" s="143"/>
-      <c r="R46" s="143"/>
-      <c r="S46" s="143"/>
-      <c r="T46" s="143"/>
-      <c r="U46" s="143"/>
-      <c r="V46" s="143"/>
-      <c r="W46" s="143"/>
-      <c r="X46" s="143"/>
-      <c r="Y46" s="143"/>
-      <c r="Z46" s="143"/>
-      <c r="AA46" s="143"/>
-      <c r="AB46" s="143"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
+      <c r="N46" s="155"/>
+      <c r="O46" s="155"/>
+      <c r="P46" s="155"/>
+      <c r="Q46" s="155"/>
+      <c r="R46" s="155"/>
+      <c r="S46" s="155"/>
+      <c r="T46" s="155"/>
+      <c r="U46" s="155"/>
+      <c r="V46" s="155"/>
+      <c r="W46" s="155"/>
+      <c r="X46" s="155"/>
+      <c r="Y46" s="155"/>
+      <c r="Z46" s="155"/>
+      <c r="AA46" s="155"/>
+      <c r="AB46" s="155"/>
       <c r="AC46" s="61"/>
       <c r="AD46" s="89"/>
     </row>
-    <row r="47" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="161" t="s">
+      <c r="B47" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="162"/>
-      <c r="D47" s="162"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
       <c r="E47" s="12">
         <v>0</v>
       </c>
@@ -6059,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="12">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="J47" s="13">
         <v>0</v>
@@ -6120,19 +6137,19 @@
       </c>
       <c r="AC47" s="14">
         <f t="shared" ref="AC47:AC51" si="30">SUM(E47:AB47)</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="122">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="144" t="s">
+      <c r="B48" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="157"/>
       <c r="E48" s="15">
         <v>0</v>
       </c>
@@ -6213,13 +6230,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="144" t="s">
+      <c r="B49" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
       <c r="E49" s="15">
         <v>0</v>
       </c>
@@ -6300,13 +6317,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="144" t="s">
+      <c r="B50" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="157"/>
       <c r="E50" s="18">
         <v>0</v>
       </c>
@@ -6412,7 +6429,7 @@
       </c>
       <c r="I51" s="63">
         <f t="shared" si="31"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="J51" s="64">
         <f t="shared" si="31"/>
@@ -6492,7 +6509,7 @@
       </c>
       <c r="AC51" s="138">
         <f t="shared" si="30"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="137">
         <f>SUM(AD47:AD50)</f>
@@ -6533,394 +6550,382 @@
     </row>
     <row r="53" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="177" t="s">
+      <c r="B53" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="178"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="142" t="s">
+      <c r="C53" s="153"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="143"/>
-      <c r="G53" s="143"/>
-      <c r="H53" s="143"/>
-      <c r="I53" s="143"/>
-      <c r="J53" s="143"/>
-      <c r="K53" s="143"/>
-      <c r="L53" s="143"/>
-      <c r="M53" s="143"/>
-      <c r="N53" s="143"/>
-      <c r="O53" s="143"/>
-      <c r="P53" s="143"/>
-      <c r="Q53" s="143"/>
-      <c r="R53" s="143"/>
-      <c r="S53" s="143"/>
-      <c r="T53" s="143"/>
-      <c r="U53" s="143"/>
-      <c r="V53" s="143"/>
-      <c r="W53" s="143"/>
-      <c r="X53" s="143"/>
-      <c r="Y53" s="143"/>
-      <c r="Z53" s="143"/>
-      <c r="AA53" s="143"/>
-      <c r="AB53" s="143"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
+      <c r="N53" s="155"/>
+      <c r="O53" s="155"/>
+      <c r="P53" s="155"/>
+      <c r="Q53" s="155"/>
+      <c r="R53" s="155"/>
+      <c r="S53" s="155"/>
+      <c r="T53" s="155"/>
+      <c r="U53" s="155"/>
+      <c r="V53" s="155"/>
+      <c r="W53" s="155"/>
+      <c r="X53" s="155"/>
+      <c r="Y53" s="155"/>
+      <c r="Z53" s="155"/>
+      <c r="AA53" s="155"/>
+      <c r="AB53" s="155"/>
       <c r="AC53" s="61"/>
       <c r="AD53" s="89"/>
     </row>
-    <row r="54" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="161" t="s">
+      <c r="B54" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="162"/>
-      <c r="D54" s="162"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="151"/>
       <c r="E54" s="12">
-        <f>23.4+17.24</f>
-        <v>40.64</v>
+        <v>0</v>
       </c>
       <c r="F54" s="12">
-        <f t="shared" ref="F54:P54" si="32">23.4+17.24</f>
-        <v>40.64</v>
+        <v>0</v>
       </c>
       <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+      <c r="K54" s="12">
+        <v>0</v>
+      </c>
+      <c r="L54" s="12">
+        <v>0</v>
+      </c>
+      <c r="M54" s="12">
+        <v>0</v>
+      </c>
+      <c r="N54" s="12">
+        <v>0</v>
+      </c>
+      <c r="O54" s="12">
+        <v>0</v>
+      </c>
+      <c r="P54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>0</v>
+      </c>
+      <c r="R54" s="12">
+        <v>0</v>
+      </c>
+      <c r="S54" s="13">
+        <v>0</v>
+      </c>
+      <c r="T54" s="12">
+        <v>0</v>
+      </c>
+      <c r="U54" s="12">
+        <v>0</v>
+      </c>
+      <c r="V54" s="13">
+        <v>0</v>
+      </c>
+      <c r="W54" s="12">
+        <v>0</v>
+      </c>
+      <c r="X54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="14">
+        <f t="shared" ref="AC54:AC58" si="32">SUM(E54:AB54)</f>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="157"/>
+      <c r="D55" s="157"/>
+      <c r="E55" s="15">
+        <v>0</v>
+      </c>
+      <c r="F55" s="15">
+        <v>0</v>
+      </c>
+      <c r="G55" s="16">
+        <v>0</v>
+      </c>
+      <c r="H55" s="15">
+        <v>0</v>
+      </c>
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="16">
+        <v>0</v>
+      </c>
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="16">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="16">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+      <c r="X55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="17">
         <f t="shared" si="32"/>
-        <v>40.64</v>
-      </c>
-      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="157"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="15">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="16">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
+        <v>0</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16">
+        <v>0</v>
+      </c>
+      <c r="K56" s="15">
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
+        <v>0</v>
+      </c>
+      <c r="M56" s="16">
+        <v>0</v>
+      </c>
+      <c r="N56" s="15">
+        <v>0</v>
+      </c>
+      <c r="O56" s="15">
+        <v>0</v>
+      </c>
+      <c r="P56" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>0</v>
+      </c>
+      <c r="R56" s="15">
+        <v>0</v>
+      </c>
+      <c r="S56" s="16">
+        <v>0</v>
+      </c>
+      <c r="T56" s="15">
+        <v>0</v>
+      </c>
+      <c r="U56" s="15">
+        <v>0</v>
+      </c>
+      <c r="V56" s="16">
+        <v>0</v>
+      </c>
+      <c r="W56" s="15">
+        <v>0</v>
+      </c>
+      <c r="X56" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="17">
         <f t="shared" si="32"/>
-        <v>40.64</v>
-      </c>
-      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="157"/>
+      <c r="D57" s="157"/>
+      <c r="E57" s="18">
+        <v>0</v>
+      </c>
+      <c r="F57" s="18">
+        <v>0</v>
+      </c>
+      <c r="G57" s="19">
+        <v>0</v>
+      </c>
+      <c r="H57" s="18">
+        <v>0</v>
+      </c>
+      <c r="I57" s="18">
+        <v>0</v>
+      </c>
+      <c r="J57" s="19">
+        <v>0</v>
+      </c>
+      <c r="K57" s="18">
+        <v>0</v>
+      </c>
+      <c r="L57" s="18">
+        <v>0</v>
+      </c>
+      <c r="M57" s="19">
+        <v>0</v>
+      </c>
+      <c r="N57" s="18">
+        <v>0</v>
+      </c>
+      <c r="O57" s="18">
+        <v>0</v>
+      </c>
+      <c r="P57" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="18">
+        <v>0</v>
+      </c>
+      <c r="R57" s="18">
+        <v>0</v>
+      </c>
+      <c r="S57" s="19">
+        <v>0</v>
+      </c>
+      <c r="T57" s="18">
+        <v>0</v>
+      </c>
+      <c r="U57" s="18">
+        <v>0</v>
+      </c>
+      <c r="V57" s="19">
+        <v>0</v>
+      </c>
+      <c r="W57" s="18">
+        <v>0</v>
+      </c>
+      <c r="X57" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="20">
         <f t="shared" si="32"/>
-        <v>40.64</v>
-      </c>
-      <c r="J54" s="12">
-        <f t="shared" si="32"/>
-        <v>40.64</v>
-      </c>
-      <c r="K54" s="12">
-        <f t="shared" si="32"/>
-        <v>40.64</v>
-      </c>
-      <c r="L54" s="12">
-        <f t="shared" si="32"/>
-        <v>40.64</v>
-      </c>
-      <c r="M54" s="12">
-        <f t="shared" si="32"/>
-        <v>40.64</v>
-      </c>
-      <c r="N54" s="12">
-        <f t="shared" si="32"/>
-        <v>40.64</v>
-      </c>
-      <c r="O54" s="12">
-        <f t="shared" si="32"/>
-        <v>40.64</v>
-      </c>
-      <c r="P54" s="12">
-        <f t="shared" si="32"/>
-        <v>40.64</v>
-      </c>
-      <c r="Q54" s="12">
-        <v>0</v>
-      </c>
-      <c r="R54" s="12">
-        <v>0</v>
-      </c>
-      <c r="S54" s="13">
-        <v>0</v>
-      </c>
-      <c r="T54" s="12">
-        <v>0</v>
-      </c>
-      <c r="U54" s="12">
-        <v>0</v>
-      </c>
-      <c r="V54" s="13">
-        <v>0</v>
-      </c>
-      <c r="W54" s="12">
-        <v>0</v>
-      </c>
-      <c r="X54" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="14">
-        <f t="shared" ref="AC54:AC58" si="33">SUM(E54:AB54)</f>
-        <v>487.67999999999989</v>
-      </c>
-      <c r="AD54" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="144" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="15">
-        <v>0</v>
-      </c>
-      <c r="F55" s="15">
-        <v>0</v>
-      </c>
-      <c r="G55" s="16">
-        <v>0</v>
-      </c>
-      <c r="H55" s="15">
-        <v>0</v>
-      </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="16">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="16">
-        <v>0</v>
-      </c>
-      <c r="N55" s="15">
-        <v>0</v>
-      </c>
-      <c r="O55" s="15">
-        <v>0</v>
-      </c>
-      <c r="P55" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="15">
-        <v>0</v>
-      </c>
-      <c r="R55" s="15">
-        <v>0</v>
-      </c>
-      <c r="S55" s="16">
-        <v>0</v>
-      </c>
-      <c r="T55" s="15">
-        <v>0</v>
-      </c>
-      <c r="U55" s="15">
-        <v>0</v>
-      </c>
-      <c r="V55" s="16">
-        <v>0</v>
-      </c>
-      <c r="W55" s="15">
-        <v>0</v>
-      </c>
-      <c r="X55" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AD55" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="144" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="15">
-        <v>0</v>
-      </c>
-      <c r="F56" s="15">
-        <v>0</v>
-      </c>
-      <c r="G56" s="16">
-        <v>0</v>
-      </c>
-      <c r="H56" s="15">
-        <v>0</v>
-      </c>
-      <c r="I56" s="15">
-        <v>0</v>
-      </c>
-      <c r="J56" s="16">
-        <v>0</v>
-      </c>
-      <c r="K56" s="15">
-        <v>0</v>
-      </c>
-      <c r="L56" s="15">
-        <v>0</v>
-      </c>
-      <c r="M56" s="16">
-        <v>0</v>
-      </c>
-      <c r="N56" s="15">
-        <v>0</v>
-      </c>
-      <c r="O56" s="15">
-        <v>0</v>
-      </c>
-      <c r="P56" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="15">
-        <v>0</v>
-      </c>
-      <c r="R56" s="15">
-        <v>0</v>
-      </c>
-      <c r="S56" s="16">
-        <v>0</v>
-      </c>
-      <c r="T56" s="15">
-        <v>0</v>
-      </c>
-      <c r="U56" s="15">
-        <v>0</v>
-      </c>
-      <c r="V56" s="16">
-        <v>0</v>
-      </c>
-      <c r="W56" s="15">
-        <v>0</v>
-      </c>
-      <c r="X56" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="17">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AD56" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="144" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="18">
-        <v>0</v>
-      </c>
-      <c r="F57" s="18">
-        <v>0</v>
-      </c>
-      <c r="G57" s="19">
-        <v>0</v>
-      </c>
-      <c r="H57" s="18">
-        <v>0</v>
-      </c>
-      <c r="I57" s="18">
-        <v>0</v>
-      </c>
-      <c r="J57" s="19">
-        <v>0</v>
-      </c>
-      <c r="K57" s="18">
-        <v>0</v>
-      </c>
-      <c r="L57" s="18">
-        <v>0</v>
-      </c>
-      <c r="M57" s="19">
-        <v>0</v>
-      </c>
-      <c r="N57" s="18">
-        <v>0</v>
-      </c>
-      <c r="O57" s="18">
-        <v>0</v>
-      </c>
-      <c r="P57" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="18">
-        <v>0</v>
-      </c>
-      <c r="R57" s="18">
-        <v>0</v>
-      </c>
-      <c r="S57" s="19">
-        <v>0</v>
-      </c>
-      <c r="T57" s="18">
-        <v>0</v>
-      </c>
-      <c r="U57" s="18">
-        <v>0</v>
-      </c>
-      <c r="V57" s="19">
-        <v>0</v>
-      </c>
-      <c r="W57" s="18">
-        <v>0</v>
-      </c>
-      <c r="X57" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="20">
-        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD57" s="122">
@@ -6935,104 +6940,104 @@
       <c r="C58" s="62"/>
       <c r="D58" s="62"/>
       <c r="E58" s="63">
-        <f t="shared" ref="E58:AB58" si="34">SUM(E54:E57)</f>
-        <v>40.64</v>
+        <f t="shared" ref="E58:AB58" si="33">SUM(E54:E57)</f>
+        <v>0</v>
       </c>
       <c r="F58" s="63">
-        <f t="shared" si="34"/>
-        <v>40.64</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="G58" s="64">
-        <f t="shared" si="34"/>
-        <v>40.64</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="H58" s="63">
-        <f t="shared" si="34"/>
-        <v>40.64</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="I58" s="63">
-        <f t="shared" si="34"/>
-        <v>40.64</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="J58" s="64">
-        <f t="shared" si="34"/>
-        <v>40.64</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="K58" s="63">
-        <f t="shared" si="34"/>
-        <v>40.64</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="L58" s="63">
-        <f t="shared" si="34"/>
-        <v>40.64</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="M58" s="64">
-        <f t="shared" si="34"/>
-        <v>40.64</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="N58" s="63">
-        <f t="shared" si="34"/>
-        <v>40.64</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="O58" s="63">
-        <f t="shared" si="34"/>
-        <v>40.64</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="P58" s="64">
-        <f t="shared" si="34"/>
-        <v>40.64</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="Q58" s="63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R58" s="63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S58" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T58" s="63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="U58" s="63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V58" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W58" s="63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X58" s="63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y58" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Z58" s="63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AA58" s="63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AB58" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AC58" s="138">
-        <f t="shared" si="33"/>
-        <v>487.67999999999989</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="AD58" s="137">
         <f>SUM(AD54:AD57)</f>
@@ -7073,47 +7078,47 @@
     </row>
     <row r="60" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="164"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="142" t="s">
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="143"/>
-      <c r="G60" s="143"/>
-      <c r="H60" s="143"/>
-      <c r="I60" s="143"/>
-      <c r="J60" s="143"/>
-      <c r="K60" s="143"/>
-      <c r="L60" s="143"/>
-      <c r="M60" s="143"/>
-      <c r="N60" s="143"/>
-      <c r="O60" s="143"/>
-      <c r="P60" s="143"/>
-      <c r="Q60" s="143"/>
-      <c r="R60" s="143"/>
-      <c r="S60" s="143"/>
-      <c r="T60" s="143"/>
-      <c r="U60" s="143"/>
-      <c r="V60" s="143"/>
-      <c r="W60" s="143"/>
-      <c r="X60" s="143"/>
-      <c r="Y60" s="143"/>
-      <c r="Z60" s="143"/>
-      <c r="AA60" s="143"/>
-      <c r="AB60" s="143"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="155"/>
+      <c r="O60" s="155"/>
+      <c r="P60" s="155"/>
+      <c r="Q60" s="155"/>
+      <c r="R60" s="155"/>
+      <c r="S60" s="155"/>
+      <c r="T60" s="155"/>
+      <c r="U60" s="155"/>
+      <c r="V60" s="155"/>
+      <c r="W60" s="155"/>
+      <c r="X60" s="155"/>
+      <c r="Y60" s="155"/>
+      <c r="Z60" s="155"/>
+      <c r="AA60" s="155"/>
+      <c r="AB60" s="155"/>
       <c r="AC60" s="61"/>
       <c r="AD60" s="89"/>
     </row>
-    <row r="61" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="161" t="s">
+      <c r="B61" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
+      <c r="C61" s="151"/>
+      <c r="D61" s="151"/>
       <c r="E61" s="12">
         <v>0</v>
       </c>
@@ -7187,20 +7192,20 @@
         <v>0</v>
       </c>
       <c r="AC61" s="14">
-        <f t="shared" ref="AC61:AC68" si="35">SUM(E61:AB61)</f>
+        <f t="shared" ref="AC61:AC68" si="34">SUM(E61:AB61)</f>
         <v>0</v>
       </c>
       <c r="AD61" s="122">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="144" t="s">
+      <c r="B62" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
       <c r="E62" s="15">
         <v>0</v>
       </c>
@@ -7274,20 +7279,20 @@
         <v>0</v>
       </c>
       <c r="AC62" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AD62" s="122">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="144" t="s">
+      <c r="B63" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="145"/>
-      <c r="D63" s="145"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
       <c r="E63" s="15">
         <v>0</v>
       </c>
@@ -7361,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AD63" s="122">
@@ -7376,103 +7381,103 @@
       <c r="C64" s="62"/>
       <c r="D64" s="62"/>
       <c r="E64" s="63">
-        <f t="shared" ref="E64:AB64" si="36">SUM(E61:E63)</f>
+        <f t="shared" ref="E64:AB64" si="35">SUM(E61:E63)</f>
         <v>0</v>
       </c>
       <c r="F64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G64" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J64" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M64" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P64" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S64" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="U64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V64" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y64" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA64" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AB64" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AC64" s="138">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AD64" s="137">
@@ -7520,106 +7525,106 @@
       <c r="C66" s="102"/>
       <c r="D66" s="102"/>
       <c r="E66" s="103">
-        <f t="shared" ref="E66:AB66" si="37">E64+E58+E51+E42+E23</f>
-        <v>14840.64</v>
+        <f t="shared" ref="E66:AB66" si="36">E64+E58+E51+E42+E23</f>
+        <v>14800</v>
       </c>
       <c r="F66" s="103">
-        <f t="shared" si="37"/>
-        <v>14840.64</v>
+        <f t="shared" si="36"/>
+        <v>14800</v>
       </c>
       <c r="G66" s="103">
-        <f t="shared" si="37"/>
-        <v>14840.64</v>
+        <f t="shared" si="36"/>
+        <v>14800</v>
       </c>
       <c r="H66" s="103">
-        <f t="shared" si="37"/>
-        <v>14840.64</v>
+        <f t="shared" si="36"/>
+        <v>14800</v>
       </c>
       <c r="I66" s="103">
-        <f t="shared" si="37"/>
-        <v>31640.639999999999</v>
+        <f t="shared" si="36"/>
+        <v>23600</v>
       </c>
       <c r="J66" s="103">
-        <f t="shared" si="37"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="36"/>
+        <v>23600</v>
       </c>
       <c r="K66" s="103">
-        <f t="shared" si="37"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="36"/>
+        <v>23600</v>
       </c>
       <c r="L66" s="103">
-        <f t="shared" si="37"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="36"/>
+        <v>23600</v>
       </c>
       <c r="M66" s="103">
-        <f t="shared" si="37"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="36"/>
+        <v>23600</v>
       </c>
       <c r="N66" s="103">
-        <f t="shared" si="37"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="36"/>
+        <v>23600</v>
       </c>
       <c r="O66" s="103">
-        <f t="shared" si="37"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="36"/>
+        <v>23600</v>
       </c>
       <c r="P66" s="103">
-        <f t="shared" si="37"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="36"/>
+        <v>23600</v>
       </c>
       <c r="Q66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AA66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AB66" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AC66" s="104">
-        <f t="shared" ref="AC66:AC67" si="38">SUM(E66:AB66)</f>
-        <v>256487.68000000005</v>
-      </c>
-      <c r="AD66" s="153"/>
+        <f t="shared" ref="AC66:AC67" si="37">SUM(E66:AB66)</f>
+        <v>248000</v>
+      </c>
+      <c r="AD66" s="181"/>
     </row>
     <row r="67" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
@@ -7629,106 +7634,106 @@
       <c r="C67" s="106"/>
       <c r="D67" s="106"/>
       <c r="E67" s="107">
-        <f t="shared" ref="E67:AB67" si="39">E43+E24</f>
+        <f t="shared" ref="E67:AB67" si="38">E43+E24</f>
         <v>0</v>
       </c>
       <c r="F67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="H67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="T67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="U67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Y67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Z67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB67" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC67" s="108">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AD67" s="146"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="172"/>
     </row>
     <row r="68" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
@@ -7739,105 +7744,105 @@
       <c r="D68" s="106"/>
       <c r="E68" s="107">
         <f>E66+E67</f>
-        <v>14840.64</v>
+        <v>14800</v>
       </c>
       <c r="F68" s="107">
-        <f t="shared" ref="F68:AB68" si="40">F66+F67</f>
-        <v>14840.64</v>
+        <f t="shared" ref="F68:AB68" si="39">F66+F67</f>
+        <v>14800</v>
       </c>
       <c r="G68" s="107">
-        <f t="shared" si="40"/>
-        <v>14840.64</v>
+        <f t="shared" si="39"/>
+        <v>14800</v>
       </c>
       <c r="H68" s="107">
-        <f t="shared" si="40"/>
-        <v>14840.64</v>
+        <f t="shared" si="39"/>
+        <v>14800</v>
       </c>
       <c r="I68" s="107">
-        <f t="shared" si="40"/>
-        <v>31640.639999999999</v>
+        <f t="shared" si="39"/>
+        <v>23600</v>
       </c>
       <c r="J68" s="107">
-        <f t="shared" si="40"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="39"/>
+        <v>23600</v>
       </c>
       <c r="K68" s="107">
-        <f t="shared" si="40"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="39"/>
+        <v>23600</v>
       </c>
       <c r="L68" s="107">
-        <f t="shared" si="40"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="39"/>
+        <v>23600</v>
       </c>
       <c r="M68" s="107">
-        <f t="shared" si="40"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="39"/>
+        <v>23600</v>
       </c>
       <c r="N68" s="107">
-        <f t="shared" si="40"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="39"/>
+        <v>23600</v>
       </c>
       <c r="O68" s="107">
-        <f t="shared" si="40"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="39"/>
+        <v>23600</v>
       </c>
       <c r="P68" s="107">
-        <f t="shared" si="40"/>
-        <v>23640.639999999999</v>
+        <f t="shared" si="39"/>
+        <v>23600</v>
       </c>
       <c r="Q68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="U68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="V68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Y68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Z68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AB68" s="107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AC68" s="139">
-        <f t="shared" si="35"/>
-        <v>256487.68000000005</v>
-      </c>
-      <c r="AD68" s="146"/>
+        <f t="shared" si="34"/>
+        <v>248000</v>
+      </c>
+      <c r="AD68" s="172"/>
     </row>
     <row r="69" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
@@ -7848,102 +7853,102 @@
       <c r="D69" s="110"/>
       <c r="E69" s="111">
         <f>E68</f>
-        <v>14840.64</v>
+        <v>14800</v>
       </c>
       <c r="F69" s="111">
         <f>E69+F68</f>
-        <v>29681.279999999999</v>
+        <v>29600</v>
       </c>
       <c r="G69" s="111">
-        <f t="shared" ref="G69:AB69" si="41">F69+G68</f>
-        <v>44521.919999999998</v>
+        <f t="shared" ref="G69:AB69" si="40">F69+G68</f>
+        <v>44400</v>
       </c>
       <c r="H69" s="111">
-        <f t="shared" si="41"/>
-        <v>59362.559999999998</v>
+        <f t="shared" si="40"/>
+        <v>59200</v>
       </c>
       <c r="I69" s="111">
-        <f t="shared" si="41"/>
-        <v>91003.199999999997</v>
+        <f t="shared" si="40"/>
+        <v>82800</v>
       </c>
       <c r="J69" s="111">
-        <f t="shared" si="41"/>
-        <v>114643.84</v>
+        <f t="shared" si="40"/>
+        <v>106400</v>
       </c>
       <c r="K69" s="111">
-        <f t="shared" si="41"/>
-        <v>138284.47999999998</v>
+        <f t="shared" si="40"/>
+        <v>130000</v>
       </c>
       <c r="L69" s="111">
-        <f t="shared" si="41"/>
-        <v>161925.12</v>
+        <f t="shared" si="40"/>
+        <v>153600</v>
       </c>
       <c r="M69" s="111">
-        <f t="shared" si="41"/>
-        <v>185565.76</v>
+        <f t="shared" si="40"/>
+        <v>177200</v>
       </c>
       <c r="N69" s="111">
-        <f t="shared" si="41"/>
-        <v>209206.40000000002</v>
+        <f t="shared" si="40"/>
+        <v>200800</v>
       </c>
       <c r="O69" s="111">
-        <f t="shared" si="41"/>
-        <v>232847.04000000004</v>
+        <f t="shared" si="40"/>
+        <v>224400</v>
       </c>
       <c r="P69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="Q69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="R69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="S69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="T69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="U69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="V69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="W69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="X69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="Y69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="Z69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="AA69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="AB69" s="111">
-        <f t="shared" si="41"/>
-        <v>256487.68000000005</v>
+        <f t="shared" si="40"/>
+        <v>248000</v>
       </c>
       <c r="AC69" s="112"/>
-      <c r="AD69" s="154"/>
+      <c r="AD69" s="182"/>
     </row>
     <row r="70" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
@@ -7984,31 +7989,31 @@
       </c>
       <c r="C71" s="60"/>
       <c r="D71" s="60"/>
-      <c r="E71" s="150"/>
-      <c r="F71" s="143"/>
-      <c r="G71" s="143"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="143"/>
-      <c r="J71" s="143"/>
-      <c r="K71" s="143"/>
-      <c r="L71" s="143"/>
-      <c r="M71" s="143"/>
-      <c r="N71" s="143"/>
-      <c r="O71" s="143"/>
-      <c r="P71" s="143"/>
-      <c r="Q71" s="143"/>
-      <c r="R71" s="143"/>
-      <c r="S71" s="143"/>
-      <c r="T71" s="143"/>
-      <c r="U71" s="143"/>
-      <c r="V71" s="143"/>
-      <c r="W71" s="143"/>
-      <c r="X71" s="143"/>
-      <c r="Y71" s="143"/>
-      <c r="Z71" s="143"/>
-      <c r="AA71" s="143"/>
-      <c r="AB71" s="143"/>
-      <c r="AC71" s="143"/>
+      <c r="E71" s="178"/>
+      <c r="F71" s="155"/>
+      <c r="G71" s="155"/>
+      <c r="H71" s="155"/>
+      <c r="I71" s="155"/>
+      <c r="J71" s="155"/>
+      <c r="K71" s="155"/>
+      <c r="L71" s="155"/>
+      <c r="M71" s="155"/>
+      <c r="N71" s="155"/>
+      <c r="O71" s="155"/>
+      <c r="P71" s="155"/>
+      <c r="Q71" s="155"/>
+      <c r="R71" s="155"/>
+      <c r="S71" s="155"/>
+      <c r="T71" s="155"/>
+      <c r="U71" s="155"/>
+      <c r="V71" s="155"/>
+      <c r="W71" s="155"/>
+      <c r="X71" s="155"/>
+      <c r="Y71" s="155"/>
+      <c r="Z71" s="155"/>
+      <c r="AA71" s="155"/>
+      <c r="AB71" s="155"/>
+      <c r="AC71" s="155"/>
       <c r="AD71" s="89"/>
     </row>
     <row r="72" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -8022,76 +8027,76 @@
       <c r="D72" s="126">
         <v>5854.8</v>
       </c>
-      <c r="E72" s="182">
+      <c r="E72" s="160">
         <f>D72-E73</f>
         <v>5854.8</v>
       </c>
-      <c r="F72" s="182"/>
-      <c r="G72" s="182"/>
-      <c r="H72" s="182"/>
-      <c r="I72" s="182"/>
-      <c r="J72" s="182"/>
-      <c r="K72" s="182"/>
-      <c r="L72" s="182"/>
-      <c r="M72" s="182"/>
-      <c r="N72" s="182"/>
-      <c r="O72" s="182"/>
-      <c r="P72" s="182"/>
-      <c r="Q72" s="182"/>
-      <c r="R72" s="182"/>
-      <c r="S72" s="182"/>
-      <c r="T72" s="182"/>
-      <c r="U72" s="182"/>
-      <c r="V72" s="182"/>
-      <c r="W72" s="182"/>
-      <c r="X72" s="182"/>
-      <c r="Y72" s="182"/>
-      <c r="Z72" s="182"/>
-      <c r="AA72" s="182"/>
-      <c r="AB72" s="182"/>
-      <c r="AC72" s="182"/>
-      <c r="AD72" s="171">
+      <c r="F72" s="160"/>
+      <c r="G72" s="160"/>
+      <c r="H72" s="160"/>
+      <c r="I72" s="160"/>
+      <c r="J72" s="160"/>
+      <c r="K72" s="160"/>
+      <c r="L72" s="160"/>
+      <c r="M72" s="160"/>
+      <c r="N72" s="160"/>
+      <c r="O72" s="160"/>
+      <c r="P72" s="160"/>
+      <c r="Q72" s="160"/>
+      <c r="R72" s="160"/>
+      <c r="S72" s="160"/>
+      <c r="T72" s="160"/>
+      <c r="U72" s="160"/>
+      <c r="V72" s="160"/>
+      <c r="W72" s="160"/>
+      <c r="X72" s="160"/>
+      <c r="Y72" s="160"/>
+      <c r="Z72" s="160"/>
+      <c r="AA72" s="160"/>
+      <c r="AB72" s="160"/>
+      <c r="AC72" s="160"/>
+      <c r="AD72" s="140">
         <v>5854.8</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="165" t="s">
+      <c r="B73" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="166"/>
+      <c r="C73" s="171"/>
       <c r="D73" s="127">
         <v>0</v>
       </c>
-      <c r="E73" s="180">
+      <c r="E73" s="158">
         <f>D72*D73</f>
         <v>0</v>
       </c>
-      <c r="F73" s="180"/>
-      <c r="G73" s="180"/>
-      <c r="H73" s="180"/>
-      <c r="I73" s="180"/>
-      <c r="J73" s="180"/>
-      <c r="K73" s="180"/>
-      <c r="L73" s="180"/>
-      <c r="M73" s="180"/>
-      <c r="N73" s="180"/>
-      <c r="O73" s="180"/>
-      <c r="P73" s="180"/>
-      <c r="Q73" s="180"/>
-      <c r="R73" s="180"/>
-      <c r="S73" s="180"/>
-      <c r="T73" s="180"/>
-      <c r="U73" s="180"/>
-      <c r="V73" s="180"/>
-      <c r="W73" s="180"/>
-      <c r="X73" s="180"/>
-      <c r="Y73" s="180"/>
-      <c r="Z73" s="180"/>
-      <c r="AA73" s="180"/>
-      <c r="AB73" s="180"/>
-      <c r="AC73" s="180"/>
-      <c r="AD73" s="172"/>
+      <c r="F73" s="158"/>
+      <c r="G73" s="158"/>
+      <c r="H73" s="158"/>
+      <c r="I73" s="158"/>
+      <c r="J73" s="158"/>
+      <c r="K73" s="158"/>
+      <c r="L73" s="158"/>
+      <c r="M73" s="158"/>
+      <c r="N73" s="158"/>
+      <c r="O73" s="158"/>
+      <c r="P73" s="158"/>
+      <c r="Q73" s="158"/>
+      <c r="R73" s="158"/>
+      <c r="S73" s="158"/>
+      <c r="T73" s="158"/>
+      <c r="U73" s="158"/>
+      <c r="V73" s="158"/>
+      <c r="W73" s="158"/>
+      <c r="X73" s="158"/>
+      <c r="Y73" s="158"/>
+      <c r="Z73" s="158"/>
+      <c r="AA73" s="158"/>
+      <c r="AB73" s="158"/>
+      <c r="AC73" s="158"/>
+      <c r="AD73" s="141"/>
     </row>
     <row r="74" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
@@ -8104,35 +8109,35 @@
       <c r="D74" s="117">
         <v>0</v>
       </c>
-      <c r="E74" s="181">
+      <c r="E74" s="159">
         <f>D74</f>
         <v>0</v>
       </c>
-      <c r="F74" s="181"/>
-      <c r="G74" s="181"/>
-      <c r="H74" s="181"/>
-      <c r="I74" s="181"/>
-      <c r="J74" s="181"/>
-      <c r="K74" s="181"/>
-      <c r="L74" s="181"/>
-      <c r="M74" s="181"/>
-      <c r="N74" s="181"/>
-      <c r="O74" s="181"/>
-      <c r="P74" s="181"/>
-      <c r="Q74" s="181"/>
-      <c r="R74" s="181"/>
-      <c r="S74" s="181"/>
-      <c r="T74" s="181"/>
-      <c r="U74" s="181"/>
-      <c r="V74" s="181"/>
-      <c r="W74" s="181"/>
-      <c r="X74" s="181"/>
-      <c r="Y74" s="181"/>
-      <c r="Z74" s="181"/>
-      <c r="AA74" s="181"/>
-      <c r="AB74" s="181"/>
-      <c r="AC74" s="181"/>
-      <c r="AD74" s="146" t="s">
+      <c r="F74" s="159"/>
+      <c r="G74" s="159"/>
+      <c r="H74" s="159"/>
+      <c r="I74" s="159"/>
+      <c r="J74" s="159"/>
+      <c r="K74" s="159"/>
+      <c r="L74" s="159"/>
+      <c r="M74" s="159"/>
+      <c r="N74" s="159"/>
+      <c r="O74" s="159"/>
+      <c r="P74" s="159"/>
+      <c r="Q74" s="159"/>
+      <c r="R74" s="159"/>
+      <c r="S74" s="159"/>
+      <c r="T74" s="159"/>
+      <c r="U74" s="159"/>
+      <c r="V74" s="159"/>
+      <c r="W74" s="159"/>
+      <c r="X74" s="159"/>
+      <c r="Y74" s="159"/>
+      <c r="Z74" s="159"/>
+      <c r="AA74" s="159"/>
+      <c r="AB74" s="159"/>
+      <c r="AC74" s="159"/>
+      <c r="AD74" s="172" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8143,70 +8148,70 @@
       </c>
       <c r="C75" s="129"/>
       <c r="D75" s="129"/>
-      <c r="E75" s="151"/>
-      <c r="F75" s="152"/>
-      <c r="G75" s="152"/>
-      <c r="H75" s="152"/>
-      <c r="I75" s="152"/>
-      <c r="J75" s="152"/>
-      <c r="K75" s="152"/>
-      <c r="L75" s="152"/>
-      <c r="M75" s="152"/>
-      <c r="N75" s="152"/>
-      <c r="O75" s="152"/>
-      <c r="P75" s="152"/>
-      <c r="Q75" s="152"/>
-      <c r="R75" s="152"/>
-      <c r="S75" s="152"/>
-      <c r="T75" s="152"/>
-      <c r="U75" s="152"/>
-      <c r="V75" s="152"/>
-      <c r="W75" s="152"/>
-      <c r="X75" s="152"/>
-      <c r="Y75" s="152"/>
-      <c r="Z75" s="152"/>
-      <c r="AA75" s="152"/>
-      <c r="AB75" s="152"/>
+      <c r="E75" s="179"/>
+      <c r="F75" s="180"/>
+      <c r="G75" s="180"/>
+      <c r="H75" s="180"/>
+      <c r="I75" s="180"/>
+      <c r="J75" s="180"/>
+      <c r="K75" s="180"/>
+      <c r="L75" s="180"/>
+      <c r="M75" s="180"/>
+      <c r="N75" s="180"/>
+      <c r="O75" s="180"/>
+      <c r="P75" s="180"/>
+      <c r="Q75" s="180"/>
+      <c r="R75" s="180"/>
+      <c r="S75" s="180"/>
+      <c r="T75" s="180"/>
+      <c r="U75" s="180"/>
+      <c r="V75" s="180"/>
+      <c r="W75" s="180"/>
+      <c r="X75" s="180"/>
+      <c r="Y75" s="180"/>
+      <c r="Z75" s="180"/>
+      <c r="AA75" s="180"/>
+      <c r="AB75" s="180"/>
       <c r="AC75" s="130">
         <f>D72+D74</f>
         <v>5854.8</v>
       </c>
-      <c r="AD75" s="146"/>
+      <c r="AD75" s="172"/>
     </row>
     <row r="76" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
-      <c r="B76" s="156" t="s">
+      <c r="B76" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="157"/>
+      <c r="C76" s="165"/>
       <c r="D76" s="131"/>
-      <c r="E76" s="160"/>
-      <c r="F76" s="157"/>
-      <c r="G76" s="157"/>
-      <c r="H76" s="157"/>
-      <c r="I76" s="157"/>
-      <c r="J76" s="157"/>
-      <c r="K76" s="157"/>
-      <c r="L76" s="157"/>
-      <c r="M76" s="157"/>
-      <c r="N76" s="157"/>
-      <c r="O76" s="157"/>
-      <c r="P76" s="157"/>
-      <c r="Q76" s="157"/>
-      <c r="R76" s="157"/>
-      <c r="S76" s="157"/>
-      <c r="T76" s="157"/>
-      <c r="U76" s="157"/>
-      <c r="V76" s="157"/>
-      <c r="W76" s="157"/>
-      <c r="X76" s="157"/>
-      <c r="Y76" s="157"/>
-      <c r="Z76" s="157"/>
-      <c r="AA76" s="157"/>
-      <c r="AB76" s="157"/>
+      <c r="E76" s="167"/>
+      <c r="F76" s="165"/>
+      <c r="G76" s="165"/>
+      <c r="H76" s="165"/>
+      <c r="I76" s="165"/>
+      <c r="J76" s="165"/>
+      <c r="K76" s="165"/>
+      <c r="L76" s="165"/>
+      <c r="M76" s="165"/>
+      <c r="N76" s="165"/>
+      <c r="O76" s="165"/>
+      <c r="P76" s="165"/>
+      <c r="Q76" s="165"/>
+      <c r="R76" s="165"/>
+      <c r="S76" s="165"/>
+      <c r="T76" s="165"/>
+      <c r="U76" s="165"/>
+      <c r="V76" s="165"/>
+      <c r="W76" s="165"/>
+      <c r="X76" s="165"/>
+      <c r="Y76" s="165"/>
+      <c r="Z76" s="165"/>
+      <c r="AA76" s="165"/>
+      <c r="AB76" s="165"/>
       <c r="AC76" s="132">
         <f>AC75+AC68</f>
-        <v>262342.48000000004</v>
+        <v>253854.8</v>
       </c>
       <c r="AD76" s="133">
         <f>AD72+AD64+AD58+AD51+AD44+AD25</f>
@@ -8277,10 +8282,10 @@
     </row>
     <row r="79" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="158" t="s">
+      <c r="B79" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="159"/>
+      <c r="C79" s="143"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -8443,10 +8448,10 @@
     </row>
     <row r="84" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="168" t="s">
+      <c r="B84" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="159"/>
+      <c r="C84" s="143"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8475,10 +8480,10 @@
     </row>
     <row r="85" spans="1:29" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="170" t="s">
+      <c r="B85" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="159"/>
+      <c r="C85" s="143"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8538,10 +8543,10 @@
     </row>
     <row r="87" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="169" t="s">
+      <c r="B87" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="159"/>
+      <c r="C87" s="143"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8570,10 +8575,10 @@
     </row>
     <row r="88" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="167" t="s">
+      <c r="B88" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="159"/>
+      <c r="C88" s="143"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -8602,8 +8607,8 @@
     </row>
     <row r="89" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="159"/>
-      <c r="C89" s="159"/>
+      <c r="B89" s="143"/>
+      <c r="C89" s="143"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -8663,10 +8668,10 @@
     </row>
     <row r="91" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="168" t="s">
+      <c r="B91" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="159"/>
+      <c r="C91" s="143"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
@@ -8695,10 +8700,10 @@
     </row>
     <row r="92" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="167" t="s">
+      <c r="B92" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="C92" s="159"/>
+      <c r="C92" s="143"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -8727,8 +8732,8 @@
     </row>
     <row r="93" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="159"/>
-      <c r="C93" s="159"/>
+      <c r="B93" s="143"/>
+      <c r="C93" s="143"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -37959,6 +37964,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="E46:AB46"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="AD74:AD75"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AD40:AD41"/>
+    <mergeCell ref="AD42:AD43"/>
+    <mergeCell ref="E71:AC71"/>
+    <mergeCell ref="E75:AB75"/>
+    <mergeCell ref="AD66:AD69"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E60:AB60"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E76:AB76"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B92:C93"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B88:C89"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B85:C85"/>
     <mergeCell ref="AD72:AD73"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="E2:AC2"/>
@@ -37975,49 +38023,6 @@
     <mergeCell ref="E73:AC73"/>
     <mergeCell ref="E74:AC74"/>
     <mergeCell ref="E72:AC72"/>
-    <mergeCell ref="B92:C93"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B88:C89"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E60:AB60"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E76:AB76"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="E46:AB46"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="AD74:AD75"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AD36:AD37"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AD40:AD41"/>
-    <mergeCell ref="AD42:AD43"/>
-    <mergeCell ref="E71:AC71"/>
-    <mergeCell ref="E75:AB75"/>
-    <mergeCell ref="AD66:AD69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.56333333333333335" bottom="0.44958333333333333" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
@@ -38057,44 +38062,44 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="189"/>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="189"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="183"/>
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="183"/>
     </row>
     <row r="2" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="176"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="148"/>
       <c r="E2" s="72">
         <v>1</v>
       </c>
@@ -38172,9 +38177,9 @@
     </row>
     <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
@@ -38247,10 +38252,10 @@
       <c r="AB3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="155" t="s">
+      <c r="AC3" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="146" t="s">
+      <c r="AD3" s="172" t="s">
         <v>45</v>
       </c>
     </row>
@@ -38261,32 +38266,32 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="146"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="172"/>
     </row>
     <row r="5" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -38299,32 +38304,32 @@
       <c r="D5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="147"/>
+      <c r="N5" s="147"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
+      <c r="V5" s="147"/>
+      <c r="W5" s="147"/>
+      <c r="X5" s="147"/>
+      <c r="Y5" s="147"/>
+      <c r="Z5" s="147"/>
+      <c r="AA5" s="147"/>
+      <c r="AB5" s="147"/>
       <c r="AC5" s="61"/>
       <c r="AD5" s="89"/>
     </row>
@@ -38416,7 +38421,7 @@
         <f>SUM(E6:AB6)*D6</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="147">
+      <c r="AD6" s="173">
         <v>0</v>
       </c>
     </row>
@@ -38532,7 +38537,7 @@
         <f t="shared" ref="AC7:AC23" si="1">SUM(E7:AB7)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="148"/>
+      <c r="AD7" s="174"/>
     </row>
     <row r="8" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -38622,7 +38627,7 @@
         <f>SUM(E8:AB8)*D8</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="147">
+      <c r="AD8" s="173">
         <v>0</v>
       </c>
     </row>
@@ -38738,7 +38743,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="148"/>
+      <c r="AD9" s="174"/>
     </row>
     <row r="10" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -38828,7 +38833,7 @@
         <f>SUM(E10:AB10)*D10</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="147">
+      <c r="AD10" s="173">
         <v>0</v>
       </c>
     </row>
@@ -38944,7 +38949,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="148"/>
+      <c r="AD11" s="174"/>
     </row>
     <row r="12" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -39034,7 +39039,7 @@
         <f>SUM(E12:AB12)*D12</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="147">
+      <c r="AD12" s="173">
         <v>0</v>
       </c>
     </row>
@@ -39150,7 +39155,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="148"/>
+      <c r="AD13" s="174"/>
     </row>
     <row r="14" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -39240,7 +39245,7 @@
         <f>SUM(E14:AB14)*D14</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="147">
+      <c r="AD14" s="173">
         <v>0</v>
       </c>
     </row>
@@ -39356,7 +39361,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="148"/>
+      <c r="AD15" s="174"/>
     </row>
     <row r="16" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -39446,7 +39451,7 @@
         <f>SUM(E16:AB16)*D16</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="147">
+      <c r="AD16" s="173">
         <v>0</v>
       </c>
     </row>
@@ -39562,7 +39567,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="148"/>
+      <c r="AD17" s="174"/>
     </row>
     <row r="18" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -39652,7 +39657,7 @@
         <f>SUM(E18:AB18)*D18</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="147">
+      <c r="AD18" s="173">
         <v>0</v>
       </c>
     </row>
@@ -39768,7 +39773,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="148"/>
+      <c r="AD19" s="174"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -39858,7 +39863,7 @@
         <f>SUM(E20:AB20)*D20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="147">
+      <c r="AD20" s="173">
         <v>0</v>
       </c>
     </row>
@@ -39974,7 +39979,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="148"/>
+      <c r="AD21" s="174"/>
     </row>
     <row r="22" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -40083,7 +40088,7 @@
         <f t="shared" ref="AC22" si="10">SUM(E22:AB22)</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="140" t="s">
+      <c r="AD22" s="175" t="s">
         <v>45</v>
       </c>
     </row>
@@ -40194,7 +40199,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="141"/>
+      <c r="AD23" s="176"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -40351,32 +40356,32 @@
       <c r="D26" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="142" t="s">
+      <c r="E26" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="143"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="143"/>
-      <c r="X26" s="143"/>
-      <c r="Y26" s="143"/>
-      <c r="Z26" s="143"/>
-      <c r="AA26" s="143"/>
-      <c r="AB26" s="143"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
       <c r="AC26" s="61"/>
       <c r="AD26" s="89"/>
     </row>
@@ -40468,7 +40473,7 @@
         <f>SUM(E27:AB27)*D27</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="147">
+      <c r="AD27" s="173">
         <v>0</v>
       </c>
     </row>
@@ -40584,7 +40589,7 @@
         <f t="shared" ref="AC28" si="14">SUM(E28:AB28)</f>
         <v>0</v>
       </c>
-      <c r="AD28" s="148"/>
+      <c r="AD28" s="174"/>
     </row>
     <row r="29" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -40674,7 +40679,7 @@
         <f>SUM(E29:AB29)*D29</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="147">
+      <c r="AD29" s="173">
         <v>0</v>
       </c>
     </row>
@@ -40790,7 +40795,7 @@
         <f t="shared" ref="AC30" si="16">SUM(E30:AB30)</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="148"/>
+      <c r="AD30" s="174"/>
     </row>
     <row r="31" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -40880,7 +40885,7 @@
         <f>SUM(E31:AB31)*D31</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="147">
+      <c r="AD31" s="173">
         <v>0</v>
       </c>
     </row>
@@ -40996,7 +41001,7 @@
         <f t="shared" ref="AC32" si="18">SUM(E32:AB32)</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="148"/>
+      <c r="AD32" s="174"/>
     </row>
     <row r="33" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -41086,7 +41091,7 @@
         <f>SUM(E33:AB33)*D33</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="149">
+      <c r="AD33" s="177">
         <v>0</v>
       </c>
     </row>
@@ -41202,7 +41207,7 @@
         <f t="shared" ref="AC34" si="20">SUM(E34:AB34)</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="148"/>
+      <c r="AD34" s="174"/>
     </row>
     <row r="35" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -41292,7 +41297,7 @@
         <f>SUM(E35:AB35)*D35</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="147">
+      <c r="AD35" s="173">
         <v>0</v>
       </c>
     </row>
@@ -41408,7 +41413,7 @@
         <f t="shared" ref="AC36" si="22">SUM(E36:AB36)</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="148"/>
+      <c r="AD36" s="174"/>
     </row>
     <row r="37" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
@@ -41498,7 +41503,7 @@
         <f>SUM(E37:AB37)*D37</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="147">
+      <c r="AD37" s="173">
         <v>0</v>
       </c>
     </row>
@@ -41614,7 +41619,7 @@
         <f t="shared" ref="AC38" si="24">SUM(E38:AB38)</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="148"/>
+      <c r="AD38" s="174"/>
     </row>
     <row r="39" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -41704,7 +41709,7 @@
         <f>SUM(E39:AB39)*D39</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="147">
+      <c r="AD39" s="173">
         <v>0</v>
       </c>
     </row>
@@ -41820,7 +41825,7 @@
         <f t="shared" ref="AC40:AC42" si="26">SUM(E40:AB40)</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="148"/>
+      <c r="AD40" s="174"/>
     </row>
     <row r="41" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
@@ -41929,7 +41934,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD41" s="146" t="s">
+      <c r="AD41" s="172" t="s">
         <v>45</v>
       </c>
     </row>
@@ -42040,7 +42045,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="146"/>
+      <c r="AD42" s="172"/>
     </row>
     <row r="43" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
@@ -42193,42 +42198,42 @@
       </c>
       <c r="C45" s="66"/>
       <c r="D45" s="66"/>
-      <c r="E45" s="142" t="s">
+      <c r="E45" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="143"/>
-      <c r="K45" s="143"/>
-      <c r="L45" s="143"/>
-      <c r="M45" s="143"/>
-      <c r="N45" s="143"/>
-      <c r="O45" s="143"/>
-      <c r="P45" s="143"/>
-      <c r="Q45" s="143"/>
-      <c r="R45" s="143"/>
-      <c r="S45" s="143"/>
-      <c r="T45" s="143"/>
-      <c r="U45" s="143"/>
-      <c r="V45" s="143"/>
-      <c r="W45" s="143"/>
-      <c r="X45" s="143"/>
-      <c r="Y45" s="143"/>
-      <c r="Z45" s="143"/>
-      <c r="AA45" s="143"/>
-      <c r="AB45" s="143"/>
+      <c r="F45" s="155"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="155"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
+      <c r="N45" s="155"/>
+      <c r="O45" s="155"/>
+      <c r="P45" s="155"/>
+      <c r="Q45" s="155"/>
+      <c r="R45" s="155"/>
+      <c r="S45" s="155"/>
+      <c r="T45" s="155"/>
+      <c r="U45" s="155"/>
+      <c r="V45" s="155"/>
+      <c r="W45" s="155"/>
+      <c r="X45" s="155"/>
+      <c r="Y45" s="155"/>
+      <c r="Z45" s="155"/>
+      <c r="AA45" s="155"/>
+      <c r="AB45" s="155"/>
       <c r="AC45" s="61"/>
       <c r="AD45" s="89"/>
     </row>
     <row r="46" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="161" t="s">
+      <c r="B46" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="162"/>
-      <c r="D46" s="162"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
       <c r="E46" s="12">
         <v>0</v>
       </c>
@@ -42311,11 +42316,11 @@
     </row>
     <row r="47" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="144" t="s">
+      <c r="B47" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
       <c r="E47" s="15">
         <v>0</v>
       </c>
@@ -42398,11 +42403,11 @@
     </row>
     <row r="48" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="144" t="s">
+      <c r="B48" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="157"/>
       <c r="E48" s="15">
         <v>0</v>
       </c>
@@ -42485,11 +42490,11 @@
     </row>
     <row r="49" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="144" t="s">
+      <c r="B49" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
       <c r="E49" s="18">
         <v>0</v>
       </c>
@@ -42716,47 +42721,47 @@
     </row>
     <row r="52" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="142" t="s">
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="143"/>
-      <c r="G52" s="143"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="143"/>
-      <c r="J52" s="143"/>
-      <c r="K52" s="143"/>
-      <c r="L52" s="143"/>
-      <c r="M52" s="143"/>
-      <c r="N52" s="143"/>
-      <c r="O52" s="143"/>
-      <c r="P52" s="143"/>
-      <c r="Q52" s="143"/>
-      <c r="R52" s="143"/>
-      <c r="S52" s="143"/>
-      <c r="T52" s="143"/>
-      <c r="U52" s="143"/>
-      <c r="V52" s="143"/>
-      <c r="W52" s="143"/>
-      <c r="X52" s="143"/>
-      <c r="Y52" s="143"/>
-      <c r="Z52" s="143"/>
-      <c r="AA52" s="143"/>
-      <c r="AB52" s="143"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="155"/>
+      <c r="O52" s="155"/>
+      <c r="P52" s="155"/>
+      <c r="Q52" s="155"/>
+      <c r="R52" s="155"/>
+      <c r="S52" s="155"/>
+      <c r="T52" s="155"/>
+      <c r="U52" s="155"/>
+      <c r="V52" s="155"/>
+      <c r="W52" s="155"/>
+      <c r="X52" s="155"/>
+      <c r="Y52" s="155"/>
+      <c r="Z52" s="155"/>
+      <c r="AA52" s="155"/>
+      <c r="AB52" s="155"/>
       <c r="AC52" s="61"/>
       <c r="AD52" s="89"/>
     </row>
     <row r="53" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="161" t="s">
+      <c r="B53" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="162"/>
-      <c r="D53" s="162"/>
+      <c r="C53" s="151"/>
+      <c r="D53" s="151"/>
       <c r="E53" s="12">
         <v>0</v>
       </c>
@@ -42839,11 +42844,11 @@
     </row>
     <row r="54" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="144" t="s">
+      <c r="B54" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
       <c r="E54" s="15">
         <v>0</v>
       </c>
@@ -42926,11 +42931,11 @@
     </row>
     <row r="55" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="144" t="s">
+      <c r="B55" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="C55" s="157"/>
+      <c r="D55" s="157"/>
       <c r="E55" s="15">
         <v>0</v>
       </c>
@@ -43013,11 +43018,11 @@
     </row>
     <row r="56" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="144" t="s">
+      <c r="B56" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="157"/>
       <c r="E56" s="18">
         <v>0</v>
       </c>
@@ -43244,47 +43249,47 @@
     </row>
     <row r="59" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="163" t="s">
+      <c r="B59" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="164"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="142" t="s">
+      <c r="C59" s="169"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="143"/>
-      <c r="G59" s="143"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="143"/>
-      <c r="K59" s="143"/>
-      <c r="L59" s="143"/>
-      <c r="M59" s="143"/>
-      <c r="N59" s="143"/>
-      <c r="O59" s="143"/>
-      <c r="P59" s="143"/>
-      <c r="Q59" s="143"/>
-      <c r="R59" s="143"/>
-      <c r="S59" s="143"/>
-      <c r="T59" s="143"/>
-      <c r="U59" s="143"/>
-      <c r="V59" s="143"/>
-      <c r="W59" s="143"/>
-      <c r="X59" s="143"/>
-      <c r="Y59" s="143"/>
-      <c r="Z59" s="143"/>
-      <c r="AA59" s="143"/>
-      <c r="AB59" s="143"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="155"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="155"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
+      <c r="N59" s="155"/>
+      <c r="O59" s="155"/>
+      <c r="P59" s="155"/>
+      <c r="Q59" s="155"/>
+      <c r="R59" s="155"/>
+      <c r="S59" s="155"/>
+      <c r="T59" s="155"/>
+      <c r="U59" s="155"/>
+      <c r="V59" s="155"/>
+      <c r="W59" s="155"/>
+      <c r="X59" s="155"/>
+      <c r="Y59" s="155"/>
+      <c r="Z59" s="155"/>
+      <c r="AA59" s="155"/>
+      <c r="AB59" s="155"/>
       <c r="AC59" s="61"/>
       <c r="AD59" s="89"/>
     </row>
     <row r="60" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="161" t="s">
+      <c r="B60" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="162"/>
-      <c r="D60" s="162"/>
+      <c r="C60" s="151"/>
+      <c r="D60" s="151"/>
       <c r="E60" s="12">
         <v>0</v>
       </c>
@@ -43367,11 +43372,11 @@
     </row>
     <row r="61" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="144" t="s">
+      <c r="B61" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
       <c r="E61" s="15">
         <v>0</v>
       </c>
@@ -43454,11 +43459,11 @@
     </row>
     <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="144" t="s">
+      <c r="B62" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
       <c r="E62" s="15">
         <v>0</v>
       </c>
@@ -43790,7 +43795,7 @@
         <f t="shared" ref="AC65:AC66" si="37">SUM(E65:AB65)</f>
         <v>0</v>
       </c>
-      <c r="AD65" s="153"/>
+      <c r="AD65" s="181"/>
     </row>
     <row r="66" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
@@ -43899,7 +43904,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AD66" s="146"/>
+      <c r="AD66" s="172"/>
     </row>
     <row r="67" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
@@ -44008,7 +44013,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AD67" s="146"/>
+      <c r="AD67" s="172"/>
     </row>
     <row r="68" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
@@ -44114,7 +44119,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="112"/>
-      <c r="AD68" s="154"/>
+      <c r="AD68" s="182"/>
     </row>
     <row r="69" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
@@ -44155,31 +44160,31 @@
       </c>
       <c r="C70" s="60"/>
       <c r="D70" s="60"/>
-      <c r="E70" s="150"/>
-      <c r="F70" s="143"/>
-      <c r="G70" s="143"/>
-      <c r="H70" s="143"/>
-      <c r="I70" s="143"/>
-      <c r="J70" s="143"/>
-      <c r="K70" s="143"/>
-      <c r="L70" s="143"/>
-      <c r="M70" s="143"/>
-      <c r="N70" s="143"/>
-      <c r="O70" s="143"/>
-      <c r="P70" s="143"/>
-      <c r="Q70" s="143"/>
-      <c r="R70" s="143"/>
-      <c r="S70" s="143"/>
-      <c r="T70" s="143"/>
-      <c r="U70" s="143"/>
-      <c r="V70" s="143"/>
-      <c r="W70" s="143"/>
-      <c r="X70" s="143"/>
-      <c r="Y70" s="143"/>
-      <c r="Z70" s="143"/>
-      <c r="AA70" s="143"/>
-      <c r="AB70" s="143"/>
-      <c r="AC70" s="143"/>
+      <c r="E70" s="178"/>
+      <c r="F70" s="155"/>
+      <c r="G70" s="155"/>
+      <c r="H70" s="155"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="155"/>
+      <c r="K70" s="155"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
+      <c r="N70" s="155"/>
+      <c r="O70" s="155"/>
+      <c r="P70" s="155"/>
+      <c r="Q70" s="155"/>
+      <c r="R70" s="155"/>
+      <c r="S70" s="155"/>
+      <c r="T70" s="155"/>
+      <c r="U70" s="155"/>
+      <c r="V70" s="155"/>
+      <c r="W70" s="155"/>
+      <c r="X70" s="155"/>
+      <c r="Y70" s="155"/>
+      <c r="Z70" s="155"/>
+      <c r="AA70" s="155"/>
+      <c r="AB70" s="155"/>
+      <c r="AC70" s="155"/>
       <c r="AD70" s="89"/>
     </row>
     <row r="71" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -44193,76 +44198,76 @@
       <c r="D71" s="25">
         <v>0</v>
       </c>
-      <c r="E71" s="186">
+      <c r="E71" s="190">
         <f>D71-E72</f>
         <v>0</v>
       </c>
-      <c r="F71" s="186"/>
-      <c r="G71" s="186"/>
-      <c r="H71" s="186"/>
-      <c r="I71" s="186"/>
-      <c r="J71" s="186"/>
-      <c r="K71" s="186"/>
-      <c r="L71" s="186"/>
-      <c r="M71" s="186"/>
-      <c r="N71" s="186"/>
-      <c r="O71" s="186"/>
-      <c r="P71" s="186"/>
-      <c r="Q71" s="186"/>
-      <c r="R71" s="186"/>
-      <c r="S71" s="186"/>
-      <c r="T71" s="186"/>
-      <c r="U71" s="186"/>
-      <c r="V71" s="186"/>
-      <c r="W71" s="186"/>
-      <c r="X71" s="186"/>
-      <c r="Y71" s="186"/>
-      <c r="Z71" s="186"/>
-      <c r="AA71" s="186"/>
-      <c r="AB71" s="186"/>
-      <c r="AC71" s="186"/>
-      <c r="AD71" s="147">
+      <c r="F71" s="190"/>
+      <c r="G71" s="190"/>
+      <c r="H71" s="190"/>
+      <c r="I71" s="190"/>
+      <c r="J71" s="190"/>
+      <c r="K71" s="190"/>
+      <c r="L71" s="190"/>
+      <c r="M71" s="190"/>
+      <c r="N71" s="190"/>
+      <c r="O71" s="190"/>
+      <c r="P71" s="190"/>
+      <c r="Q71" s="190"/>
+      <c r="R71" s="190"/>
+      <c r="S71" s="190"/>
+      <c r="T71" s="190"/>
+      <c r="U71" s="190"/>
+      <c r="V71" s="190"/>
+      <c r="W71" s="190"/>
+      <c r="X71" s="190"/>
+      <c r="Y71" s="190"/>
+      <c r="Z71" s="190"/>
+      <c r="AA71" s="190"/>
+      <c r="AB71" s="190"/>
+      <c r="AC71" s="190"/>
+      <c r="AD71" s="173">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="187" t="s">
+      <c r="B72" s="191" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="188"/>
+      <c r="C72" s="192"/>
       <c r="D72" s="121">
         <v>0</v>
       </c>
-      <c r="E72" s="186">
+      <c r="E72" s="190">
         <f>D71*D72</f>
         <v>0</v>
       </c>
-      <c r="F72" s="186"/>
-      <c r="G72" s="186"/>
-      <c r="H72" s="186"/>
-      <c r="I72" s="186"/>
-      <c r="J72" s="186"/>
-      <c r="K72" s="186"/>
-      <c r="L72" s="186"/>
-      <c r="M72" s="186"/>
-      <c r="N72" s="186"/>
-      <c r="O72" s="186"/>
-      <c r="P72" s="186"/>
-      <c r="Q72" s="186"/>
-      <c r="R72" s="186"/>
-      <c r="S72" s="186"/>
-      <c r="T72" s="186"/>
-      <c r="U72" s="186"/>
-      <c r="V72" s="186"/>
-      <c r="W72" s="186"/>
-      <c r="X72" s="186"/>
-      <c r="Y72" s="186"/>
-      <c r="Z72" s="186"/>
-      <c r="AA72" s="186"/>
-      <c r="AB72" s="186"/>
-      <c r="AC72" s="186"/>
-      <c r="AD72" s="148"/>
+      <c r="F72" s="190"/>
+      <c r="G72" s="190"/>
+      <c r="H72" s="190"/>
+      <c r="I72" s="190"/>
+      <c r="J72" s="190"/>
+      <c r="K72" s="190"/>
+      <c r="L72" s="190"/>
+      <c r="M72" s="190"/>
+      <c r="N72" s="190"/>
+      <c r="O72" s="190"/>
+      <c r="P72" s="190"/>
+      <c r="Q72" s="190"/>
+      <c r="R72" s="190"/>
+      <c r="S72" s="190"/>
+      <c r="T72" s="190"/>
+      <c r="U72" s="190"/>
+      <c r="V72" s="190"/>
+      <c r="W72" s="190"/>
+      <c r="X72" s="190"/>
+      <c r="Y72" s="190"/>
+      <c r="Z72" s="190"/>
+      <c r="AA72" s="190"/>
+      <c r="AB72" s="190"/>
+      <c r="AC72" s="190"/>
+      <c r="AD72" s="174"/>
     </row>
     <row r="73" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
@@ -44275,35 +44280,35 @@
       <c r="D73" s="117">
         <v>0</v>
       </c>
-      <c r="E73" s="185">
+      <c r="E73" s="189">
         <f>D73</f>
         <v>0</v>
       </c>
-      <c r="F73" s="185"/>
-      <c r="G73" s="185"/>
-      <c r="H73" s="185"/>
-      <c r="I73" s="185"/>
-      <c r="J73" s="185"/>
-      <c r="K73" s="185"/>
-      <c r="L73" s="185"/>
-      <c r="M73" s="185"/>
-      <c r="N73" s="185"/>
-      <c r="O73" s="185"/>
-      <c r="P73" s="185"/>
-      <c r="Q73" s="185"/>
-      <c r="R73" s="185"/>
-      <c r="S73" s="185"/>
-      <c r="T73" s="185"/>
-      <c r="U73" s="185"/>
-      <c r="V73" s="185"/>
-      <c r="W73" s="185"/>
-      <c r="X73" s="185"/>
-      <c r="Y73" s="185"/>
-      <c r="Z73" s="185"/>
-      <c r="AA73" s="185"/>
-      <c r="AB73" s="185"/>
-      <c r="AC73" s="185"/>
-      <c r="AD73" s="146" t="s">
+      <c r="F73" s="189"/>
+      <c r="G73" s="189"/>
+      <c r="H73" s="189"/>
+      <c r="I73" s="189"/>
+      <c r="J73" s="189"/>
+      <c r="K73" s="189"/>
+      <c r="L73" s="189"/>
+      <c r="M73" s="189"/>
+      <c r="N73" s="189"/>
+      <c r="O73" s="189"/>
+      <c r="P73" s="189"/>
+      <c r="Q73" s="189"/>
+      <c r="R73" s="189"/>
+      <c r="S73" s="189"/>
+      <c r="T73" s="189"/>
+      <c r="U73" s="189"/>
+      <c r="V73" s="189"/>
+      <c r="W73" s="189"/>
+      <c r="X73" s="189"/>
+      <c r="Y73" s="189"/>
+      <c r="Z73" s="189"/>
+      <c r="AA73" s="189"/>
+      <c r="AB73" s="189"/>
+      <c r="AC73" s="189"/>
+      <c r="AD73" s="172" t="s">
         <v>54</v>
       </c>
     </row>
@@ -44314,67 +44319,67 @@
       </c>
       <c r="C74" s="119"/>
       <c r="D74" s="119"/>
-      <c r="E74" s="183"/>
-      <c r="F74" s="184"/>
-      <c r="G74" s="184"/>
-      <c r="H74" s="184"/>
-      <c r="I74" s="184"/>
-      <c r="J74" s="184"/>
-      <c r="K74" s="184"/>
-      <c r="L74" s="184"/>
-      <c r="M74" s="184"/>
-      <c r="N74" s="184"/>
-      <c r="O74" s="184"/>
-      <c r="P74" s="184"/>
-      <c r="Q74" s="184"/>
-      <c r="R74" s="184"/>
-      <c r="S74" s="184"/>
-      <c r="T74" s="184"/>
-      <c r="U74" s="184"/>
-      <c r="V74" s="184"/>
-      <c r="W74" s="184"/>
-      <c r="X74" s="184"/>
-      <c r="Y74" s="184"/>
-      <c r="Z74" s="184"/>
-      <c r="AA74" s="184"/>
-      <c r="AB74" s="184"/>
+      <c r="E74" s="187"/>
+      <c r="F74" s="188"/>
+      <c r="G74" s="188"/>
+      <c r="H74" s="188"/>
+      <c r="I74" s="188"/>
+      <c r="J74" s="188"/>
+      <c r="K74" s="188"/>
+      <c r="L74" s="188"/>
+      <c r="M74" s="188"/>
+      <c r="N74" s="188"/>
+      <c r="O74" s="188"/>
+      <c r="P74" s="188"/>
+      <c r="Q74" s="188"/>
+      <c r="R74" s="188"/>
+      <c r="S74" s="188"/>
+      <c r="T74" s="188"/>
+      <c r="U74" s="188"/>
+      <c r="V74" s="188"/>
+      <c r="W74" s="188"/>
+      <c r="X74" s="188"/>
+      <c r="Y74" s="188"/>
+      <c r="Z74" s="188"/>
+      <c r="AA74" s="188"/>
+      <c r="AB74" s="188"/>
       <c r="AC74" s="120">
         <f>D71+D73</f>
         <v>0</v>
       </c>
-      <c r="AD74" s="154"/>
+      <c r="AD74" s="182"/>
     </row>
     <row r="75" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
-      <c r="B75" s="190" t="s">
+      <c r="B75" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="191"/>
+      <c r="C75" s="185"/>
       <c r="D75" s="88"/>
-      <c r="E75" s="192"/>
-      <c r="F75" s="191"/>
-      <c r="G75" s="191"/>
-      <c r="H75" s="191"/>
-      <c r="I75" s="191"/>
-      <c r="J75" s="191"/>
-      <c r="K75" s="191"/>
-      <c r="L75" s="191"/>
-      <c r="M75" s="191"/>
-      <c r="N75" s="191"/>
-      <c r="O75" s="191"/>
-      <c r="P75" s="191"/>
-      <c r="Q75" s="191"/>
-      <c r="R75" s="191"/>
-      <c r="S75" s="191"/>
-      <c r="T75" s="191"/>
-      <c r="U75" s="191"/>
-      <c r="V75" s="191"/>
-      <c r="W75" s="191"/>
-      <c r="X75" s="191"/>
-      <c r="Y75" s="191"/>
-      <c r="Z75" s="191"/>
-      <c r="AA75" s="191"/>
-      <c r="AB75" s="191"/>
+      <c r="E75" s="186"/>
+      <c r="F75" s="185"/>
+      <c r="G75" s="185"/>
+      <c r="H75" s="185"/>
+      <c r="I75" s="185"/>
+      <c r="J75" s="185"/>
+      <c r="K75" s="185"/>
+      <c r="L75" s="185"/>
+      <c r="M75" s="185"/>
+      <c r="N75" s="185"/>
+      <c r="O75" s="185"/>
+      <c r="P75" s="185"/>
+      <c r="Q75" s="185"/>
+      <c r="R75" s="185"/>
+      <c r="S75" s="185"/>
+      <c r="T75" s="185"/>
+      <c r="U75" s="185"/>
+      <c r="V75" s="185"/>
+      <c r="W75" s="185"/>
+      <c r="X75" s="185"/>
+      <c r="Y75" s="185"/>
+      <c r="Z75" s="185"/>
+      <c r="AA75" s="185"/>
+      <c r="AB75" s="185"/>
       <c r="AC75" s="94">
         <f>AC74+AC67</f>
         <v>0</v>
@@ -44448,10 +44453,10 @@
     </row>
     <row r="78" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="158" t="s">
+      <c r="B78" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="159"/>
+      <c r="C78" s="143"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -44581,10 +44586,10 @@
     </row>
     <row r="82" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="168" t="s">
+      <c r="B82" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="159"/>
+      <c r="C82" s="143"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -44613,10 +44618,10 @@
     </row>
     <row r="83" spans="1:29" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="170" t="s">
+      <c r="B83" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="159"/>
+      <c r="C83" s="143"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -44676,10 +44681,10 @@
     </row>
     <row r="85" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="169" t="s">
+      <c r="B85" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="159"/>
+      <c r="C85" s="143"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -44708,10 +44713,10 @@
     </row>
     <row r="86" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="167" t="s">
+      <c r="B86" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="159"/>
+      <c r="C86" s="143"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -44740,8 +44745,8 @@
     </row>
     <row r="87" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="159"/>
-      <c r="C87" s="159"/>
+      <c r="B87" s="143"/>
+      <c r="C87" s="143"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -44801,10 +44806,10 @@
     </row>
     <row r="89" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="168" t="s">
+      <c r="B89" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="159"/>
+      <c r="C89" s="143"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
@@ -44833,10 +44838,10 @@
     </row>
     <row r="90" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="167" t="s">
+      <c r="B90" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="159"/>
+      <c r="C90" s="143"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -44865,8 +44870,8 @@
     </row>
     <row r="91" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="159"/>
-      <c r="C91" s="159"/>
+      <c r="B91" s="143"/>
+      <c r="C91" s="143"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -74097,6 +74102,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="E4:AB4"/>
+    <mergeCell ref="E26:AB26"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="E5:AB5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AD39:AD40"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="AD41:AD42"/>
+    <mergeCell ref="E45:AB45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="AD73:AD74"/>
+    <mergeCell ref="E74:AB74"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:AB59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E73:AC73"/>
+    <mergeCell ref="AD65:AD68"/>
+    <mergeCell ref="E71:AC71"/>
+    <mergeCell ref="AD71:AD72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:AC72"/>
     <mergeCell ref="B86:C87"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B90:C91"/>
@@ -74113,49 +74161,6 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="AD73:AD74"/>
-    <mergeCell ref="E74:AB74"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:AB59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E73:AC73"/>
-    <mergeCell ref="AD65:AD68"/>
-    <mergeCell ref="E71:AC71"/>
-    <mergeCell ref="AD71:AD72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:AC72"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="AD41:AD42"/>
-    <mergeCell ref="E45:AB45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="AD39:AD40"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="E26:AB26"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="E5:AB5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="E4:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>

--- a/Produktionsförderung/Anlage_9_Vorlage_Kostenplan_GBW.xlsx
+++ b/Produktionsförderung/Anlage_9_Vorlage_Kostenplan_GBW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E35BC7-845E-4FC5-82C7-610D60F7614E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD50315-CA11-42F0-973C-F36C1253CB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="71">
   <si>
     <t>Monat</t>
   </si>
@@ -241,6 +241,18 @@
   <si>
     <t>Microsoft 365 &amp; Cloud für Audioresourcen</t>
   </si>
+  <si>
+    <t>Headup</t>
+  </si>
+  <si>
+    <t>Creact</t>
+  </si>
+  <si>
+    <t>MFG</t>
+  </si>
+  <si>
+    <t>Miete Container</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +265,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -360,8 +372,14 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF274E13"/>
+      <name val="Open Sans"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,8 +464,14 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="69">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1217,13 +1241,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1466,84 +1499,20 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="13" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="13" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1554,12 +1523,6 @@
     </xf>
     <xf numFmtId="167" fontId="13" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="13" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,12 +1536,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,6 +1620,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="17" fillId="15" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
@@ -1603,6 +1641,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9EAD3"/>
       <color rgb="FF4D4D4D"/>
     </mruColors>
   </colors>
@@ -1867,10 +1906,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD1035"/>
+  <dimension ref="A1:AJ1035"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26"/>
+      <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1886,49 +1925,50 @@
     <col min="26" max="28" width="7.85546875" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="13.140625" customWidth="1"/>
     <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-    </row>
-    <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="E2" s="173"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="159"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="159"/>
+      <c r="Y2" s="159"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="159"/>
+    </row>
+    <row r="3" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="148"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="176"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -2004,46 +2044,46 @@
       <c r="AC3" s="72"/>
       <c r="AD3" s="53"/>
     </row>
-    <row r="4" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>1</v>
+      <c r="B4" s="175"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="193">
+        <v>45689</v>
+      </c>
+      <c r="F4" s="193">
+        <v>45717</v>
+      </c>
+      <c r="G4" s="193">
+        <v>45748</v>
+      </c>
+      <c r="H4" s="193">
+        <v>45778</v>
+      </c>
+      <c r="I4" s="193">
+        <v>45809</v>
+      </c>
+      <c r="J4" s="193">
+        <v>45839</v>
+      </c>
+      <c r="K4" s="193">
+        <v>45870</v>
+      </c>
+      <c r="L4" s="193">
+        <v>45901</v>
+      </c>
+      <c r="M4" s="193">
+        <v>45931</v>
+      </c>
+      <c r="N4" s="193">
+        <v>45962</v>
+      </c>
+      <c r="O4" s="193">
+        <v>45992</v>
+      </c>
+      <c r="P4" s="193">
+        <v>46023</v>
       </c>
       <c r="Q4" s="38" t="s">
         <v>1</v>
@@ -2081,48 +2121,48 @@
       <c r="AB4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="149" t="s">
+      <c r="AC4" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="172" t="s">
+      <c r="AD4" s="146" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="143"/>
-      <c r="W5" s="143"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
-      <c r="AA5" s="143"/>
-      <c r="AB5" s="143"/>
-      <c r="AC5" s="149"/>
-      <c r="AD5" s="172"/>
-    </row>
-    <row r="6" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="E5" s="179"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
+      <c r="X5" s="159"/>
+      <c r="Y5" s="159"/>
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="146"/>
+    </row>
+    <row r="6" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="75" t="s">
         <v>48</v>
@@ -2133,82 +2173,82 @@
       <c r="D6" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="147"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
-      <c r="AB6" s="147"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="142"/>
+      <c r="T6" s="142"/>
+      <c r="U6" s="142"/>
+      <c r="V6" s="142"/>
+      <c r="W6" s="142"/>
+      <c r="X6" s="142"/>
+      <c r="Y6" s="142"/>
+      <c r="Z6" s="142"/>
+      <c r="AA6" s="142"/>
+      <c r="AB6" s="142"/>
       <c r="AC6" s="61"/>
       <c r="AD6" s="89"/>
     </row>
-    <row r="7" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="54" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="25">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D7" s="21">
         <f>C7-D8</f>
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E7" s="29">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="29">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="29">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="29">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" s="29">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J7" s="29">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K7" s="29">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="L7" s="29">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M7" s="29">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="N7" s="29">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O7" s="29">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P7" s="29">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="29">
         <v>0</v>
@@ -2248,13 +2288,14 @@
       </c>
       <c r="AC7" s="36">
         <f>SUM(E7:AB7)*D7</f>
-        <v>120000</v>
-      </c>
-      <c r="AD7" s="173">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+        <v>50220</v>
+      </c>
+      <c r="AD7" s="147">
+        <f>AC7</f>
+        <v>50220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="55" t="s">
         <v>34</v>
@@ -2366,19 +2407,19 @@
         <f t="shared" ref="AC8:AC24" si="1">SUM(E8:AB8)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="174"/>
-    </row>
-    <row r="9" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD8" s="148"/>
+    </row>
+    <row r="9" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="27">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D9" s="23">
         <f>C9-D10</f>
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="E9" s="30">
         <v>5</v>
@@ -2393,28 +2434,28 @@
         <v>5</v>
       </c>
       <c r="I9" s="30">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J9" s="30">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L9" s="30">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M9" s="30">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N9" s="30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O9" s="30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P9" s="30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="30">
         <v>0</v>
@@ -2454,13 +2495,14 @@
       </c>
       <c r="AC9" s="36">
         <f>SUM(E9:AB9)*D9</f>
-        <v>57200</v>
-      </c>
-      <c r="AD9" s="173">
-        <v>57200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+        <v>12600</v>
+      </c>
+      <c r="AD9" s="147">
+        <f>AC9</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="55" t="s">
         <v>34</v>
@@ -2572,55 +2614,55 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="174"/>
-    </row>
-    <row r="11" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD10" s="148"/>
+    </row>
+    <row r="11" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="56" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="27">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D11" s="23">
         <f>C11-D12</f>
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="E11" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11" s="30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" s="30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O11" s="30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P11" s="30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="30">
         <v>0</v>
@@ -2660,13 +2702,14 @@
       </c>
       <c r="AC11" s="36">
         <f>SUM(E11:AB11)*D11</f>
-        <v>15600</v>
-      </c>
-      <c r="AD11" s="173">
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+        <v>7560</v>
+      </c>
+      <c r="AD11" s="147">
+        <f>AC11</f>
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="55" t="s">
         <v>34</v>
@@ -2778,19 +2821,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="174"/>
-    </row>
-    <row r="13" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD12" s="148"/>
+    </row>
+    <row r="13" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="27">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D13" s="23">
         <f>C13-D14</f>
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="E13" s="30">
         <v>10</v>
@@ -2820,13 +2863,13 @@
         <v>10</v>
       </c>
       <c r="N13" s="30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O13" s="30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P13" s="30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="30">
         <v>0</v>
@@ -2866,13 +2909,25 @@
       </c>
       <c r="AC13" s="36">
         <f>SUM(E13:AB13)*D13</f>
-        <v>31200</v>
-      </c>
-      <c r="AD13" s="173">
-        <v>31200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+        <v>25200</v>
+      </c>
+      <c r="AD13" s="147">
+        <f>AC13</f>
+        <v>25200</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH13">
+        <f>13666.66*4</f>
+        <v>54666.64</v>
+      </c>
+      <c r="AI13">
+        <f>AH13/AH23</f>
+        <v>0.40349344797670328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="55" t="s">
         <v>34</v>
@@ -2984,19 +3039,30 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="174"/>
-    </row>
-    <row r="15" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD14" s="148"/>
+      <c r="AG14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH14">
+        <f>13075.03</f>
+        <v>13075.03</v>
+      </c>
+      <c r="AI14">
+        <f>AH14/AH23</f>
+        <v>9.6506552023296749E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="27">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="D15" s="23">
         <f>C15-D16</f>
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="E15" s="30">
         <v>4</v>
@@ -3026,13 +3092,13 @@
         <v>4</v>
       </c>
       <c r="N15" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P15" s="30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="30">
         <v>0</v>
@@ -3072,13 +3138,25 @@
       </c>
       <c r="AC15" s="36">
         <f>SUM(E15:AB15)*D15</f>
-        <v>14400</v>
-      </c>
-      <c r="AD15" s="173">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+        <v>11880</v>
+      </c>
+      <c r="AD15" s="147">
+        <f>AC15</f>
+        <v>11880</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH15">
+        <f>AH14+AH13</f>
+        <v>67741.67</v>
+      </c>
+      <c r="AI15">
+        <f>AH15/AH23</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="55" t="s">
         <v>34</v>
@@ -3190,9 +3268,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="174"/>
-    </row>
-    <row r="17" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD16" s="148"/>
+    </row>
+    <row r="17" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="57" t="s">
         <v>9</v>
@@ -3280,11 +3358,11 @@
         <f>SUM(E17:AB17)*D17</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD17" s="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="55" t="s">
         <v>34</v>
@@ -3396,9 +3474,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="174"/>
-    </row>
-    <row r="19" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD18" s="148"/>
+    </row>
+    <row r="19" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="56" t="s">
         <v>10</v>
@@ -3486,11 +3564,11 @@
         <f>SUM(E19:AB19)*D19</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD19" s="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="55" t="s">
         <v>34</v>
@@ -3602,9 +3680,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="174"/>
-    </row>
-    <row r="21" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD20" s="148"/>
+    </row>
+    <row r="21" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="56" t="s">
         <v>10</v>
@@ -3692,11 +3770,11 @@
         <f>SUM(E21:AB21)*D21</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD21" s="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="55" t="s">
         <v>34</v>
@@ -3808,9 +3886,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="174"/>
-    </row>
-    <row r="23" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD22" s="148"/>
+    </row>
+    <row r="23" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="58" t="s">
         <v>36</v>
@@ -3819,51 +3897,51 @@
       <c r="D23" s="45"/>
       <c r="E23" s="46">
         <f>E7*$D$7+E9*$D$9+E11*$D$11+E13*$D$13+E15*$D$15+E17*$D$17+E19*$D$19+E21*$D$21</f>
-        <v>12400</v>
+        <v>11940</v>
       </c>
       <c r="F23" s="46">
         <f t="shared" ref="F23:AB23" si="9">F7*$D$7+F9*$D$9+F11*$D$11+F13*$D$13+F15*$D$15+F17*$D$17+F19*$D$19+F21*$D$21</f>
-        <v>12400</v>
+        <v>11940</v>
       </c>
       <c r="G23" s="46">
         <f t="shared" si="9"/>
-        <v>12400</v>
+        <v>11940</v>
       </c>
       <c r="H23" s="46">
         <f t="shared" si="9"/>
-        <v>12400</v>
+        <v>11940</v>
       </c>
       <c r="I23" s="46">
         <f t="shared" si="9"/>
-        <v>23600</v>
+        <v>11940</v>
       </c>
       <c r="J23" s="46">
         <f t="shared" si="9"/>
-        <v>23600</v>
+        <v>11940</v>
       </c>
       <c r="K23" s="46">
         <f t="shared" si="9"/>
-        <v>23600</v>
+        <v>11940</v>
       </c>
       <c r="L23" s="46">
         <f t="shared" si="9"/>
-        <v>23600</v>
+        <v>11940</v>
       </c>
       <c r="M23" s="46">
         <f t="shared" si="9"/>
-        <v>23600</v>
+        <v>11940</v>
       </c>
       <c r="N23" s="46">
         <f t="shared" si="9"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="O23" s="46">
         <f t="shared" si="9"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="P23" s="46">
         <f t="shared" si="9"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="46">
         <f t="shared" si="9"/>
@@ -3915,13 +3993,20 @@
       </c>
       <c r="AC23" s="46">
         <f t="shared" ref="AC23" si="10">SUM(E23:AB23)</f>
-        <v>238400</v>
-      </c>
-      <c r="AD23" s="175" t="s">
+        <v>107460</v>
+      </c>
+      <c r="AD23" s="140" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AG23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH23">
+        <f>AH13+AH14+AH15</f>
+        <v>135483.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="59" t="s">
         <v>35</v>
@@ -4028,9 +4113,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="176"/>
-    </row>
-    <row r="25" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD24" s="141"/>
+    </row>
+    <row r="25" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="76" t="s">
         <v>38</v>
@@ -4039,51 +4124,51 @@
       <c r="D25" s="69"/>
       <c r="E25" s="70">
         <f>E23+E24</f>
-        <v>12400</v>
+        <v>11940</v>
       </c>
       <c r="F25" s="70">
         <f t="shared" ref="F25:AB25" si="12">F23+F24</f>
-        <v>12400</v>
+        <v>11940</v>
       </c>
       <c r="G25" s="71">
         <f t="shared" si="12"/>
-        <v>12400</v>
+        <v>11940</v>
       </c>
       <c r="H25" s="70">
         <f t="shared" si="12"/>
-        <v>12400</v>
+        <v>11940</v>
       </c>
       <c r="I25" s="70">
         <f t="shared" si="12"/>
-        <v>23600</v>
+        <v>11940</v>
       </c>
       <c r="J25" s="71">
         <f t="shared" si="12"/>
-        <v>23600</v>
+        <v>11940</v>
       </c>
       <c r="K25" s="70">
         <f t="shared" si="12"/>
-        <v>23600</v>
+        <v>11940</v>
       </c>
       <c r="L25" s="70">
         <f t="shared" si="12"/>
-        <v>23600</v>
+        <v>11940</v>
       </c>
       <c r="M25" s="71">
         <f t="shared" si="12"/>
-        <v>23600</v>
+        <v>11940</v>
       </c>
       <c r="N25" s="70">
         <f t="shared" si="12"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="O25" s="70">
         <f t="shared" si="12"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="P25" s="71">
         <f t="shared" si="12"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="70">
         <f t="shared" si="12"/>
@@ -4135,14 +4220,14 @@
       </c>
       <c r="AC25" s="134">
         <f>AC23+AC24</f>
-        <v>238400</v>
+        <v>107460</v>
       </c>
       <c r="AD25" s="135">
         <f>AD7+AD9+AD11+AD13+AD15+AD17+AD19+AD21</f>
-        <v>238400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+        <v>107460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="77"/>
       <c r="C26" s="78"/>
@@ -4173,8 +4258,12 @@
       <c r="AB26" s="32"/>
       <c r="AC26" s="91"/>
       <c r="AD26" s="92"/>
-    </row>
-    <row r="27" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AH26" s="194">
+        <f>AC76-AH23</f>
+        <v>1.0000000009313226E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="79" t="s">
         <v>12</v>
@@ -4185,36 +4274,36 @@
       <c r="D27" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="147" t="s">
+      <c r="E27" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="143"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="143"/>
+      <c r="W27" s="143"/>
+      <c r="X27" s="143"/>
+      <c r="Y27" s="143"/>
+      <c r="Z27" s="143"/>
+      <c r="AA27" s="143"/>
+      <c r="AB27" s="143"/>
       <c r="AC27" s="61"/>
       <c r="AD27" s="89"/>
     </row>
-    <row r="28" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="54" t="s">
         <v>5</v>
@@ -4239,19 +4328,19 @@
         <v>20</v>
       </c>
       <c r="I28" s="29">
-        <v>0</v>
-      </c>
-      <c r="J28" s="50">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="J28" s="29">
+        <v>20</v>
       </c>
       <c r="K28" s="29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L28" s="29">
-        <v>0</v>
-      </c>
-      <c r="M28" s="50">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="M28" s="29">
+        <v>20</v>
       </c>
       <c r="N28" s="29">
         <v>0</v>
@@ -4300,13 +4389,14 @@
       </c>
       <c r="AC28" s="36">
         <f>SUM(E28:AB28)*D28</f>
-        <v>9600</v>
-      </c>
-      <c r="AD28" s="173">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+        <v>21600</v>
+      </c>
+      <c r="AD28" s="147">
+        <f>AC28</f>
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="55" t="s">
         <v>34</v>
@@ -4418,9 +4508,9 @@
         <f t="shared" ref="AC29" si="14">SUM(E29:AB29)</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="174"/>
-    </row>
-    <row r="30" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD29" s="148"/>
+    </row>
+    <row r="30" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="56" t="s">
         <v>6</v>
@@ -4508,11 +4598,11 @@
         <f>SUM(E30:AB30)*D30</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD30" s="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="55" t="s">
         <v>34</v>
@@ -4624,9 +4714,9 @@
         <f t="shared" ref="AC31" si="16">SUM(E31:AB31)</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="174"/>
-    </row>
-    <row r="32" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD31" s="148"/>
+    </row>
+    <row r="32" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="57" t="s">
         <v>14</v>
@@ -4714,11 +4804,11 @@
         <f>SUM(E32:AB32)*D32</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD32" s="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="55" t="s">
         <v>34</v>
@@ -4830,9 +4920,9 @@
         <f t="shared" ref="AC33" si="18">SUM(E33:AB33)</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="174"/>
-    </row>
-    <row r="34" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD33" s="148"/>
+    </row>
+    <row r="34" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="56" t="s">
         <v>9</v>
@@ -4920,11 +5010,11 @@
         <f>SUM(E34:AB34)*D34</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD34" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="55" t="s">
         <v>34</v>
@@ -5036,9 +5126,9 @@
         <f t="shared" ref="AC35" si="20">SUM(E35:AB35)</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="174"/>
-    </row>
-    <row r="36" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD35" s="148"/>
+    </row>
+    <row r="36" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="54" t="s">
         <v>4</v>
@@ -5126,11 +5216,11 @@
         <f>SUM(E36:AB36)*D36</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD36" s="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="55" t="s">
         <v>34</v>
@@ -5242,9 +5332,9 @@
         <f t="shared" ref="AC37" si="22">SUM(E37:AB37)</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="174"/>
-    </row>
-    <row r="38" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD37" s="148"/>
+    </row>
+    <row r="38" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="56" t="s">
         <v>51</v>
@@ -5332,11 +5422,11 @@
         <f>SUM(E38:AB38)*D38</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD38" s="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="55" t="s">
         <v>34</v>
@@ -5448,9 +5538,9 @@
         <f t="shared" ref="AC39" si="24">SUM(E39:AB39)</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="174"/>
-    </row>
-    <row r="40" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD39" s="148"/>
+    </row>
+    <row r="40" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="56" t="s">
         <v>51</v>
@@ -5538,11 +5628,11 @@
         <f>SUM(E40:AB40)*D40</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AD40" s="147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="55" t="s">
         <v>34</v>
@@ -5654,9 +5744,9 @@
         <f t="shared" ref="AC41:AC43" si="26">SUM(E41:AB41)</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="174"/>
-    </row>
-    <row r="42" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD41" s="148"/>
+    </row>
+    <row r="42" spans="1:36" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="58" t="s">
         <v>36</v>
@@ -5681,23 +5771,23 @@
       </c>
       <c r="I42" s="96">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J42" s="96">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="K42" s="96">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="L42" s="96">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="M42" s="96">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="N42" s="96">
         <f t="shared" si="27"/>
@@ -5761,13 +5851,13 @@
       </c>
       <c r="AC42" s="96">
         <f t="shared" si="26"/>
-        <v>9600</v>
-      </c>
-      <c r="AD42" s="172" t="s">
+        <v>21600</v>
+      </c>
+      <c r="AD42" s="146" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="59" t="s">
         <v>35</v>
@@ -5874,9 +5964,9 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD43" s="172"/>
-    </row>
-    <row r="44" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD43" s="146"/>
+    </row>
+    <row r="44" spans="1:36" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="76" t="s">
         <v>38</v>
@@ -5901,23 +5991,23 @@
       </c>
       <c r="I44" s="99">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="J44" s="100">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="K44" s="99">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="L44" s="99">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="M44" s="100">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="N44" s="99">
         <f t="shared" si="29"/>
@@ -5981,14 +6071,14 @@
       </c>
       <c r="AC44" s="136">
         <f>AC42+AC43</f>
-        <v>9600</v>
+        <v>21600</v>
       </c>
       <c r="AD44" s="137">
         <f>AD28+AD30+AD32+AD34+AD36+AD38+AD40</f>
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="77"/>
       <c r="C45" s="81"/>
@@ -6019,50 +6109,60 @@
       <c r="AB45" s="32"/>
       <c r="AC45" s="91"/>
       <c r="AD45" s="92"/>
-    </row>
-    <row r="46" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AH45" s="194">
+        <f>AC76</f>
+        <v>135483.35</v>
+      </c>
+      <c r="AI45" s="194">
+        <f>0.03*0.5*AH45</f>
+        <v>2032.2502500000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="82" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="66"/>
       <c r="D46" s="66"/>
-      <c r="E46" s="147" t="s">
+      <c r="E46" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="155"/>
-      <c r="G46" s="155"/>
-      <c r="H46" s="155"/>
-      <c r="I46" s="155"/>
-      <c r="J46" s="155"/>
-      <c r="K46" s="155"/>
-      <c r="L46" s="155"/>
-      <c r="M46" s="155"/>
-      <c r="N46" s="155"/>
-      <c r="O46" s="155"/>
-      <c r="P46" s="155"/>
-      <c r="Q46" s="155"/>
-      <c r="R46" s="155"/>
-      <c r="S46" s="155"/>
-      <c r="T46" s="155"/>
-      <c r="U46" s="155"/>
-      <c r="V46" s="155"/>
-      <c r="W46" s="155"/>
-      <c r="X46" s="155"/>
-      <c r="Y46" s="155"/>
-      <c r="Z46" s="155"/>
-      <c r="AA46" s="155"/>
-      <c r="AB46" s="155"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="143"/>
+      <c r="K46" s="143"/>
+      <c r="L46" s="143"/>
+      <c r="M46" s="143"/>
+      <c r="N46" s="143"/>
+      <c r="O46" s="143"/>
+      <c r="P46" s="143"/>
+      <c r="Q46" s="143"/>
+      <c r="R46" s="143"/>
+      <c r="S46" s="143"/>
+      <c r="T46" s="143"/>
+      <c r="U46" s="143"/>
+      <c r="V46" s="143"/>
+      <c r="W46" s="143"/>
+      <c r="X46" s="143"/>
+      <c r="Y46" s="143"/>
+      <c r="Z46" s="143"/>
+      <c r="AA46" s="143"/>
+      <c r="AB46" s="143"/>
       <c r="AC46" s="61"/>
       <c r="AD46" s="89"/>
-    </row>
-    <row r="47" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AH46" s="194"/>
+      <c r="AJ46" s="194"/>
+    </row>
+    <row r="47" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="150" t="s">
+      <c r="B47" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
       <c r="E47" s="12">
         <v>0</v>
       </c>
@@ -6143,13 +6243,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="156" t="s">
+      <c r="B48" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="157"/>
-      <c r="D48" s="157"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="15">
         <v>0</v>
       </c>
@@ -6232,11 +6332,11 @@
     </row>
     <row r="49" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="15">
         <v>0</v>
       </c>
@@ -6319,11 +6419,11 @@
     </row>
     <row r="50" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="156" t="s">
+      <c r="B50" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
       <c r="E50" s="18">
         <v>0</v>
       </c>
@@ -6550,47 +6650,47 @@
     </row>
     <row r="53" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="152" t="s">
+      <c r="B53" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="153"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="147" t="s">
+      <c r="C53" s="178"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="155"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
-      <c r="N53" s="155"/>
-      <c r="O53" s="155"/>
-      <c r="P53" s="155"/>
-      <c r="Q53" s="155"/>
-      <c r="R53" s="155"/>
-      <c r="S53" s="155"/>
-      <c r="T53" s="155"/>
-      <c r="U53" s="155"/>
-      <c r="V53" s="155"/>
-      <c r="W53" s="155"/>
-      <c r="X53" s="155"/>
-      <c r="Y53" s="155"/>
-      <c r="Z53" s="155"/>
-      <c r="AA53" s="155"/>
-      <c r="AB53" s="155"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="143"/>
+      <c r="J53" s="143"/>
+      <c r="K53" s="143"/>
+      <c r="L53" s="143"/>
+      <c r="M53" s="143"/>
+      <c r="N53" s="143"/>
+      <c r="O53" s="143"/>
+      <c r="P53" s="143"/>
+      <c r="Q53" s="143"/>
+      <c r="R53" s="143"/>
+      <c r="S53" s="143"/>
+      <c r="T53" s="143"/>
+      <c r="U53" s="143"/>
+      <c r="V53" s="143"/>
+      <c r="W53" s="143"/>
+      <c r="X53" s="143"/>
+      <c r="Y53" s="143"/>
+      <c r="Z53" s="143"/>
+      <c r="AA53" s="143"/>
+      <c r="AB53" s="143"/>
       <c r="AC53" s="61"/>
       <c r="AD53" s="89"/>
     </row>
     <row r="54" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="150" t="s">
+      <c r="B54" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
+      <c r="C54" s="162"/>
+      <c r="D54" s="162"/>
       <c r="E54" s="12">
         <v>0</v>
       </c>
@@ -6673,11 +6773,11 @@
     </row>
     <row r="55" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="156" t="s">
+      <c r="B55" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="157"/>
-      <c r="D55" s="157"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
       <c r="E55" s="15">
         <v>0</v>
       </c>
@@ -6760,11 +6860,11 @@
     </row>
     <row r="56" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="156" t="s">
+      <c r="B56" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="15">
         <v>0</v>
       </c>
@@ -6847,11 +6947,11 @@
     </row>
     <row r="57" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="156" t="s">
+      <c r="B57" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
       <c r="E57" s="18">
         <v>0</v>
       </c>
@@ -7078,47 +7178,47 @@
     </row>
     <row r="60" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="168" t="s">
+      <c r="B60" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="169"/>
-      <c r="D60" s="169"/>
-      <c r="E60" s="147" t="s">
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="155"/>
-      <c r="J60" s="155"/>
-      <c r="K60" s="155"/>
-      <c r="L60" s="155"/>
-      <c r="M60" s="155"/>
-      <c r="N60" s="155"/>
-      <c r="O60" s="155"/>
-      <c r="P60" s="155"/>
-      <c r="Q60" s="155"/>
-      <c r="R60" s="155"/>
-      <c r="S60" s="155"/>
-      <c r="T60" s="155"/>
-      <c r="U60" s="155"/>
-      <c r="V60" s="155"/>
-      <c r="W60" s="155"/>
-      <c r="X60" s="155"/>
-      <c r="Y60" s="155"/>
-      <c r="Z60" s="155"/>
-      <c r="AA60" s="155"/>
-      <c r="AB60" s="155"/>
+      <c r="F60" s="143"/>
+      <c r="G60" s="143"/>
+      <c r="H60" s="143"/>
+      <c r="I60" s="143"/>
+      <c r="J60" s="143"/>
+      <c r="K60" s="143"/>
+      <c r="L60" s="143"/>
+      <c r="M60" s="143"/>
+      <c r="N60" s="143"/>
+      <c r="O60" s="143"/>
+      <c r="P60" s="143"/>
+      <c r="Q60" s="143"/>
+      <c r="R60" s="143"/>
+      <c r="S60" s="143"/>
+      <c r="T60" s="143"/>
+      <c r="U60" s="143"/>
+      <c r="V60" s="143"/>
+      <c r="W60" s="143"/>
+      <c r="X60" s="143"/>
+      <c r="Y60" s="143"/>
+      <c r="Z60" s="143"/>
+      <c r="AA60" s="143"/>
+      <c r="AB60" s="143"/>
       <c r="AC60" s="61"/>
       <c r="AD60" s="89"/>
     </row>
     <row r="61" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="150" t="s">
+      <c r="B61" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="151"/>
-      <c r="D61" s="151"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="162"/>
       <c r="E61" s="12">
         <v>0</v>
       </c>
@@ -7201,11 +7301,11 @@
     </row>
     <row r="62" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="156" t="s">
+      <c r="B62" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="157"/>
-      <c r="D62" s="157"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="15">
         <v>0</v>
       </c>
@@ -7288,11 +7388,11 @@
     </row>
     <row r="63" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="156" t="s">
+      <c r="B63" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="15">
         <v>0</v>
       </c>
@@ -7485,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="84"/>
       <c r="C65" s="85"/>
@@ -7517,7 +7617,7 @@
       <c r="AC65" s="35"/>
       <c r="AD65" s="92"/>
     </row>
-    <row r="66" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="101" t="s">
         <v>44</v>
@@ -7526,51 +7626,51 @@
       <c r="D66" s="102"/>
       <c r="E66" s="103">
         <f t="shared" ref="E66:AB66" si="36">E64+E58+E51+E42+E23</f>
-        <v>14800</v>
+        <v>14340</v>
       </c>
       <c r="F66" s="103">
         <f t="shared" si="36"/>
-        <v>14800</v>
+        <v>14340</v>
       </c>
       <c r="G66" s="103">
         <f t="shared" si="36"/>
-        <v>14800</v>
+        <v>14340</v>
       </c>
       <c r="H66" s="103">
         <f t="shared" si="36"/>
-        <v>14800</v>
+        <v>14340</v>
       </c>
       <c r="I66" s="103">
         <f t="shared" si="36"/>
-        <v>23600</v>
+        <v>14340</v>
       </c>
       <c r="J66" s="103">
         <f t="shared" si="36"/>
-        <v>23600</v>
+        <v>14340</v>
       </c>
       <c r="K66" s="103">
         <f t="shared" si="36"/>
-        <v>23600</v>
+        <v>14340</v>
       </c>
       <c r="L66" s="103">
         <f t="shared" si="36"/>
-        <v>23600</v>
+        <v>14340</v>
       </c>
       <c r="M66" s="103">
         <f t="shared" si="36"/>
-        <v>23600</v>
+        <v>14340</v>
       </c>
       <c r="N66" s="103">
         <f t="shared" si="36"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="O66" s="103">
         <f t="shared" si="36"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="P66" s="103">
         <f t="shared" si="36"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="103">
         <f t="shared" si="36"/>
@@ -7622,11 +7722,17 @@
       </c>
       <c r="AC66" s="104">
         <f t="shared" ref="AC66:AC67" si="37">SUM(E66:AB66)</f>
-        <v>248000</v>
-      </c>
-      <c r="AD66" s="181"/>
-    </row>
-    <row r="67" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+        <v>129060</v>
+      </c>
+      <c r="AD66" s="153"/>
+      <c r="AG66" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH66">
+        <v>487.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="105" t="s">
         <v>52</v>
@@ -7733,9 +7839,9 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AD67" s="172"/>
-    </row>
-    <row r="68" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD67" s="146"/>
+    </row>
+    <row r="68" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="105" t="s">
         <v>53</v>
@@ -7744,51 +7850,51 @@
       <c r="D68" s="106"/>
       <c r="E68" s="107">
         <f>E66+E67</f>
-        <v>14800</v>
+        <v>14340</v>
       </c>
       <c r="F68" s="107">
         <f t="shared" ref="F68:AB68" si="39">F66+F67</f>
-        <v>14800</v>
+        <v>14340</v>
       </c>
       <c r="G68" s="107">
         <f t="shared" si="39"/>
-        <v>14800</v>
+        <v>14340</v>
       </c>
       <c r="H68" s="107">
         <f t="shared" si="39"/>
-        <v>14800</v>
+        <v>14340</v>
       </c>
       <c r="I68" s="107">
         <f t="shared" si="39"/>
-        <v>23600</v>
+        <v>14340</v>
       </c>
       <c r="J68" s="107">
         <f t="shared" si="39"/>
-        <v>23600</v>
+        <v>14340</v>
       </c>
       <c r="K68" s="107">
         <f t="shared" si="39"/>
-        <v>23600</v>
+        <v>14340</v>
       </c>
       <c r="L68" s="107">
         <f t="shared" si="39"/>
-        <v>23600</v>
+        <v>14340</v>
       </c>
       <c r="M68" s="107">
         <f t="shared" si="39"/>
-        <v>23600</v>
+        <v>14340</v>
       </c>
       <c r="N68" s="107">
         <f t="shared" si="39"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="O68" s="107">
         <f t="shared" si="39"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="P68" s="107">
         <f t="shared" si="39"/>
-        <v>23600</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="107">
         <f t="shared" si="39"/>
@@ -7840,11 +7946,11 @@
       </c>
       <c r="AC68" s="139">
         <f t="shared" si="34"/>
-        <v>248000</v>
-      </c>
-      <c r="AD68" s="172"/>
-    </row>
-    <row r="69" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+        <v>129060</v>
+      </c>
+      <c r="AD68" s="146"/>
+    </row>
+    <row r="69" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="109" t="s">
         <v>58</v>
@@ -7853,104 +7959,104 @@
       <c r="D69" s="110"/>
       <c r="E69" s="111">
         <f>E68</f>
-        <v>14800</v>
+        <v>14340</v>
       </c>
       <c r="F69" s="111">
         <f>E69+F68</f>
-        <v>29600</v>
+        <v>28680</v>
       </c>
       <c r="G69" s="111">
         <f t="shared" ref="G69:AB69" si="40">F69+G68</f>
-        <v>44400</v>
+        <v>43020</v>
       </c>
       <c r="H69" s="111">
         <f t="shared" si="40"/>
-        <v>59200</v>
+        <v>57360</v>
       </c>
       <c r="I69" s="111">
         <f t="shared" si="40"/>
-        <v>82800</v>
+        <v>71700</v>
       </c>
       <c r="J69" s="111">
         <f t="shared" si="40"/>
-        <v>106400</v>
+        <v>86040</v>
       </c>
       <c r="K69" s="111">
         <f t="shared" si="40"/>
-        <v>130000</v>
+        <v>100380</v>
       </c>
       <c r="L69" s="111">
         <f t="shared" si="40"/>
-        <v>153600</v>
+        <v>114720</v>
       </c>
       <c r="M69" s="111">
         <f t="shared" si="40"/>
-        <v>177200</v>
+        <v>129060</v>
       </c>
       <c r="N69" s="111">
         <f t="shared" si="40"/>
-        <v>200800</v>
+        <v>129060</v>
       </c>
       <c r="O69" s="111">
         <f t="shared" si="40"/>
-        <v>224400</v>
+        <v>129060</v>
       </c>
       <c r="P69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="Q69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="R69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="S69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="T69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="U69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="V69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="W69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="X69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="Y69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="Z69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="AA69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="AB69" s="111">
         <f t="shared" si="40"/>
-        <v>248000</v>
+        <v>129060</v>
       </c>
       <c r="AC69" s="112"/>
-      <c r="AD69" s="182"/>
-    </row>
-    <row r="70" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AD69" s="154"/>
+    </row>
+    <row r="70" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="77"/>
       <c r="C70" s="86"/>
@@ -7982,41 +8088,45 @@
       <c r="AC70" s="91"/>
       <c r="AD70" s="92"/>
     </row>
-    <row r="71" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="87" t="s">
         <v>22</v>
       </c>
       <c r="C71" s="60"/>
       <c r="D71" s="60"/>
-      <c r="E71" s="178"/>
-      <c r="F71" s="155"/>
-      <c r="G71" s="155"/>
-      <c r="H71" s="155"/>
-      <c r="I71" s="155"/>
-      <c r="J71" s="155"/>
-      <c r="K71" s="155"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
-      <c r="N71" s="155"/>
-      <c r="O71" s="155"/>
-      <c r="P71" s="155"/>
-      <c r="Q71" s="155"/>
-      <c r="R71" s="155"/>
-      <c r="S71" s="155"/>
-      <c r="T71" s="155"/>
-      <c r="U71" s="155"/>
-      <c r="V71" s="155"/>
-      <c r="W71" s="155"/>
-      <c r="X71" s="155"/>
-      <c r="Y71" s="155"/>
-      <c r="Z71" s="155"/>
-      <c r="AA71" s="155"/>
-      <c r="AB71" s="155"/>
-      <c r="AC71" s="155"/>
+      <c r="E71" s="150"/>
+      <c r="F71" s="143"/>
+      <c r="G71" s="143"/>
+      <c r="H71" s="143"/>
+      <c r="I71" s="143"/>
+      <c r="J71" s="143"/>
+      <c r="K71" s="143"/>
+      <c r="L71" s="143"/>
+      <c r="M71" s="143"/>
+      <c r="N71" s="143"/>
+      <c r="O71" s="143"/>
+      <c r="P71" s="143"/>
+      <c r="Q71" s="143"/>
+      <c r="R71" s="143"/>
+      <c r="S71" s="143"/>
+      <c r="T71" s="143"/>
+      <c r="U71" s="143"/>
+      <c r="V71" s="143"/>
+      <c r="W71" s="143"/>
+      <c r="X71" s="143"/>
+      <c r="Y71" s="143"/>
+      <c r="Z71" s="143"/>
+      <c r="AA71" s="143"/>
+      <c r="AB71" s="143"/>
+      <c r="AC71" s="143"/>
       <c r="AD71" s="89"/>
-    </row>
-    <row r="72" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="AF71">
+        <f>1200*5</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="124" t="s">
         <v>42</v>
@@ -8025,80 +8135,86 @@
         <v>23</v>
       </c>
       <c r="D72" s="126">
-        <v>5854.8</v>
-      </c>
-      <c r="E72" s="160">
+        <f>AH66*9</f>
+        <v>4391.0999999999995</v>
+      </c>
+      <c r="E72" s="182">
         <f>D72-E73</f>
-        <v>5854.8</v>
-      </c>
-      <c r="F72" s="160"/>
-      <c r="G72" s="160"/>
-      <c r="H72" s="160"/>
-      <c r="I72" s="160"/>
-      <c r="J72" s="160"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="160"/>
-      <c r="M72" s="160"/>
-      <c r="N72" s="160"/>
-      <c r="O72" s="160"/>
-      <c r="P72" s="160"/>
-      <c r="Q72" s="160"/>
-      <c r="R72" s="160"/>
-      <c r="S72" s="160"/>
-      <c r="T72" s="160"/>
-      <c r="U72" s="160"/>
-      <c r="V72" s="160"/>
-      <c r="W72" s="160"/>
-      <c r="X72" s="160"/>
-      <c r="Y72" s="160"/>
-      <c r="Z72" s="160"/>
-      <c r="AA72" s="160"/>
-      <c r="AB72" s="160"/>
-      <c r="AC72" s="160"/>
-      <c r="AD72" s="140">
-        <v>5854.8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+        <v>4391.0999999999995</v>
+      </c>
+      <c r="F72" s="182"/>
+      <c r="G72" s="182"/>
+      <c r="H72" s="182"/>
+      <c r="I72" s="182"/>
+      <c r="J72" s="182"/>
+      <c r="K72" s="182"/>
+      <c r="L72" s="182"/>
+      <c r="M72" s="182"/>
+      <c r="N72" s="182"/>
+      <c r="O72" s="182"/>
+      <c r="P72" s="182"/>
+      <c r="Q72" s="182"/>
+      <c r="R72" s="182"/>
+      <c r="S72" s="182"/>
+      <c r="T72" s="182"/>
+      <c r="U72" s="182"/>
+      <c r="V72" s="182"/>
+      <c r="W72" s="182"/>
+      <c r="X72" s="182"/>
+      <c r="Y72" s="182"/>
+      <c r="Z72" s="182"/>
+      <c r="AA72" s="182"/>
+      <c r="AB72" s="182"/>
+      <c r="AC72" s="182"/>
+      <c r="AD72" s="171">
+        <f>E72</f>
+        <v>4391.0999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="170" t="s">
+      <c r="B73" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="171"/>
+      <c r="C73" s="166"/>
       <c r="D73" s="127">
         <v>0</v>
       </c>
-      <c r="E73" s="158">
+      <c r="E73" s="180">
         <f>D72*D73</f>
         <v>0</v>
       </c>
-      <c r="F73" s="158"/>
-      <c r="G73" s="158"/>
-      <c r="H73" s="158"/>
-      <c r="I73" s="158"/>
-      <c r="J73" s="158"/>
-      <c r="K73" s="158"/>
-      <c r="L73" s="158"/>
-      <c r="M73" s="158"/>
-      <c r="N73" s="158"/>
-      <c r="O73" s="158"/>
-      <c r="P73" s="158"/>
-      <c r="Q73" s="158"/>
-      <c r="R73" s="158"/>
-      <c r="S73" s="158"/>
-      <c r="T73" s="158"/>
-      <c r="U73" s="158"/>
-      <c r="V73" s="158"/>
-      <c r="W73" s="158"/>
-      <c r="X73" s="158"/>
-      <c r="Y73" s="158"/>
-      <c r="Z73" s="158"/>
-      <c r="AA73" s="158"/>
-      <c r="AB73" s="158"/>
-      <c r="AC73" s="158"/>
-      <c r="AD73" s="141"/>
-    </row>
-    <row r="74" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+      <c r="F73" s="180"/>
+      <c r="G73" s="180"/>
+      <c r="H73" s="180"/>
+      <c r="I73" s="180"/>
+      <c r="J73" s="180"/>
+      <c r="K73" s="180"/>
+      <c r="L73" s="180"/>
+      <c r="M73" s="180"/>
+      <c r="N73" s="180"/>
+      <c r="O73" s="180"/>
+      <c r="P73" s="180"/>
+      <c r="Q73" s="180"/>
+      <c r="R73" s="180"/>
+      <c r="S73" s="180"/>
+      <c r="T73" s="180"/>
+      <c r="U73" s="180"/>
+      <c r="V73" s="180"/>
+      <c r="W73" s="180"/>
+      <c r="X73" s="180"/>
+      <c r="Y73" s="180"/>
+      <c r="Z73" s="180"/>
+      <c r="AA73" s="180"/>
+      <c r="AB73" s="180"/>
+      <c r="AC73" s="180"/>
+      <c r="AD73" s="172"/>
+      <c r="AF73" s="195">
+        <f>AC25-101520</f>
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="54" t="s">
         <v>60</v>
@@ -8107,118 +8223,118 @@
         <v>24</v>
       </c>
       <c r="D74" s="117">
-        <v>0</v>
-      </c>
-      <c r="E74" s="159">
+        <v>2032.25</v>
+      </c>
+      <c r="E74" s="181">
         <f>D74</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="159"/>
-      <c r="G74" s="159"/>
-      <c r="H74" s="159"/>
-      <c r="I74" s="159"/>
-      <c r="J74" s="159"/>
-      <c r="K74" s="159"/>
-      <c r="L74" s="159"/>
-      <c r="M74" s="159"/>
-      <c r="N74" s="159"/>
-      <c r="O74" s="159"/>
-      <c r="P74" s="159"/>
-      <c r="Q74" s="159"/>
-      <c r="R74" s="159"/>
-      <c r="S74" s="159"/>
-      <c r="T74" s="159"/>
-      <c r="U74" s="159"/>
-      <c r="V74" s="159"/>
-      <c r="W74" s="159"/>
-      <c r="X74" s="159"/>
-      <c r="Y74" s="159"/>
-      <c r="Z74" s="159"/>
-      <c r="AA74" s="159"/>
-      <c r="AB74" s="159"/>
-      <c r="AC74" s="159"/>
-      <c r="AD74" s="172" t="s">
+        <v>2032.25</v>
+      </c>
+      <c r="F74" s="181"/>
+      <c r="G74" s="181"/>
+      <c r="H74" s="181"/>
+      <c r="I74" s="181"/>
+      <c r="J74" s="181"/>
+      <c r="K74" s="181"/>
+      <c r="L74" s="181"/>
+      <c r="M74" s="181"/>
+      <c r="N74" s="181"/>
+      <c r="O74" s="181"/>
+      <c r="P74" s="181"/>
+      <c r="Q74" s="181"/>
+      <c r="R74" s="181"/>
+      <c r="S74" s="181"/>
+      <c r="T74" s="181"/>
+      <c r="U74" s="181"/>
+      <c r="V74" s="181"/>
+      <c r="W74" s="181"/>
+      <c r="X74" s="181"/>
+      <c r="Y74" s="181"/>
+      <c r="Z74" s="181"/>
+      <c r="AA74" s="181"/>
+      <c r="AB74" s="181"/>
+      <c r="AC74" s="181"/>
+      <c r="AD74" s="146" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="129"/>
       <c r="D75" s="129"/>
-      <c r="E75" s="179"/>
-      <c r="F75" s="180"/>
-      <c r="G75" s="180"/>
-      <c r="H75" s="180"/>
-      <c r="I75" s="180"/>
-      <c r="J75" s="180"/>
-      <c r="K75" s="180"/>
-      <c r="L75" s="180"/>
-      <c r="M75" s="180"/>
-      <c r="N75" s="180"/>
-      <c r="O75" s="180"/>
-      <c r="P75" s="180"/>
-      <c r="Q75" s="180"/>
-      <c r="R75" s="180"/>
-      <c r="S75" s="180"/>
-      <c r="T75" s="180"/>
-      <c r="U75" s="180"/>
-      <c r="V75" s="180"/>
-      <c r="W75" s="180"/>
-      <c r="X75" s="180"/>
-      <c r="Y75" s="180"/>
-      <c r="Z75" s="180"/>
-      <c r="AA75" s="180"/>
-      <c r="AB75" s="180"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="152"/>
+      <c r="G75" s="152"/>
+      <c r="H75" s="152"/>
+      <c r="I75" s="152"/>
+      <c r="J75" s="152"/>
+      <c r="K75" s="152"/>
+      <c r="L75" s="152"/>
+      <c r="M75" s="152"/>
+      <c r="N75" s="152"/>
+      <c r="O75" s="152"/>
+      <c r="P75" s="152"/>
+      <c r="Q75" s="152"/>
+      <c r="R75" s="152"/>
+      <c r="S75" s="152"/>
+      <c r="T75" s="152"/>
+      <c r="U75" s="152"/>
+      <c r="V75" s="152"/>
+      <c r="W75" s="152"/>
+      <c r="X75" s="152"/>
+      <c r="Y75" s="152"/>
+      <c r="Z75" s="152"/>
+      <c r="AA75" s="152"/>
+      <c r="AB75" s="152"/>
       <c r="AC75" s="130">
         <f>D72+D74</f>
-        <v>5854.8</v>
-      </c>
-      <c r="AD75" s="172"/>
-    </row>
-    <row r="76" spans="1:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6423.3499999999995</v>
+      </c>
+      <c r="AD75" s="146"/>
+    </row>
+    <row r="76" spans="1:34" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
-      <c r="B76" s="164" t="s">
+      <c r="B76" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="165"/>
+      <c r="C76" s="157"/>
       <c r="D76" s="131"/>
-      <c r="E76" s="167"/>
-      <c r="F76" s="165"/>
-      <c r="G76" s="165"/>
-      <c r="H76" s="165"/>
-      <c r="I76" s="165"/>
-      <c r="J76" s="165"/>
-      <c r="K76" s="165"/>
-      <c r="L76" s="165"/>
-      <c r="M76" s="165"/>
-      <c r="N76" s="165"/>
-      <c r="O76" s="165"/>
-      <c r="P76" s="165"/>
-      <c r="Q76" s="165"/>
-      <c r="R76" s="165"/>
-      <c r="S76" s="165"/>
-      <c r="T76" s="165"/>
-      <c r="U76" s="165"/>
-      <c r="V76" s="165"/>
-      <c r="W76" s="165"/>
-      <c r="X76" s="165"/>
-      <c r="Y76" s="165"/>
-      <c r="Z76" s="165"/>
-      <c r="AA76" s="165"/>
-      <c r="AB76" s="165"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="157"/>
+      <c r="G76" s="157"/>
+      <c r="H76" s="157"/>
+      <c r="I76" s="157"/>
+      <c r="J76" s="157"/>
+      <c r="K76" s="157"/>
+      <c r="L76" s="157"/>
+      <c r="M76" s="157"/>
+      <c r="N76" s="157"/>
+      <c r="O76" s="157"/>
+      <c r="P76" s="157"/>
+      <c r="Q76" s="157"/>
+      <c r="R76" s="157"/>
+      <c r="S76" s="157"/>
+      <c r="T76" s="157"/>
+      <c r="U76" s="157"/>
+      <c r="V76" s="157"/>
+      <c r="W76" s="157"/>
+      <c r="X76" s="157"/>
+      <c r="Y76" s="157"/>
+      <c r="Z76" s="157"/>
+      <c r="AA76" s="157"/>
+      <c r="AB76" s="157"/>
       <c r="AC76" s="132">
         <f>AC75+AC68</f>
-        <v>253854.8</v>
+        <v>135483.35</v>
       </c>
       <c r="AD76" s="133">
         <f>AD72+AD64+AD58+AD51+AD44+AD25</f>
-        <v>253854.8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="15" x14ac:dyDescent="0.3">
+        <v>133451.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -8249,7 +8365,7 @@
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
     </row>
-    <row r="78" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -8280,12 +8396,12 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="166" t="s">
+      <c r="B79" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="143"/>
+      <c r="C79" s="159"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -8312,7 +8428,7 @@
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
-    <row r="80" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="4" t="s">
         <v>28</v>
@@ -8448,10 +8564,10 @@
     </row>
     <row r="84" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="142" t="s">
+      <c r="B84" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="143"/>
+      <c r="C84" s="159"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8480,10 +8596,10 @@
     </row>
     <row r="85" spans="1:29" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="163" t="s">
+      <c r="B85" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="143"/>
+      <c r="C85" s="159"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8543,10 +8659,10 @@
     </row>
     <row r="87" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="162" t="s">
+      <c r="B87" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="143"/>
+      <c r="C87" s="159"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8575,10 +8691,10 @@
     </row>
     <row r="88" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="161" t="s">
+      <c r="B88" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="143"/>
+      <c r="C88" s="159"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -8607,8 +8723,8 @@
     </row>
     <row r="89" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="143"/>
-      <c r="C89" s="143"/>
+      <c r="B89" s="159"/>
+      <c r="C89" s="159"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -8668,10 +8784,10 @@
     </row>
     <row r="91" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="142" t="s">
+      <c r="B91" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="143"/>
+      <c r="C91" s="159"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
@@ -8700,10 +8816,10 @@
     </row>
     <row r="92" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="161" t="s">
+      <c r="B92" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="C92" s="143"/>
+      <c r="C92" s="159"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -8732,8 +8848,8 @@
     </row>
     <row r="93" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="143"/>
-      <c r="C93" s="143"/>
+      <c r="B93" s="159"/>
+      <c r="C93" s="159"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -37964,6 +38080,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="AD72:AD73"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="E2:AC2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E6:AB6"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E5:AB5"/>
+    <mergeCell ref="E53:AB53"/>
+    <mergeCell ref="E27:AB27"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E73:AC73"/>
+    <mergeCell ref="E74:AC74"/>
+    <mergeCell ref="E72:AC72"/>
+    <mergeCell ref="B92:C93"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B88:C89"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E60:AB60"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E76:AB76"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="AD23:AD24"/>
     <mergeCell ref="E46:AB46"/>
     <mergeCell ref="B50:D50"/>
@@ -37980,49 +38139,6 @@
     <mergeCell ref="E71:AC71"/>
     <mergeCell ref="E75:AB75"/>
     <mergeCell ref="AD66:AD69"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E60:AB60"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E76:AB76"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B92:C93"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B88:C89"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="AD72:AD73"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="E2:AC2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E6:AB6"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E5:AB5"/>
-    <mergeCell ref="E53:AB53"/>
-    <mergeCell ref="E27:AB27"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E73:AC73"/>
-    <mergeCell ref="E74:AC74"/>
-    <mergeCell ref="E72:AC72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.56333333333333335" bottom="0.44958333333333333" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
@@ -38062,44 +38178,44 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="189"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="189"/>
+      <c r="U1" s="189"/>
+      <c r="V1" s="189"/>
+      <c r="W1" s="189"/>
+      <c r="X1" s="189"/>
+      <c r="Y1" s="189"/>
+      <c r="Z1" s="189"/>
+      <c r="AA1" s="189"/>
+      <c r="AB1" s="189"/>
+      <c r="AC1" s="189"/>
     </row>
     <row r="2" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="148"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="176"/>
       <c r="E2" s="72">
         <v>1</v>
       </c>
@@ -38177,9 +38293,9 @@
     </row>
     <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
       <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
@@ -38252,10 +38368,10 @@
       <c r="AB3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="149" t="s">
+      <c r="AC3" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="172" t="s">
+      <c r="AD3" s="146" t="s">
         <v>45</v>
       </c>
     </row>
@@ -38266,32 +38382,32 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="172"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="159"/>
+      <c r="T4" s="159"/>
+      <c r="U4" s="159"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="146"/>
     </row>
     <row r="5" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -38304,32 +38420,32 @@
       <c r="D5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="147"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="147"/>
-      <c r="S5" s="147"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="147"/>
-      <c r="V5" s="147"/>
-      <c r="W5" s="147"/>
-      <c r="X5" s="147"/>
-      <c r="Y5" s="147"/>
-      <c r="Z5" s="147"/>
-      <c r="AA5" s="147"/>
-      <c r="AB5" s="147"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
       <c r="AC5" s="61"/>
       <c r="AD5" s="89"/>
     </row>
@@ -38421,7 +38537,7 @@
         <f>SUM(E6:AB6)*D6</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="173">
+      <c r="AD6" s="147">
         <v>0</v>
       </c>
     </row>
@@ -38537,7 +38653,7 @@
         <f t="shared" ref="AC7:AC23" si="1">SUM(E7:AB7)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="174"/>
+      <c r="AD7" s="148"/>
     </row>
     <row r="8" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -38627,7 +38743,7 @@
         <f>SUM(E8:AB8)*D8</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="173">
+      <c r="AD8" s="147">
         <v>0</v>
       </c>
     </row>
@@ -38743,7 +38859,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="174"/>
+      <c r="AD9" s="148"/>
     </row>
     <row r="10" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -38833,7 +38949,7 @@
         <f>SUM(E10:AB10)*D10</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="173">
+      <c r="AD10" s="147">
         <v>0</v>
       </c>
     </row>
@@ -38949,7 +39065,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="174"/>
+      <c r="AD11" s="148"/>
     </row>
     <row r="12" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -39039,7 +39155,7 @@
         <f>SUM(E12:AB12)*D12</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="173">
+      <c r="AD12" s="147">
         <v>0</v>
       </c>
     </row>
@@ -39155,7 +39271,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="174"/>
+      <c r="AD13" s="148"/>
     </row>
     <row r="14" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -39245,7 +39361,7 @@
         <f>SUM(E14:AB14)*D14</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="173">
+      <c r="AD14" s="147">
         <v>0</v>
       </c>
     </row>
@@ -39361,7 +39477,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="174"/>
+      <c r="AD15" s="148"/>
     </row>
     <row r="16" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -39451,7 +39567,7 @@
         <f>SUM(E16:AB16)*D16</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="173">
+      <c r="AD16" s="147">
         <v>0</v>
       </c>
     </row>
@@ -39567,7 +39683,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="174"/>
+      <c r="AD17" s="148"/>
     </row>
     <row r="18" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -39657,7 +39773,7 @@
         <f>SUM(E18:AB18)*D18</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="173">
+      <c r="AD18" s="147">
         <v>0</v>
       </c>
     </row>
@@ -39773,7 +39889,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="174"/>
+      <c r="AD19" s="148"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -39863,7 +39979,7 @@
         <f>SUM(E20:AB20)*D20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="173">
+      <c r="AD20" s="147">
         <v>0</v>
       </c>
     </row>
@@ -39979,7 +40095,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="174"/>
+      <c r="AD21" s="148"/>
     </row>
     <row r="22" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -40088,7 +40204,7 @@
         <f t="shared" ref="AC22" si="10">SUM(E22:AB22)</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="175" t="s">
+      <c r="AD22" s="140" t="s">
         <v>45</v>
       </c>
     </row>
@@ -40199,7 +40315,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="176"/>
+      <c r="AD23" s="141"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -40356,32 +40472,32 @@
       <c r="D26" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="147" t="s">
+      <c r="E26" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="143"/>
+      <c r="X26" s="143"/>
+      <c r="Y26" s="143"/>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="143"/>
+      <c r="AB26" s="143"/>
       <c r="AC26" s="61"/>
       <c r="AD26" s="89"/>
     </row>
@@ -40473,7 +40589,7 @@
         <f>SUM(E27:AB27)*D27</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="173">
+      <c r="AD27" s="147">
         <v>0</v>
       </c>
     </row>
@@ -40589,7 +40705,7 @@
         <f t="shared" ref="AC28" si="14">SUM(E28:AB28)</f>
         <v>0</v>
       </c>
-      <c r="AD28" s="174"/>
+      <c r="AD28" s="148"/>
     </row>
     <row r="29" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -40679,7 +40795,7 @@
         <f>SUM(E29:AB29)*D29</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="173">
+      <c r="AD29" s="147">
         <v>0</v>
       </c>
     </row>
@@ -40795,7 +40911,7 @@
         <f t="shared" ref="AC30" si="16">SUM(E30:AB30)</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="174"/>
+      <c r="AD30" s="148"/>
     </row>
     <row r="31" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -40885,7 +41001,7 @@
         <f>SUM(E31:AB31)*D31</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="173">
+      <c r="AD31" s="147">
         <v>0</v>
       </c>
     </row>
@@ -41001,7 +41117,7 @@
         <f t="shared" ref="AC32" si="18">SUM(E32:AB32)</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="174"/>
+      <c r="AD32" s="148"/>
     </row>
     <row r="33" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -41091,7 +41207,7 @@
         <f>SUM(E33:AB33)*D33</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="177">
+      <c r="AD33" s="149">
         <v>0</v>
       </c>
     </row>
@@ -41207,7 +41323,7 @@
         <f t="shared" ref="AC34" si="20">SUM(E34:AB34)</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="174"/>
+      <c r="AD34" s="148"/>
     </row>
     <row r="35" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -41297,7 +41413,7 @@
         <f>SUM(E35:AB35)*D35</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="173">
+      <c r="AD35" s="147">
         <v>0</v>
       </c>
     </row>
@@ -41413,7 +41529,7 @@
         <f t="shared" ref="AC36" si="22">SUM(E36:AB36)</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="174"/>
+      <c r="AD36" s="148"/>
     </row>
     <row r="37" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
@@ -41503,7 +41619,7 @@
         <f>SUM(E37:AB37)*D37</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="173">
+      <c r="AD37" s="147">
         <v>0</v>
       </c>
     </row>
@@ -41619,7 +41735,7 @@
         <f t="shared" ref="AC38" si="24">SUM(E38:AB38)</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="174"/>
+      <c r="AD38" s="148"/>
     </row>
     <row r="39" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -41709,7 +41825,7 @@
         <f>SUM(E39:AB39)*D39</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="173">
+      <c r="AD39" s="147">
         <v>0</v>
       </c>
     </row>
@@ -41825,7 +41941,7 @@
         <f t="shared" ref="AC40:AC42" si="26">SUM(E40:AB40)</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="174"/>
+      <c r="AD40" s="148"/>
     </row>
     <row r="41" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
@@ -41934,7 +42050,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD41" s="172" t="s">
+      <c r="AD41" s="146" t="s">
         <v>45</v>
       </c>
     </row>
@@ -42045,7 +42161,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="172"/>
+      <c r="AD42" s="146"/>
     </row>
     <row r="43" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
@@ -42198,42 +42314,42 @@
       </c>
       <c r="C45" s="66"/>
       <c r="D45" s="66"/>
-      <c r="E45" s="147" t="s">
+      <c r="E45" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="155"/>
-      <c r="G45" s="155"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="155"/>
-      <c r="L45" s="155"/>
-      <c r="M45" s="155"/>
-      <c r="N45" s="155"/>
-      <c r="O45" s="155"/>
-      <c r="P45" s="155"/>
-      <c r="Q45" s="155"/>
-      <c r="R45" s="155"/>
-      <c r="S45" s="155"/>
-      <c r="T45" s="155"/>
-      <c r="U45" s="155"/>
-      <c r="V45" s="155"/>
-      <c r="W45" s="155"/>
-      <c r="X45" s="155"/>
-      <c r="Y45" s="155"/>
-      <c r="Z45" s="155"/>
-      <c r="AA45" s="155"/>
-      <c r="AB45" s="155"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="143"/>
+      <c r="L45" s="143"/>
+      <c r="M45" s="143"/>
+      <c r="N45" s="143"/>
+      <c r="O45" s="143"/>
+      <c r="P45" s="143"/>
+      <c r="Q45" s="143"/>
+      <c r="R45" s="143"/>
+      <c r="S45" s="143"/>
+      <c r="T45" s="143"/>
+      <c r="U45" s="143"/>
+      <c r="V45" s="143"/>
+      <c r="W45" s="143"/>
+      <c r="X45" s="143"/>
+      <c r="Y45" s="143"/>
+      <c r="Z45" s="143"/>
+      <c r="AA45" s="143"/>
+      <c r="AB45" s="143"/>
       <c r="AC45" s="61"/>
       <c r="AD45" s="89"/>
     </row>
     <row r="46" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="150" t="s">
+      <c r="B46" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
+      <c r="C46" s="162"/>
+      <c r="D46" s="162"/>
       <c r="E46" s="12">
         <v>0</v>
       </c>
@@ -42316,11 +42432,11 @@
     </row>
     <row r="47" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="156" t="s">
+      <c r="B47" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="15">
         <v>0</v>
       </c>
@@ -42403,11 +42519,11 @@
     </row>
     <row r="48" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="156" t="s">
+      <c r="B48" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="157"/>
-      <c r="D48" s="157"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="15">
         <v>0</v>
       </c>
@@ -42490,11 +42606,11 @@
     </row>
     <row r="49" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="18">
         <v>0</v>
       </c>
@@ -42721,47 +42837,47 @@
     </row>
     <row r="52" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="152" t="s">
+      <c r="B52" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="147" t="s">
+      <c r="C52" s="178"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="155"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="155"/>
-      <c r="S52" s="155"/>
-      <c r="T52" s="155"/>
-      <c r="U52" s="155"/>
-      <c r="V52" s="155"/>
-      <c r="W52" s="155"/>
-      <c r="X52" s="155"/>
-      <c r="Y52" s="155"/>
-      <c r="Z52" s="155"/>
-      <c r="AA52" s="155"/>
-      <c r="AB52" s="155"/>
+      <c r="F52" s="143"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="143"/>
+      <c r="K52" s="143"/>
+      <c r="L52" s="143"/>
+      <c r="M52" s="143"/>
+      <c r="N52" s="143"/>
+      <c r="O52" s="143"/>
+      <c r="P52" s="143"/>
+      <c r="Q52" s="143"/>
+      <c r="R52" s="143"/>
+      <c r="S52" s="143"/>
+      <c r="T52" s="143"/>
+      <c r="U52" s="143"/>
+      <c r="V52" s="143"/>
+      <c r="W52" s="143"/>
+      <c r="X52" s="143"/>
+      <c r="Y52" s="143"/>
+      <c r="Z52" s="143"/>
+      <c r="AA52" s="143"/>
+      <c r="AB52" s="143"/>
       <c r="AC52" s="61"/>
       <c r="AD52" s="89"/>
     </row>
     <row r="53" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="150" t="s">
+      <c r="B53" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="151"/>
-      <c r="D53" s="151"/>
+      <c r="C53" s="162"/>
+      <c r="D53" s="162"/>
       <c r="E53" s="12">
         <v>0</v>
       </c>
@@ -42844,11 +42960,11 @@
     </row>
     <row r="54" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="156" t="s">
+      <c r="B54" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
       <c r="E54" s="15">
         <v>0</v>
       </c>
@@ -42931,11 +43047,11 @@
     </row>
     <row r="55" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="156" t="s">
+      <c r="B55" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="157"/>
-      <c r="D55" s="157"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
       <c r="E55" s="15">
         <v>0</v>
       </c>
@@ -43018,11 +43134,11 @@
     </row>
     <row r="56" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="156" t="s">
+      <c r="B56" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="18">
         <v>0</v>
       </c>
@@ -43249,47 +43365,47 @@
     </row>
     <row r="59" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="168" t="s">
+      <c r="B59" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="169"/>
-      <c r="D59" s="169"/>
-      <c r="E59" s="147" t="s">
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
-      <c r="I59" s="155"/>
-      <c r="J59" s="155"/>
-      <c r="K59" s="155"/>
-      <c r="L59" s="155"/>
-      <c r="M59" s="155"/>
-      <c r="N59" s="155"/>
-      <c r="O59" s="155"/>
-      <c r="P59" s="155"/>
-      <c r="Q59" s="155"/>
-      <c r="R59" s="155"/>
-      <c r="S59" s="155"/>
-      <c r="T59" s="155"/>
-      <c r="U59" s="155"/>
-      <c r="V59" s="155"/>
-      <c r="W59" s="155"/>
-      <c r="X59" s="155"/>
-      <c r="Y59" s="155"/>
-      <c r="Z59" s="155"/>
-      <c r="AA59" s="155"/>
-      <c r="AB59" s="155"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="143"/>
+      <c r="J59" s="143"/>
+      <c r="K59" s="143"/>
+      <c r="L59" s="143"/>
+      <c r="M59" s="143"/>
+      <c r="N59" s="143"/>
+      <c r="O59" s="143"/>
+      <c r="P59" s="143"/>
+      <c r="Q59" s="143"/>
+      <c r="R59" s="143"/>
+      <c r="S59" s="143"/>
+      <c r="T59" s="143"/>
+      <c r="U59" s="143"/>
+      <c r="V59" s="143"/>
+      <c r="W59" s="143"/>
+      <c r="X59" s="143"/>
+      <c r="Y59" s="143"/>
+      <c r="Z59" s="143"/>
+      <c r="AA59" s="143"/>
+      <c r="AB59" s="143"/>
       <c r="AC59" s="61"/>
       <c r="AD59" s="89"/>
     </row>
     <row r="60" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="150" t="s">
+      <c r="B60" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="151"/>
-      <c r="D60" s="151"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="162"/>
       <c r="E60" s="12">
         <v>0</v>
       </c>
@@ -43372,11 +43488,11 @@
     </row>
     <row r="61" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="156" t="s">
+      <c r="B61" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
       <c r="E61" s="15">
         <v>0</v>
       </c>
@@ -43459,11 +43575,11 @@
     </row>
     <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="156" t="s">
+      <c r="B62" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="157"/>
-      <c r="D62" s="157"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="15">
         <v>0</v>
       </c>
@@ -43795,7 +43911,7 @@
         <f t="shared" ref="AC65:AC66" si="37">SUM(E65:AB65)</f>
         <v>0</v>
       </c>
-      <c r="AD65" s="181"/>
+      <c r="AD65" s="153"/>
     </row>
     <row r="66" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
@@ -43904,7 +44020,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AD66" s="172"/>
+      <c r="AD66" s="146"/>
     </row>
     <row r="67" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
@@ -44013,7 +44129,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AD67" s="172"/>
+      <c r="AD67" s="146"/>
     </row>
     <row r="68" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
@@ -44119,7 +44235,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="112"/>
-      <c r="AD68" s="182"/>
+      <c r="AD68" s="154"/>
     </row>
     <row r="69" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
@@ -44160,31 +44276,31 @@
       </c>
       <c r="C70" s="60"/>
       <c r="D70" s="60"/>
-      <c r="E70" s="178"/>
-      <c r="F70" s="155"/>
-      <c r="G70" s="155"/>
-      <c r="H70" s="155"/>
-      <c r="I70" s="155"/>
-      <c r="J70" s="155"/>
-      <c r="K70" s="155"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
-      <c r="N70" s="155"/>
-      <c r="O70" s="155"/>
-      <c r="P70" s="155"/>
-      <c r="Q70" s="155"/>
-      <c r="R70" s="155"/>
-      <c r="S70" s="155"/>
-      <c r="T70" s="155"/>
-      <c r="U70" s="155"/>
-      <c r="V70" s="155"/>
-      <c r="W70" s="155"/>
-      <c r="X70" s="155"/>
-      <c r="Y70" s="155"/>
-      <c r="Z70" s="155"/>
-      <c r="AA70" s="155"/>
-      <c r="AB70" s="155"/>
-      <c r="AC70" s="155"/>
+      <c r="E70" s="150"/>
+      <c r="F70" s="143"/>
+      <c r="G70" s="143"/>
+      <c r="H70" s="143"/>
+      <c r="I70" s="143"/>
+      <c r="J70" s="143"/>
+      <c r="K70" s="143"/>
+      <c r="L70" s="143"/>
+      <c r="M70" s="143"/>
+      <c r="N70" s="143"/>
+      <c r="O70" s="143"/>
+      <c r="P70" s="143"/>
+      <c r="Q70" s="143"/>
+      <c r="R70" s="143"/>
+      <c r="S70" s="143"/>
+      <c r="T70" s="143"/>
+      <c r="U70" s="143"/>
+      <c r="V70" s="143"/>
+      <c r="W70" s="143"/>
+      <c r="X70" s="143"/>
+      <c r="Y70" s="143"/>
+      <c r="Z70" s="143"/>
+      <c r="AA70" s="143"/>
+      <c r="AB70" s="143"/>
+      <c r="AC70" s="143"/>
       <c r="AD70" s="89"/>
     </row>
     <row r="71" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -44198,76 +44314,76 @@
       <c r="D71" s="25">
         <v>0</v>
       </c>
-      <c r="E71" s="190">
+      <c r="E71" s="186">
         <f>D71-E72</f>
         <v>0</v>
       </c>
-      <c r="F71" s="190"/>
-      <c r="G71" s="190"/>
-      <c r="H71" s="190"/>
-      <c r="I71" s="190"/>
-      <c r="J71" s="190"/>
-      <c r="K71" s="190"/>
-      <c r="L71" s="190"/>
-      <c r="M71" s="190"/>
-      <c r="N71" s="190"/>
-      <c r="O71" s="190"/>
-      <c r="P71" s="190"/>
-      <c r="Q71" s="190"/>
-      <c r="R71" s="190"/>
-      <c r="S71" s="190"/>
-      <c r="T71" s="190"/>
-      <c r="U71" s="190"/>
-      <c r="V71" s="190"/>
-      <c r="W71" s="190"/>
-      <c r="X71" s="190"/>
-      <c r="Y71" s="190"/>
-      <c r="Z71" s="190"/>
-      <c r="AA71" s="190"/>
-      <c r="AB71" s="190"/>
-      <c r="AC71" s="190"/>
-      <c r="AD71" s="173">
+      <c r="F71" s="186"/>
+      <c r="G71" s="186"/>
+      <c r="H71" s="186"/>
+      <c r="I71" s="186"/>
+      <c r="J71" s="186"/>
+      <c r="K71" s="186"/>
+      <c r="L71" s="186"/>
+      <c r="M71" s="186"/>
+      <c r="N71" s="186"/>
+      <c r="O71" s="186"/>
+      <c r="P71" s="186"/>
+      <c r="Q71" s="186"/>
+      <c r="R71" s="186"/>
+      <c r="S71" s="186"/>
+      <c r="T71" s="186"/>
+      <c r="U71" s="186"/>
+      <c r="V71" s="186"/>
+      <c r="W71" s="186"/>
+      <c r="X71" s="186"/>
+      <c r="Y71" s="186"/>
+      <c r="Z71" s="186"/>
+      <c r="AA71" s="186"/>
+      <c r="AB71" s="186"/>
+      <c r="AC71" s="186"/>
+      <c r="AD71" s="147">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="191" t="s">
+      <c r="B72" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="192"/>
+      <c r="C72" s="188"/>
       <c r="D72" s="121">
         <v>0</v>
       </c>
-      <c r="E72" s="190">
+      <c r="E72" s="186">
         <f>D71*D72</f>
         <v>0</v>
       </c>
-      <c r="F72" s="190"/>
-      <c r="G72" s="190"/>
-      <c r="H72" s="190"/>
-      <c r="I72" s="190"/>
-      <c r="J72" s="190"/>
-      <c r="K72" s="190"/>
-      <c r="L72" s="190"/>
-      <c r="M72" s="190"/>
-      <c r="N72" s="190"/>
-      <c r="O72" s="190"/>
-      <c r="P72" s="190"/>
-      <c r="Q72" s="190"/>
-      <c r="R72" s="190"/>
-      <c r="S72" s="190"/>
-      <c r="T72" s="190"/>
-      <c r="U72" s="190"/>
-      <c r="V72" s="190"/>
-      <c r="W72" s="190"/>
-      <c r="X72" s="190"/>
-      <c r="Y72" s="190"/>
-      <c r="Z72" s="190"/>
-      <c r="AA72" s="190"/>
-      <c r="AB72" s="190"/>
-      <c r="AC72" s="190"/>
-      <c r="AD72" s="174"/>
+      <c r="F72" s="186"/>
+      <c r="G72" s="186"/>
+      <c r="H72" s="186"/>
+      <c r="I72" s="186"/>
+      <c r="J72" s="186"/>
+      <c r="K72" s="186"/>
+      <c r="L72" s="186"/>
+      <c r="M72" s="186"/>
+      <c r="N72" s="186"/>
+      <c r="O72" s="186"/>
+      <c r="P72" s="186"/>
+      <c r="Q72" s="186"/>
+      <c r="R72" s="186"/>
+      <c r="S72" s="186"/>
+      <c r="T72" s="186"/>
+      <c r="U72" s="186"/>
+      <c r="V72" s="186"/>
+      <c r="W72" s="186"/>
+      <c r="X72" s="186"/>
+      <c r="Y72" s="186"/>
+      <c r="Z72" s="186"/>
+      <c r="AA72" s="186"/>
+      <c r="AB72" s="186"/>
+      <c r="AC72" s="186"/>
+      <c r="AD72" s="148"/>
     </row>
     <row r="73" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
@@ -44280,35 +44396,35 @@
       <c r="D73" s="117">
         <v>0</v>
       </c>
-      <c r="E73" s="189">
+      <c r="E73" s="185">
         <f>D73</f>
         <v>0</v>
       </c>
-      <c r="F73" s="189"/>
-      <c r="G73" s="189"/>
-      <c r="H73" s="189"/>
-      <c r="I73" s="189"/>
-      <c r="J73" s="189"/>
-      <c r="K73" s="189"/>
-      <c r="L73" s="189"/>
-      <c r="M73" s="189"/>
-      <c r="N73" s="189"/>
-      <c r="O73" s="189"/>
-      <c r="P73" s="189"/>
-      <c r="Q73" s="189"/>
-      <c r="R73" s="189"/>
-      <c r="S73" s="189"/>
-      <c r="T73" s="189"/>
-      <c r="U73" s="189"/>
-      <c r="V73" s="189"/>
-      <c r="W73" s="189"/>
-      <c r="X73" s="189"/>
-      <c r="Y73" s="189"/>
-      <c r="Z73" s="189"/>
-      <c r="AA73" s="189"/>
-      <c r="AB73" s="189"/>
-      <c r="AC73" s="189"/>
-      <c r="AD73" s="172" t="s">
+      <c r="F73" s="185"/>
+      <c r="G73" s="185"/>
+      <c r="H73" s="185"/>
+      <c r="I73" s="185"/>
+      <c r="J73" s="185"/>
+      <c r="K73" s="185"/>
+      <c r="L73" s="185"/>
+      <c r="M73" s="185"/>
+      <c r="N73" s="185"/>
+      <c r="O73" s="185"/>
+      <c r="P73" s="185"/>
+      <c r="Q73" s="185"/>
+      <c r="R73" s="185"/>
+      <c r="S73" s="185"/>
+      <c r="T73" s="185"/>
+      <c r="U73" s="185"/>
+      <c r="V73" s="185"/>
+      <c r="W73" s="185"/>
+      <c r="X73" s="185"/>
+      <c r="Y73" s="185"/>
+      <c r="Z73" s="185"/>
+      <c r="AA73" s="185"/>
+      <c r="AB73" s="185"/>
+      <c r="AC73" s="185"/>
+      <c r="AD73" s="146" t="s">
         <v>54</v>
       </c>
     </row>
@@ -44319,67 +44435,67 @@
       </c>
       <c r="C74" s="119"/>
       <c r="D74" s="119"/>
-      <c r="E74" s="187"/>
-      <c r="F74" s="188"/>
-      <c r="G74" s="188"/>
-      <c r="H74" s="188"/>
-      <c r="I74" s="188"/>
-      <c r="J74" s="188"/>
-      <c r="K74" s="188"/>
-      <c r="L74" s="188"/>
-      <c r="M74" s="188"/>
-      <c r="N74" s="188"/>
-      <c r="O74" s="188"/>
-      <c r="P74" s="188"/>
-      <c r="Q74" s="188"/>
-      <c r="R74" s="188"/>
-      <c r="S74" s="188"/>
-      <c r="T74" s="188"/>
-      <c r="U74" s="188"/>
-      <c r="V74" s="188"/>
-      <c r="W74" s="188"/>
-      <c r="X74" s="188"/>
-      <c r="Y74" s="188"/>
-      <c r="Z74" s="188"/>
-      <c r="AA74" s="188"/>
-      <c r="AB74" s="188"/>
+      <c r="E74" s="183"/>
+      <c r="F74" s="184"/>
+      <c r="G74" s="184"/>
+      <c r="H74" s="184"/>
+      <c r="I74" s="184"/>
+      <c r="J74" s="184"/>
+      <c r="K74" s="184"/>
+      <c r="L74" s="184"/>
+      <c r="M74" s="184"/>
+      <c r="N74" s="184"/>
+      <c r="O74" s="184"/>
+      <c r="P74" s="184"/>
+      <c r="Q74" s="184"/>
+      <c r="R74" s="184"/>
+      <c r="S74" s="184"/>
+      <c r="T74" s="184"/>
+      <c r="U74" s="184"/>
+      <c r="V74" s="184"/>
+      <c r="W74" s="184"/>
+      <c r="X74" s="184"/>
+      <c r="Y74" s="184"/>
+      <c r="Z74" s="184"/>
+      <c r="AA74" s="184"/>
+      <c r="AB74" s="184"/>
       <c r="AC74" s="120">
         <f>D71+D73</f>
         <v>0</v>
       </c>
-      <c r="AD74" s="182"/>
+      <c r="AD74" s="154"/>
     </row>
     <row r="75" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
-      <c r="B75" s="184" t="s">
+      <c r="B75" s="190" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="185"/>
+      <c r="C75" s="191"/>
       <c r="D75" s="88"/>
-      <c r="E75" s="186"/>
-      <c r="F75" s="185"/>
-      <c r="G75" s="185"/>
-      <c r="H75" s="185"/>
-      <c r="I75" s="185"/>
-      <c r="J75" s="185"/>
-      <c r="K75" s="185"/>
-      <c r="L75" s="185"/>
-      <c r="M75" s="185"/>
-      <c r="N75" s="185"/>
-      <c r="O75" s="185"/>
-      <c r="P75" s="185"/>
-      <c r="Q75" s="185"/>
-      <c r="R75" s="185"/>
-      <c r="S75" s="185"/>
-      <c r="T75" s="185"/>
-      <c r="U75" s="185"/>
-      <c r="V75" s="185"/>
-      <c r="W75" s="185"/>
-      <c r="X75" s="185"/>
-      <c r="Y75" s="185"/>
-      <c r="Z75" s="185"/>
-      <c r="AA75" s="185"/>
-      <c r="AB75" s="185"/>
+      <c r="E75" s="192"/>
+      <c r="F75" s="191"/>
+      <c r="G75" s="191"/>
+      <c r="H75" s="191"/>
+      <c r="I75" s="191"/>
+      <c r="J75" s="191"/>
+      <c r="K75" s="191"/>
+      <c r="L75" s="191"/>
+      <c r="M75" s="191"/>
+      <c r="N75" s="191"/>
+      <c r="O75" s="191"/>
+      <c r="P75" s="191"/>
+      <c r="Q75" s="191"/>
+      <c r="R75" s="191"/>
+      <c r="S75" s="191"/>
+      <c r="T75" s="191"/>
+      <c r="U75" s="191"/>
+      <c r="V75" s="191"/>
+      <c r="W75" s="191"/>
+      <c r="X75" s="191"/>
+      <c r="Y75" s="191"/>
+      <c r="Z75" s="191"/>
+      <c r="AA75" s="191"/>
+      <c r="AB75" s="191"/>
       <c r="AC75" s="94">
         <f>AC74+AC67</f>
         <v>0</v>
@@ -44453,10 +44569,10 @@
     </row>
     <row r="78" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="166" t="s">
+      <c r="B78" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="143"/>
+      <c r="C78" s="159"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -44586,10 +44702,10 @@
     </row>
     <row r="82" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="142" t="s">
+      <c r="B82" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="143"/>
+      <c r="C82" s="159"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -44618,10 +44734,10 @@
     </row>
     <row r="83" spans="1:29" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="163" t="s">
+      <c r="B83" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="143"/>
+      <c r="C83" s="159"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -44681,10 +44797,10 @@
     </row>
     <row r="85" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="162" t="s">
+      <c r="B85" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="143"/>
+      <c r="C85" s="159"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -44713,10 +44829,10 @@
     </row>
     <row r="86" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="161" t="s">
+      <c r="B86" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="143"/>
+      <c r="C86" s="159"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -44745,8 +44861,8 @@
     </row>
     <row r="87" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="143"/>
+      <c r="B87" s="159"/>
+      <c r="C87" s="159"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -44806,10 +44922,10 @@
     </row>
     <row r="89" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="142" t="s">
+      <c r="B89" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="143"/>
+      <c r="C89" s="159"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
@@ -44838,10 +44954,10 @@
     </row>
     <row r="90" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="161" t="s">
+      <c r="B90" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="143"/>
+      <c r="C90" s="159"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -44870,8 +44986,8 @@
     </row>
     <row r="91" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="143"/>
-      <c r="C91" s="143"/>
+      <c r="B91" s="159"/>
+      <c r="C91" s="159"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -74102,49 +74218,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="E4:AB4"/>
-    <mergeCell ref="E26:AB26"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="E5:AB5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="AD39:AD40"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="AD41:AD42"/>
-    <mergeCell ref="E45:AB45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="AD73:AD74"/>
-    <mergeCell ref="E74:AB74"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:AB59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E73:AC73"/>
-    <mergeCell ref="AD65:AD68"/>
-    <mergeCell ref="E71:AC71"/>
-    <mergeCell ref="AD71:AD72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:AC72"/>
     <mergeCell ref="B86:C87"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B90:C91"/>
@@ -74161,6 +74234,49 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
+    <mergeCell ref="AD73:AD74"/>
+    <mergeCell ref="E74:AB74"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:AB59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E73:AC73"/>
+    <mergeCell ref="AD65:AD68"/>
+    <mergeCell ref="E71:AC71"/>
+    <mergeCell ref="AD71:AD72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:AC72"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="AD41:AD42"/>
+    <mergeCell ref="E45:AB45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="AD39:AD40"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="E26:AB26"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="E5:AB5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="E4:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>

--- a/Produktionsförderung/Anlage_9_Vorlage_Kostenplan_GBW.xlsx
+++ b/Produktionsförderung/Anlage_9_Vorlage_Kostenplan_GBW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ScrewDriversMFG\Produktionsförderung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD50315-CA11-42F0-973C-F36C1253CB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49053A53-3DEA-4438-9146-DBC653C2CF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="3330" windowWidth="39675" windowHeight="26130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten_Planung" sheetId="1" r:id="rId1"/>
@@ -1499,20 +1499,89 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="13" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="13" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="17" fontId="17" fillId="15" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1523,6 +1592,12 @@
     </xf>
     <xf numFmtId="167" fontId="13" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="13" fillId="2" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1536,76 +1611,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="11" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="7" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="16" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1620,17 +1631,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="17" fillId="15" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:AJ1035"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1920,12 +1920,14 @@
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="25" width="9" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="9" hidden="1" customWidth="1"/>
     <col min="26" max="28" width="7.85546875" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="13.140625" customWidth="1"/>
     <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.42578125" customWidth="1"/>
+    <col min="32" max="32" width="0" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1936,39 +1938,39 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="146"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="174"/>
-      <c r="C3" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="176"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="151"/>
       <c r="E3" s="72">
         <v>1</v>
       </c>
@@ -2046,43 +2048,43 @@
     </row>
     <row r="4" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="175"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="193">
+      <c r="B4" s="149"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="140">
         <v>45689</v>
       </c>
-      <c r="F4" s="193">
+      <c r="F4" s="140">
         <v>45717</v>
       </c>
-      <c r="G4" s="193">
+      <c r="G4" s="140">
         <v>45748</v>
       </c>
-      <c r="H4" s="193">
+      <c r="H4" s="140">
         <v>45778</v>
       </c>
-      <c r="I4" s="193">
+      <c r="I4" s="140">
         <v>45809</v>
       </c>
-      <c r="J4" s="193">
+      <c r="J4" s="140">
         <v>45839</v>
       </c>
-      <c r="K4" s="193">
+      <c r="K4" s="140">
         <v>45870</v>
       </c>
-      <c r="L4" s="193">
+      <c r="L4" s="140">
         <v>45901</v>
       </c>
-      <c r="M4" s="193">
+      <c r="M4" s="140">
         <v>45931</v>
       </c>
-      <c r="N4" s="193">
+      <c r="N4" s="140">
         <v>45962</v>
       </c>
-      <c r="O4" s="193">
+      <c r="O4" s="140">
         <v>45992</v>
       </c>
-      <c r="P4" s="193">
+      <c r="P4" s="140">
         <v>46023</v>
       </c>
       <c r="Q4" s="38" t="s">
@@ -2121,10 +2123,10 @@
       <c r="AB4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AC4" s="155" t="s">
+      <c r="AC4" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="146" t="s">
+      <c r="AD4" s="175" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2135,32 +2137,32 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="146"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="175"/>
     </row>
     <row r="6" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -2173,32 +2175,32 @@
       <c r="D6" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="142"/>
-      <c r="AB6" s="142"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="150"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="150"/>
+      <c r="Y6" s="150"/>
+      <c r="Z6" s="150"/>
+      <c r="AA6" s="150"/>
+      <c r="AB6" s="150"/>
       <c r="AC6" s="61"/>
       <c r="AD6" s="89"/>
     </row>
@@ -2290,7 +2292,7 @@
         <f>SUM(E7:AB7)*D7</f>
         <v>50220</v>
       </c>
-      <c r="AD7" s="147">
+      <c r="AD7" s="176">
         <f>AC7</f>
         <v>50220</v>
       </c>
@@ -2407,7 +2409,7 @@
         <f t="shared" ref="AC8:AC24" si="1">SUM(E8:AB8)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="148"/>
+      <c r="AD8" s="177"/>
     </row>
     <row r="9" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2497,7 +2499,7 @@
         <f>SUM(E9:AB9)*D9</f>
         <v>12600</v>
       </c>
-      <c r="AD9" s="147">
+      <c r="AD9" s="176">
         <f>AC9</f>
         <v>12600</v>
       </c>
@@ -2614,7 +2616,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="148"/>
+      <c r="AD10" s="177"/>
     </row>
     <row r="11" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -2704,7 +2706,7 @@
         <f>SUM(E11:AB11)*D11</f>
         <v>7560</v>
       </c>
-      <c r="AD11" s="147">
+      <c r="AD11" s="176">
         <f>AC11</f>
         <v>7560</v>
       </c>
@@ -2821,7 +2823,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="148"/>
+      <c r="AD12" s="177"/>
     </row>
     <row r="13" spans="1:35" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -2911,7 +2913,7 @@
         <f>SUM(E13:AB13)*D13</f>
         <v>25200</v>
       </c>
-      <c r="AD13" s="147">
+      <c r="AD13" s="176">
         <f>AC13</f>
         <v>25200</v>
       </c>
@@ -3039,7 +3041,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="148"/>
+      <c r="AD14" s="177"/>
       <c r="AG14" t="s">
         <v>68</v>
       </c>
@@ -3140,7 +3142,7 @@
         <f>SUM(E15:AB15)*D15</f>
         <v>11880</v>
       </c>
-      <c r="AD15" s="147">
+      <c r="AD15" s="176">
         <f>AC15</f>
         <v>11880</v>
       </c>
@@ -3268,7 +3270,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="148"/>
+      <c r="AD16" s="177"/>
     </row>
     <row r="17" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -3358,7 +3360,7 @@
         <f>SUM(E17:AB17)*D17</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="147">
+      <c r="AD17" s="176">
         <v>0</v>
       </c>
     </row>
@@ -3474,7 +3476,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="148"/>
+      <c r="AD18" s="177"/>
     </row>
     <row r="19" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -3564,7 +3566,7 @@
         <f>SUM(E19:AB19)*D19</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="147">
+      <c r="AD19" s="176">
         <v>0</v>
       </c>
     </row>
@@ -3680,7 +3682,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="148"/>
+      <c r="AD20" s="177"/>
     </row>
     <row r="21" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -3770,7 +3772,7 @@
         <f>SUM(E21:AB21)*D21</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="147">
+      <c r="AD21" s="176">
         <v>0</v>
       </c>
     </row>
@@ -3886,7 +3888,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="148"/>
+      <c r="AD22" s="177"/>
     </row>
     <row r="23" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -3995,7 +3997,7 @@
         <f t="shared" ref="AC23" si="10">SUM(E23:AB23)</f>
         <v>107460</v>
       </c>
-      <c r="AD23" s="140" t="s">
+      <c r="AD23" s="178" t="s">
         <v>45</v>
       </c>
       <c r="AG23" t="s">
@@ -4113,7 +4115,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="141"/>
+      <c r="AD24" s="179"/>
     </row>
     <row r="25" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -4258,7 +4260,7 @@
       <c r="AB26" s="32"/>
       <c r="AC26" s="91"/>
       <c r="AD26" s="92"/>
-      <c r="AH26" s="194">
+      <c r="AH26" s="141">
         <f>AC76-AH23</f>
         <v>1.0000000009313226E-2</v>
       </c>
@@ -4274,32 +4276,32 @@
       <c r="D27" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="142" t="s">
+      <c r="E27" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="143"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="143"/>
-      <c r="W27" s="143"/>
-      <c r="X27" s="143"/>
-      <c r="Y27" s="143"/>
-      <c r="Z27" s="143"/>
-      <c r="AA27" s="143"/>
-      <c r="AB27" s="143"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="158"/>
+      <c r="U27" s="158"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="158"/>
+      <c r="AB27" s="158"/>
       <c r="AC27" s="61"/>
       <c r="AD27" s="89"/>
     </row>
@@ -4391,7 +4393,7 @@
         <f>SUM(E28:AB28)*D28</f>
         <v>21600</v>
       </c>
-      <c r="AD28" s="147">
+      <c r="AD28" s="176">
         <f>AC28</f>
         <v>21600</v>
       </c>
@@ -4508,7 +4510,7 @@
         <f t="shared" ref="AC29" si="14">SUM(E29:AB29)</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="148"/>
+      <c r="AD29" s="177"/>
     </row>
     <row r="30" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -4598,7 +4600,7 @@
         <f>SUM(E30:AB30)*D30</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="147">
+      <c r="AD30" s="176">
         <v>0</v>
       </c>
     </row>
@@ -4714,7 +4716,7 @@
         <f t="shared" ref="AC31" si="16">SUM(E31:AB31)</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="148"/>
+      <c r="AD31" s="177"/>
     </row>
     <row r="32" spans="1:34" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -4804,7 +4806,7 @@
         <f>SUM(E32:AB32)*D32</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="147">
+      <c r="AD32" s="176">
         <v>0</v>
       </c>
     </row>
@@ -4920,7 +4922,7 @@
         <f t="shared" ref="AC33" si="18">SUM(E33:AB33)</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="148"/>
+      <c r="AD33" s="177"/>
     </row>
     <row r="34" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
@@ -5010,7 +5012,7 @@
         <f>SUM(E34:AB34)*D34</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="149">
+      <c r="AD34" s="180">
         <v>0</v>
       </c>
     </row>
@@ -5126,7 +5128,7 @@
         <f t="shared" ref="AC35" si="20">SUM(E35:AB35)</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="148"/>
+      <c r="AD35" s="177"/>
     </row>
     <row r="36" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
@@ -5216,7 +5218,7 @@
         <f>SUM(E36:AB36)*D36</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="147">
+      <c r="AD36" s="176">
         <v>0</v>
       </c>
     </row>
@@ -5332,7 +5334,7 @@
         <f t="shared" ref="AC37" si="22">SUM(E37:AB37)</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="148"/>
+      <c r="AD37" s="177"/>
     </row>
     <row r="38" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
@@ -5422,7 +5424,7 @@
         <f>SUM(E38:AB38)*D38</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="147">
+      <c r="AD38" s="176">
         <v>0</v>
       </c>
     </row>
@@ -5538,7 +5540,7 @@
         <f t="shared" ref="AC39" si="24">SUM(E39:AB39)</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="148"/>
+      <c r="AD39" s="177"/>
     </row>
     <row r="40" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
@@ -5628,7 +5630,7 @@
         <f>SUM(E40:AB40)*D40</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="147">
+      <c r="AD40" s="176">
         <v>0</v>
       </c>
     </row>
@@ -5744,7 +5746,7 @@
         <f t="shared" ref="AC41:AC43" si="26">SUM(E41:AB41)</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="148"/>
+      <c r="AD41" s="177"/>
     </row>
     <row r="42" spans="1:36" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -5853,7 +5855,7 @@
         <f t="shared" si="26"/>
         <v>21600</v>
       </c>
-      <c r="AD42" s="146" t="s">
+      <c r="AD42" s="175" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5964,7 +5966,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD43" s="146"/>
+      <c r="AD43" s="175"/>
     </row>
     <row r="44" spans="1:36" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
@@ -6109,11 +6111,11 @@
       <c r="AB45" s="32"/>
       <c r="AC45" s="91"/>
       <c r="AD45" s="92"/>
-      <c r="AH45" s="194">
+      <c r="AH45" s="141">
         <f>AC76</f>
         <v>135483.35</v>
       </c>
-      <c r="AI45" s="194">
+      <c r="AI45" s="141">
         <f>0.03*0.5*AH45</f>
         <v>2032.2502500000001</v>
       </c>
@@ -6125,44 +6127,44 @@
       </c>
       <c r="C46" s="66"/>
       <c r="D46" s="66"/>
-      <c r="E46" s="142" t="s">
+      <c r="E46" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="143"/>
-      <c r="K46" s="143"/>
-      <c r="L46" s="143"/>
-      <c r="M46" s="143"/>
-      <c r="N46" s="143"/>
-      <c r="O46" s="143"/>
-      <c r="P46" s="143"/>
-      <c r="Q46" s="143"/>
-      <c r="R46" s="143"/>
-      <c r="S46" s="143"/>
-      <c r="T46" s="143"/>
-      <c r="U46" s="143"/>
-      <c r="V46" s="143"/>
-      <c r="W46" s="143"/>
-      <c r="X46" s="143"/>
-      <c r="Y46" s="143"/>
-      <c r="Z46" s="143"/>
-      <c r="AA46" s="143"/>
-      <c r="AB46" s="143"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
+      <c r="J46" s="158"/>
+      <c r="K46" s="158"/>
+      <c r="L46" s="158"/>
+      <c r="M46" s="158"/>
+      <c r="N46" s="158"/>
+      <c r="O46" s="158"/>
+      <c r="P46" s="158"/>
+      <c r="Q46" s="158"/>
+      <c r="R46" s="158"/>
+      <c r="S46" s="158"/>
+      <c r="T46" s="158"/>
+      <c r="U46" s="158"/>
+      <c r="V46" s="158"/>
+      <c r="W46" s="158"/>
+      <c r="X46" s="158"/>
+      <c r="Y46" s="158"/>
+      <c r="Z46" s="158"/>
+      <c r="AA46" s="158"/>
+      <c r="AB46" s="158"/>
       <c r="AC46" s="61"/>
       <c r="AD46" s="89"/>
-      <c r="AH46" s="194"/>
-      <c r="AJ46" s="194"/>
+      <c r="AH46" s="141"/>
+      <c r="AJ46" s="141"/>
     </row>
     <row r="47" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="161" t="s">
+      <c r="B47" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="162"/>
-      <c r="D47" s="162"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
       <c r="E47" s="12">
         <v>0</v>
       </c>
@@ -6245,11 +6247,11 @@
     </row>
     <row r="48" spans="1:36" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="144" t="s">
+      <c r="B48" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
       <c r="E48" s="15">
         <v>0</v>
       </c>
@@ -6332,11 +6334,11 @@
     </row>
     <row r="49" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="144" t="s">
+      <c r="B49" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
       <c r="E49" s="15">
         <v>0</v>
       </c>
@@ -6419,11 +6421,11 @@
     </row>
     <row r="50" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="144" t="s">
+      <c r="B50" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
       <c r="E50" s="18">
         <v>0</v>
       </c>
@@ -6650,47 +6652,47 @@
     </row>
     <row r="53" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="177" t="s">
+      <c r="B53" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="178"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="142" t="s">
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="143"/>
-      <c r="G53" s="143"/>
-      <c r="H53" s="143"/>
-      <c r="I53" s="143"/>
-      <c r="J53" s="143"/>
-      <c r="K53" s="143"/>
-      <c r="L53" s="143"/>
-      <c r="M53" s="143"/>
-      <c r="N53" s="143"/>
-      <c r="O53" s="143"/>
-      <c r="P53" s="143"/>
-      <c r="Q53" s="143"/>
-      <c r="R53" s="143"/>
-      <c r="S53" s="143"/>
-      <c r="T53" s="143"/>
-      <c r="U53" s="143"/>
-      <c r="V53" s="143"/>
-      <c r="W53" s="143"/>
-      <c r="X53" s="143"/>
-      <c r="Y53" s="143"/>
-      <c r="Z53" s="143"/>
-      <c r="AA53" s="143"/>
-      <c r="AB53" s="143"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="158"/>
+      <c r="J53" s="158"/>
+      <c r="K53" s="158"/>
+      <c r="L53" s="158"/>
+      <c r="M53" s="158"/>
+      <c r="N53" s="158"/>
+      <c r="O53" s="158"/>
+      <c r="P53" s="158"/>
+      <c r="Q53" s="158"/>
+      <c r="R53" s="158"/>
+      <c r="S53" s="158"/>
+      <c r="T53" s="158"/>
+      <c r="U53" s="158"/>
+      <c r="V53" s="158"/>
+      <c r="W53" s="158"/>
+      <c r="X53" s="158"/>
+      <c r="Y53" s="158"/>
+      <c r="Z53" s="158"/>
+      <c r="AA53" s="158"/>
+      <c r="AB53" s="158"/>
       <c r="AC53" s="61"/>
       <c r="AD53" s="89"/>
     </row>
     <row r="54" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="161" t="s">
+      <c r="B54" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="162"/>
-      <c r="D54" s="162"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="154"/>
       <c r="E54" s="12">
         <v>0</v>
       </c>
@@ -6773,11 +6775,11 @@
     </row>
     <row r="55" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="144" t="s">
+      <c r="B55" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
       <c r="E55" s="15">
         <v>0</v>
       </c>
@@ -6860,11 +6862,11 @@
     </row>
     <row r="56" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="144" t="s">
+      <c r="B56" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
       <c r="E56" s="15">
         <v>0</v>
       </c>
@@ -6947,11 +6949,11 @@
     </row>
     <row r="57" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="144" t="s">
+      <c r="B57" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="160"/>
       <c r="E57" s="18">
         <v>0</v>
       </c>
@@ -7178,47 +7180,47 @@
     </row>
     <row r="60" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="164"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="142" t="s">
+      <c r="C60" s="172"/>
+      <c r="D60" s="172"/>
+      <c r="E60" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="143"/>
-      <c r="G60" s="143"/>
-      <c r="H60" s="143"/>
-      <c r="I60" s="143"/>
-      <c r="J60" s="143"/>
-      <c r="K60" s="143"/>
-      <c r="L60" s="143"/>
-      <c r="M60" s="143"/>
-      <c r="N60" s="143"/>
-      <c r="O60" s="143"/>
-      <c r="P60" s="143"/>
-      <c r="Q60" s="143"/>
-      <c r="R60" s="143"/>
-      <c r="S60" s="143"/>
-      <c r="T60" s="143"/>
-      <c r="U60" s="143"/>
-      <c r="V60" s="143"/>
-      <c r="W60" s="143"/>
-      <c r="X60" s="143"/>
-      <c r="Y60" s="143"/>
-      <c r="Z60" s="143"/>
-      <c r="AA60" s="143"/>
-      <c r="AB60" s="143"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="158"/>
+      <c r="H60" s="158"/>
+      <c r="I60" s="158"/>
+      <c r="J60" s="158"/>
+      <c r="K60" s="158"/>
+      <c r="L60" s="158"/>
+      <c r="M60" s="158"/>
+      <c r="N60" s="158"/>
+      <c r="O60" s="158"/>
+      <c r="P60" s="158"/>
+      <c r="Q60" s="158"/>
+      <c r="R60" s="158"/>
+      <c r="S60" s="158"/>
+      <c r="T60" s="158"/>
+      <c r="U60" s="158"/>
+      <c r="V60" s="158"/>
+      <c r="W60" s="158"/>
+      <c r="X60" s="158"/>
+      <c r="Y60" s="158"/>
+      <c r="Z60" s="158"/>
+      <c r="AA60" s="158"/>
+      <c r="AB60" s="158"/>
       <c r="AC60" s="61"/>
       <c r="AD60" s="89"/>
     </row>
     <row r="61" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="161" t="s">
+      <c r="B61" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
+      <c r="C61" s="154"/>
+      <c r="D61" s="154"/>
       <c r="E61" s="12">
         <v>0</v>
       </c>
@@ -7301,11 +7303,11 @@
     </row>
     <row r="62" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="144" t="s">
+      <c r="B62" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="160"/>
       <c r="E62" s="15">
         <v>0</v>
       </c>
@@ -7388,11 +7390,11 @@
     </row>
     <row r="63" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="144" t="s">
+      <c r="B63" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="145"/>
-      <c r="D63" s="145"/>
+      <c r="C63" s="160"/>
+      <c r="D63" s="160"/>
       <c r="E63" s="15">
         <v>0</v>
       </c>
@@ -7724,7 +7726,7 @@
         <f t="shared" ref="AC66:AC67" si="37">SUM(E66:AB66)</f>
         <v>129060</v>
       </c>
-      <c r="AD66" s="153"/>
+      <c r="AD66" s="184"/>
       <c r="AG66" t="s">
         <v>70</v>
       </c>
@@ -7839,7 +7841,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AD67" s="146"/>
+      <c r="AD67" s="175"/>
     </row>
     <row r="68" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
@@ -7948,7 +7950,7 @@
         <f t="shared" si="34"/>
         <v>129060</v>
       </c>
-      <c r="AD68" s="146"/>
+      <c r="AD68" s="175"/>
     </row>
     <row r="69" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
@@ -8054,7 +8056,7 @@
         <v>129060</v>
       </c>
       <c r="AC69" s="112"/>
-      <c r="AD69" s="154"/>
+      <c r="AD69" s="185"/>
     </row>
     <row r="70" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
@@ -8095,31 +8097,31 @@
       </c>
       <c r="C71" s="60"/>
       <c r="D71" s="60"/>
-      <c r="E71" s="150"/>
-      <c r="F71" s="143"/>
-      <c r="G71" s="143"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="143"/>
-      <c r="J71" s="143"/>
-      <c r="K71" s="143"/>
-      <c r="L71" s="143"/>
-      <c r="M71" s="143"/>
-      <c r="N71" s="143"/>
-      <c r="O71" s="143"/>
-      <c r="P71" s="143"/>
-      <c r="Q71" s="143"/>
-      <c r="R71" s="143"/>
-      <c r="S71" s="143"/>
-      <c r="T71" s="143"/>
-      <c r="U71" s="143"/>
-      <c r="V71" s="143"/>
-      <c r="W71" s="143"/>
-      <c r="X71" s="143"/>
-      <c r="Y71" s="143"/>
-      <c r="Z71" s="143"/>
-      <c r="AA71" s="143"/>
-      <c r="AB71" s="143"/>
-      <c r="AC71" s="143"/>
+      <c r="E71" s="181"/>
+      <c r="F71" s="158"/>
+      <c r="G71" s="158"/>
+      <c r="H71" s="158"/>
+      <c r="I71" s="158"/>
+      <c r="J71" s="158"/>
+      <c r="K71" s="158"/>
+      <c r="L71" s="158"/>
+      <c r="M71" s="158"/>
+      <c r="N71" s="158"/>
+      <c r="O71" s="158"/>
+      <c r="P71" s="158"/>
+      <c r="Q71" s="158"/>
+      <c r="R71" s="158"/>
+      <c r="S71" s="158"/>
+      <c r="T71" s="158"/>
+      <c r="U71" s="158"/>
+      <c r="V71" s="158"/>
+      <c r="W71" s="158"/>
+      <c r="X71" s="158"/>
+      <c r="Y71" s="158"/>
+      <c r="Z71" s="158"/>
+      <c r="AA71" s="158"/>
+      <c r="AB71" s="158"/>
+      <c r="AC71" s="158"/>
       <c r="AD71" s="89"/>
       <c r="AF71">
         <f>1200*5</f>
@@ -8138,78 +8140,78 @@
         <f>AH66*9</f>
         <v>4391.0999999999995</v>
       </c>
-      <c r="E72" s="182">
+      <c r="E72" s="163">
         <f>D72-E73</f>
         <v>4391.0999999999995</v>
       </c>
-      <c r="F72" s="182"/>
-      <c r="G72" s="182"/>
-      <c r="H72" s="182"/>
-      <c r="I72" s="182"/>
-      <c r="J72" s="182"/>
-      <c r="K72" s="182"/>
-      <c r="L72" s="182"/>
-      <c r="M72" s="182"/>
-      <c r="N72" s="182"/>
-      <c r="O72" s="182"/>
-      <c r="P72" s="182"/>
-      <c r="Q72" s="182"/>
-      <c r="R72" s="182"/>
-      <c r="S72" s="182"/>
-      <c r="T72" s="182"/>
-      <c r="U72" s="182"/>
-      <c r="V72" s="182"/>
-      <c r="W72" s="182"/>
-      <c r="X72" s="182"/>
-      <c r="Y72" s="182"/>
-      <c r="Z72" s="182"/>
-      <c r="AA72" s="182"/>
-      <c r="AB72" s="182"/>
-      <c r="AC72" s="182"/>
-      <c r="AD72" s="171">
+      <c r="F72" s="163"/>
+      <c r="G72" s="163"/>
+      <c r="H72" s="163"/>
+      <c r="I72" s="163"/>
+      <c r="J72" s="163"/>
+      <c r="K72" s="163"/>
+      <c r="L72" s="163"/>
+      <c r="M72" s="163"/>
+      <c r="N72" s="163"/>
+      <c r="O72" s="163"/>
+      <c r="P72" s="163"/>
+      <c r="Q72" s="163"/>
+      <c r="R72" s="163"/>
+      <c r="S72" s="163"/>
+      <c r="T72" s="163"/>
+      <c r="U72" s="163"/>
+      <c r="V72" s="163"/>
+      <c r="W72" s="163"/>
+      <c r="X72" s="163"/>
+      <c r="Y72" s="163"/>
+      <c r="Z72" s="163"/>
+      <c r="AA72" s="163"/>
+      <c r="AB72" s="163"/>
+      <c r="AC72" s="163"/>
+      <c r="AD72" s="143">
         <f>E72</f>
         <v>4391.0999999999995</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="165" t="s">
+      <c r="B73" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="166"/>
+      <c r="C73" s="174"/>
       <c r="D73" s="127">
         <v>0</v>
       </c>
-      <c r="E73" s="180">
+      <c r="E73" s="161">
         <f>D72*D73</f>
         <v>0</v>
       </c>
-      <c r="F73" s="180"/>
-      <c r="G73" s="180"/>
-      <c r="H73" s="180"/>
-      <c r="I73" s="180"/>
-      <c r="J73" s="180"/>
-      <c r="K73" s="180"/>
-      <c r="L73" s="180"/>
-      <c r="M73" s="180"/>
-      <c r="N73" s="180"/>
-      <c r="O73" s="180"/>
-      <c r="P73" s="180"/>
-      <c r="Q73" s="180"/>
-      <c r="R73" s="180"/>
-      <c r="S73" s="180"/>
-      <c r="T73" s="180"/>
-      <c r="U73" s="180"/>
-      <c r="V73" s="180"/>
-      <c r="W73" s="180"/>
-      <c r="X73" s="180"/>
-      <c r="Y73" s="180"/>
-      <c r="Z73" s="180"/>
-      <c r="AA73" s="180"/>
-      <c r="AB73" s="180"/>
-      <c r="AC73" s="180"/>
-      <c r="AD73" s="172"/>
-      <c r="AF73" s="195">
+      <c r="F73" s="161"/>
+      <c r="G73" s="161"/>
+      <c r="H73" s="161"/>
+      <c r="I73" s="161"/>
+      <c r="J73" s="161"/>
+      <c r="K73" s="161"/>
+      <c r="L73" s="161"/>
+      <c r="M73" s="161"/>
+      <c r="N73" s="161"/>
+      <c r="O73" s="161"/>
+      <c r="P73" s="161"/>
+      <c r="Q73" s="161"/>
+      <c r="R73" s="161"/>
+      <c r="S73" s="161"/>
+      <c r="T73" s="161"/>
+      <c r="U73" s="161"/>
+      <c r="V73" s="161"/>
+      <c r="W73" s="161"/>
+      <c r="X73" s="161"/>
+      <c r="Y73" s="161"/>
+      <c r="Z73" s="161"/>
+      <c r="AA73" s="161"/>
+      <c r="AB73" s="161"/>
+      <c r="AC73" s="161"/>
+      <c r="AD73" s="144"/>
+      <c r="AF73" s="142">
         <f>AC25-101520</f>
         <v>5940</v>
       </c>
@@ -8225,35 +8227,35 @@
       <c r="D74" s="117">
         <v>2032.25</v>
       </c>
-      <c r="E74" s="181">
+      <c r="E74" s="162">
         <f>D74</f>
         <v>2032.25</v>
       </c>
-      <c r="F74" s="181"/>
-      <c r="G74" s="181"/>
-      <c r="H74" s="181"/>
-      <c r="I74" s="181"/>
-      <c r="J74" s="181"/>
-      <c r="K74" s="181"/>
-      <c r="L74" s="181"/>
-      <c r="M74" s="181"/>
-      <c r="N74" s="181"/>
-      <c r="O74" s="181"/>
-      <c r="P74" s="181"/>
-      <c r="Q74" s="181"/>
-      <c r="R74" s="181"/>
-      <c r="S74" s="181"/>
-      <c r="T74" s="181"/>
-      <c r="U74" s="181"/>
-      <c r="V74" s="181"/>
-      <c r="W74" s="181"/>
-      <c r="X74" s="181"/>
-      <c r="Y74" s="181"/>
-      <c r="Z74" s="181"/>
-      <c r="AA74" s="181"/>
-      <c r="AB74" s="181"/>
-      <c r="AC74" s="181"/>
-      <c r="AD74" s="146" t="s">
+      <c r="F74" s="162"/>
+      <c r="G74" s="162"/>
+      <c r="H74" s="162"/>
+      <c r="I74" s="162"/>
+      <c r="J74" s="162"/>
+      <c r="K74" s="162"/>
+      <c r="L74" s="162"/>
+      <c r="M74" s="162"/>
+      <c r="N74" s="162"/>
+      <c r="O74" s="162"/>
+      <c r="P74" s="162"/>
+      <c r="Q74" s="162"/>
+      <c r="R74" s="162"/>
+      <c r="S74" s="162"/>
+      <c r="T74" s="162"/>
+      <c r="U74" s="162"/>
+      <c r="V74" s="162"/>
+      <c r="W74" s="162"/>
+      <c r="X74" s="162"/>
+      <c r="Y74" s="162"/>
+      <c r="Z74" s="162"/>
+      <c r="AA74" s="162"/>
+      <c r="AB74" s="162"/>
+      <c r="AC74" s="162"/>
+      <c r="AD74" s="175" t="s">
         <v>54</v>
       </c>
     </row>
@@ -8264,67 +8266,67 @@
       </c>
       <c r="C75" s="129"/>
       <c r="D75" s="129"/>
-      <c r="E75" s="151"/>
-      <c r="F75" s="152"/>
-      <c r="G75" s="152"/>
-      <c r="H75" s="152"/>
-      <c r="I75" s="152"/>
-      <c r="J75" s="152"/>
-      <c r="K75" s="152"/>
-      <c r="L75" s="152"/>
-      <c r="M75" s="152"/>
-      <c r="N75" s="152"/>
-      <c r="O75" s="152"/>
-      <c r="P75" s="152"/>
-      <c r="Q75" s="152"/>
-      <c r="R75" s="152"/>
-      <c r="S75" s="152"/>
-      <c r="T75" s="152"/>
-      <c r="U75" s="152"/>
-      <c r="V75" s="152"/>
-      <c r="W75" s="152"/>
-      <c r="X75" s="152"/>
-      <c r="Y75" s="152"/>
-      <c r="Z75" s="152"/>
-      <c r="AA75" s="152"/>
-      <c r="AB75" s="152"/>
+      <c r="E75" s="182"/>
+      <c r="F75" s="183"/>
+      <c r="G75" s="183"/>
+      <c r="H75" s="183"/>
+      <c r="I75" s="183"/>
+      <c r="J75" s="183"/>
+      <c r="K75" s="183"/>
+      <c r="L75" s="183"/>
+      <c r="M75" s="183"/>
+      <c r="N75" s="183"/>
+      <c r="O75" s="183"/>
+      <c r="P75" s="183"/>
+      <c r="Q75" s="183"/>
+      <c r="R75" s="183"/>
+      <c r="S75" s="183"/>
+      <c r="T75" s="183"/>
+      <c r="U75" s="183"/>
+      <c r="V75" s="183"/>
+      <c r="W75" s="183"/>
+      <c r="X75" s="183"/>
+      <c r="Y75" s="183"/>
+      <c r="Z75" s="183"/>
+      <c r="AA75" s="183"/>
+      <c r="AB75" s="183"/>
       <c r="AC75" s="130">
         <f>D72+D74</f>
         <v>6423.3499999999995</v>
       </c>
-      <c r="AD75" s="146"/>
+      <c r="AD75" s="175"/>
     </row>
     <row r="76" spans="1:34" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
-      <c r="B76" s="156" t="s">
+      <c r="B76" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="157"/>
+      <c r="C76" s="168"/>
       <c r="D76" s="131"/>
-      <c r="E76" s="160"/>
-      <c r="F76" s="157"/>
-      <c r="G76" s="157"/>
-      <c r="H76" s="157"/>
-      <c r="I76" s="157"/>
-      <c r="J76" s="157"/>
-      <c r="K76" s="157"/>
-      <c r="L76" s="157"/>
-      <c r="M76" s="157"/>
-      <c r="N76" s="157"/>
-      <c r="O76" s="157"/>
-      <c r="P76" s="157"/>
-      <c r="Q76" s="157"/>
-      <c r="R76" s="157"/>
-      <c r="S76" s="157"/>
-      <c r="T76" s="157"/>
-      <c r="U76" s="157"/>
-      <c r="V76" s="157"/>
-      <c r="W76" s="157"/>
-      <c r="X76" s="157"/>
-      <c r="Y76" s="157"/>
-      <c r="Z76" s="157"/>
-      <c r="AA76" s="157"/>
-      <c r="AB76" s="157"/>
+      <c r="E76" s="170"/>
+      <c r="F76" s="168"/>
+      <c r="G76" s="168"/>
+      <c r="H76" s="168"/>
+      <c r="I76" s="168"/>
+      <c r="J76" s="168"/>
+      <c r="K76" s="168"/>
+      <c r="L76" s="168"/>
+      <c r="M76" s="168"/>
+      <c r="N76" s="168"/>
+      <c r="O76" s="168"/>
+      <c r="P76" s="168"/>
+      <c r="Q76" s="168"/>
+      <c r="R76" s="168"/>
+      <c r="S76" s="168"/>
+      <c r="T76" s="168"/>
+      <c r="U76" s="168"/>
+      <c r="V76" s="168"/>
+      <c r="W76" s="168"/>
+      <c r="X76" s="168"/>
+      <c r="Y76" s="168"/>
+      <c r="Z76" s="168"/>
+      <c r="AA76" s="168"/>
+      <c r="AB76" s="168"/>
       <c r="AC76" s="132">
         <f>AC75+AC68</f>
         <v>135483.35</v>
@@ -8398,10 +8400,10 @@
     </row>
     <row r="79" spans="1:34" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="158" t="s">
+      <c r="B79" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="159"/>
+      <c r="C79" s="146"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -8564,10 +8566,10 @@
     </row>
     <row r="84" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="168" t="s">
+      <c r="B84" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="159"/>
+      <c r="C84" s="146"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -8596,10 +8598,10 @@
     </row>
     <row r="85" spans="1:29" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="170" t="s">
+      <c r="B85" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="159"/>
+      <c r="C85" s="146"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -8659,10 +8661,10 @@
     </row>
     <row r="87" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="169" t="s">
+      <c r="B87" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="159"/>
+      <c r="C87" s="146"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -8691,10 +8693,10 @@
     </row>
     <row r="88" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="167" t="s">
+      <c r="B88" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="159"/>
+      <c r="C88" s="146"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -8723,8 +8725,8 @@
     </row>
     <row r="89" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="159"/>
-      <c r="C89" s="159"/>
+      <c r="B89" s="146"/>
+      <c r="C89" s="146"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -8784,10 +8786,10 @@
     </row>
     <row r="91" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="168" t="s">
+      <c r="B91" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="159"/>
+      <c r="C91" s="146"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="1"/>
@@ -8816,10 +8818,10 @@
     </row>
     <row r="92" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="167" t="s">
+      <c r="B92" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="C92" s="159"/>
+      <c r="C92" s="146"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -8848,8 +8850,8 @@
     </row>
     <row r="93" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="159"/>
-      <c r="C93" s="159"/>
+      <c r="B93" s="146"/>
+      <c r="C93" s="146"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -38080,6 +38082,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="E46:AB46"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="AD74:AD75"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AD34:AD35"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AD40:AD41"/>
+    <mergeCell ref="AD42:AD43"/>
+    <mergeCell ref="E71:AC71"/>
+    <mergeCell ref="E75:AB75"/>
+    <mergeCell ref="AD66:AD69"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E60:AB60"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E76:AB76"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B92:C93"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B88:C89"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B85:C85"/>
     <mergeCell ref="AD72:AD73"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="E2:AC2"/>
@@ -38096,49 +38141,6 @@
     <mergeCell ref="E73:AC73"/>
     <mergeCell ref="E74:AC74"/>
     <mergeCell ref="E72:AC72"/>
-    <mergeCell ref="B92:C93"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B88:C89"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E60:AB60"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E76:AB76"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="E46:AB46"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="AD74:AD75"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AD34:AD35"/>
-    <mergeCell ref="AD36:AD37"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AD40:AD41"/>
-    <mergeCell ref="AD42:AD43"/>
-    <mergeCell ref="E71:AC71"/>
-    <mergeCell ref="E75:AB75"/>
-    <mergeCell ref="AD66:AD69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.56333333333333335" bottom="0.44958333333333333" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
@@ -38178,44 +38180,44 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="189" t="s">
+      <c r="B1" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="189"/>
-      <c r="S1" s="189"/>
-      <c r="T1" s="189"/>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="189"/>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="189"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="186"/>
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="186"/>
     </row>
     <row r="2" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="176"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="151"/>
       <c r="E2" s="72">
         <v>1</v>
       </c>
@@ -38293,9 +38295,9 @@
     </row>
     <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="175"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
       <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
@@ -38368,10 +38370,10 @@
       <c r="AB3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="155" t="s">
+      <c r="AC3" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="AD3" s="146" t="s">
+      <c r="AD3" s="175" t="s">
         <v>45</v>
       </c>
     </row>
@@ -38382,32 +38384,32 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="146"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="146"/>
+      <c r="AA4" s="146"/>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="152"/>
+      <c r="AD4" s="175"/>
     </row>
     <row r="5" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -38420,32 +38422,32 @@
       <c r="D5" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="150"/>
+      <c r="AB5" s="150"/>
       <c r="AC5" s="61"/>
       <c r="AD5" s="89"/>
     </row>
@@ -38537,7 +38539,7 @@
         <f>SUM(E6:AB6)*D6</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="147">
+      <c r="AD6" s="176">
         <v>0</v>
       </c>
     </row>
@@ -38653,7 +38655,7 @@
         <f t="shared" ref="AC7:AC23" si="1">SUM(E7:AB7)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="148"/>
+      <c r="AD7" s="177"/>
     </row>
     <row r="8" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -38743,7 +38745,7 @@
         <f>SUM(E8:AB8)*D8</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="147">
+      <c r="AD8" s="176">
         <v>0</v>
       </c>
     </row>
@@ -38859,7 +38861,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="148"/>
+      <c r="AD9" s="177"/>
     </row>
     <row r="10" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -38949,7 +38951,7 @@
         <f>SUM(E10:AB10)*D10</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="147">
+      <c r="AD10" s="176">
         <v>0</v>
       </c>
     </row>
@@ -39065,7 +39067,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="148"/>
+      <c r="AD11" s="177"/>
     </row>
     <row r="12" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -39155,7 +39157,7 @@
         <f>SUM(E12:AB12)*D12</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="147">
+      <c r="AD12" s="176">
         <v>0</v>
       </c>
     </row>
@@ -39271,7 +39273,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="148"/>
+      <c r="AD13" s="177"/>
     </row>
     <row r="14" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -39361,7 +39363,7 @@
         <f>SUM(E14:AB14)*D14</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="147">
+      <c r="AD14" s="176">
         <v>0</v>
       </c>
     </row>
@@ -39477,7 +39479,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="148"/>
+      <c r="AD15" s="177"/>
     </row>
     <row r="16" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -39567,7 +39569,7 @@
         <f>SUM(E16:AB16)*D16</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="147">
+      <c r="AD16" s="176">
         <v>0</v>
       </c>
     </row>
@@ -39683,7 +39685,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="148"/>
+      <c r="AD17" s="177"/>
     </row>
     <row r="18" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -39773,7 +39775,7 @@
         <f>SUM(E18:AB18)*D18</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="147">
+      <c r="AD18" s="176">
         <v>0</v>
       </c>
     </row>
@@ -39889,7 +39891,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="148"/>
+      <c r="AD19" s="177"/>
     </row>
     <row r="20" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -39979,7 +39981,7 @@
         <f>SUM(E20:AB20)*D20</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="147">
+      <c r="AD20" s="176">
         <v>0</v>
       </c>
     </row>
@@ -40095,7 +40097,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="148"/>
+      <c r="AD21" s="177"/>
     </row>
     <row r="22" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -40204,7 +40206,7 @@
         <f t="shared" ref="AC22" si="10">SUM(E22:AB22)</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="140" t="s">
+      <c r="AD22" s="178" t="s">
         <v>45</v>
       </c>
     </row>
@@ -40315,7 +40317,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="141"/>
+      <c r="AD23" s="179"/>
     </row>
     <row r="24" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -40472,32 +40474,32 @@
       <c r="D26" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="142" t="s">
+      <c r="E26" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="143"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="143"/>
-      <c r="X26" s="143"/>
-      <c r="Y26" s="143"/>
-      <c r="Z26" s="143"/>
-      <c r="AA26" s="143"/>
-      <c r="AB26" s="143"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="158"/>
+      <c r="AB26" s="158"/>
       <c r="AC26" s="61"/>
       <c r="AD26" s="89"/>
     </row>
@@ -40589,7 +40591,7 @@
         <f>SUM(E27:AB27)*D27</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="147">
+      <c r="AD27" s="176">
         <v>0</v>
       </c>
     </row>
@@ -40705,7 +40707,7 @@
         <f t="shared" ref="AC28" si="14">SUM(E28:AB28)</f>
         <v>0</v>
       </c>
-      <c r="AD28" s="148"/>
+      <c r="AD28" s="177"/>
     </row>
     <row r="29" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -40795,7 +40797,7 @@
         <f>SUM(E29:AB29)*D29</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="147">
+      <c r="AD29" s="176">
         <v>0</v>
       </c>
     </row>
@@ -40911,7 +40913,7 @@
         <f t="shared" ref="AC30" si="16">SUM(E30:AB30)</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="148"/>
+      <c r="AD30" s="177"/>
     </row>
     <row r="31" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -41001,7 +41003,7 @@
         <f>SUM(E31:AB31)*D31</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="147">
+      <c r="AD31" s="176">
         <v>0</v>
       </c>
     </row>
@@ -41117,7 +41119,7 @@
         <f t="shared" ref="AC32" si="18">SUM(E32:AB32)</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="148"/>
+      <c r="AD32" s="177"/>
     </row>
     <row r="33" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -41207,7 +41209,7 @@
         <f>SUM(E33:AB33)*D33</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="149">
+      <c r="AD33" s="180">
         <v>0</v>
       </c>
     </row>
@@ -41323,7 +41325,7 @@
         <f t="shared" ref="AC34" si="20">SUM(E34:AB34)</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="148"/>
+      <c r="AD34" s="177"/>
     </row>
     <row r="35" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -41413,7 +41415,7 @@
         <f>SUM(E35:AB35)*D35</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="147">
+      <c r="AD35" s="176">
         <v>0</v>
       </c>
     </row>
@@ -41529,7 +41531,7 @@
         <f t="shared" ref="AC36" si="22">SUM(E36:AB36)</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="148"/>
+      <c r="AD36" s="177"/>
     </row>
     <row r="37" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
@@ -41619,7 +41621,7 @@
         <f>SUM(E37:AB37)*D37</f>
         <v>0</v>
       </c>
-      <c r="AD37" s="147">
+      <c r="AD37" s="176">
         <v>0</v>
       </c>
     </row>
@@ -41735,7 +41737,7 @@
         <f t="shared" ref="AC38" si="24">SUM(E38:AB38)</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="148"/>
+      <c r="AD38" s="177"/>
     </row>
     <row r="39" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
@@ -41825,7 +41827,7 @@
         <f>SUM(E39:AB39)*D39</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="147">
+      <c r="AD39" s="176">
         <v>0</v>
       </c>
     </row>
@@ -41941,7 +41943,7 @@
         <f t="shared" ref="AC40:AC42" si="26">SUM(E40:AB40)</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="148"/>
+      <c r="AD40" s="177"/>
     </row>
     <row r="41" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
@@ -42050,7 +42052,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD41" s="146" t="s">
+      <c r="AD41" s="175" t="s">
         <v>45</v>
       </c>
     </row>
@@ -42161,7 +42163,7 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="146"/>
+      <c r="AD42" s="175"/>
     </row>
     <row r="43" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
@@ -42314,42 +42316,42 @@
       </c>
       <c r="C45" s="66"/>
       <c r="D45" s="66"/>
-      <c r="E45" s="142" t="s">
+      <c r="E45" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="143"/>
-      <c r="K45" s="143"/>
-      <c r="L45" s="143"/>
-      <c r="M45" s="143"/>
-      <c r="N45" s="143"/>
-      <c r="O45" s="143"/>
-      <c r="P45" s="143"/>
-      <c r="Q45" s="143"/>
-      <c r="R45" s="143"/>
-      <c r="S45" s="143"/>
-      <c r="T45" s="143"/>
-      <c r="U45" s="143"/>
-      <c r="V45" s="143"/>
-      <c r="W45" s="143"/>
-      <c r="X45" s="143"/>
-      <c r="Y45" s="143"/>
-      <c r="Z45" s="143"/>
-      <c r="AA45" s="143"/>
-      <c r="AB45" s="143"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
+      <c r="J45" s="158"/>
+      <c r="K45" s="158"/>
+      <c r="L45" s="158"/>
+      <c r="M45" s="158"/>
+      <c r="N45" s="158"/>
+      <c r="O45" s="158"/>
+      <c r="P45" s="158"/>
+      <c r="Q45" s="158"/>
+      <c r="R45" s="158"/>
+      <c r="S45" s="158"/>
+      <c r="T45" s="158"/>
+      <c r="U45" s="158"/>
+      <c r="V45" s="158"/>
+      <c r="W45" s="158"/>
+      <c r="X45" s="158"/>
+      <c r="Y45" s="158"/>
+      <c r="Z45" s="158"/>
+      <c r="AA45" s="158"/>
+      <c r="AB45" s="158"/>
       <c r="AC45" s="61"/>
       <c r="AD45" s="89"/>
     </row>
     <row r="46" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="161" t="s">
+      <c r="B46" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="162"/>
-      <c r="D46" s="162"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
       <c r="E46" s="12">
         <v>0</v>
       </c>
@@ -42432,11 +42434,11 @@
     </row>
     <row r="47" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="144" t="s">
+      <c r="B47" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
       <c r="E47" s="15">
         <v>0</v>
       </c>
@@ -42519,11 +42521,11 @@
     </row>
     <row r="48" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="144" t="s">
+      <c r="B48" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
       <c r="E48" s="15">
         <v>0</v>
       </c>
@@ -42606,11 +42608,11 @@
     </row>
     <row r="49" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="144" t="s">
+      <c r="B49" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
       <c r="E49" s="18">
         <v>0</v>
       </c>
@@ -42837,47 +42839,47 @@
     </row>
     <row r="52" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="142" t="s">
+      <c r="C52" s="156"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="143"/>
-      <c r="G52" s="143"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="143"/>
-      <c r="J52" s="143"/>
-      <c r="K52" s="143"/>
-      <c r="L52" s="143"/>
-      <c r="M52" s="143"/>
-      <c r="N52" s="143"/>
-      <c r="O52" s="143"/>
-      <c r="P52" s="143"/>
-      <c r="Q52" s="143"/>
-      <c r="R52" s="143"/>
-      <c r="S52" s="143"/>
-      <c r="T52" s="143"/>
-      <c r="U52" s="143"/>
-      <c r="V52" s="143"/>
-      <c r="W52" s="143"/>
-      <c r="X52" s="143"/>
-      <c r="Y52" s="143"/>
-      <c r="Z52" s="143"/>
-      <c r="AA52" s="143"/>
-      <c r="AB52" s="143"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="158"/>
+      <c r="I52" s="158"/>
+      <c r="J52" s="158"/>
+      <c r="K52" s="158"/>
+      <c r="L52" s="158"/>
+      <c r="M52" s="158"/>
+      <c r="N52" s="158"/>
+      <c r="O52" s="158"/>
+      <c r="P52" s="158"/>
+      <c r="Q52" s="158"/>
+      <c r="R52" s="158"/>
+      <c r="S52" s="158"/>
+      <c r="T52" s="158"/>
+      <c r="U52" s="158"/>
+      <c r="V52" s="158"/>
+      <c r="W52" s="158"/>
+      <c r="X52" s="158"/>
+      <c r="Y52" s="158"/>
+      <c r="Z52" s="158"/>
+      <c r="AA52" s="158"/>
+      <c r="AB52" s="158"/>
       <c r="AC52" s="61"/>
       <c r="AD52" s="89"/>
     </row>
     <row r="53" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="161" t="s">
+      <c r="B53" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="162"/>
-      <c r="D53" s="162"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="154"/>
       <c r="E53" s="12">
         <v>0</v>
       </c>
@@ -42960,11 +42962,11 @@
     </row>
     <row r="54" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="144" t="s">
+      <c r="B54" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="160"/>
       <c r="E54" s="15">
         <v>0</v>
       </c>
@@ -43047,11 +43049,11 @@
     </row>
     <row r="55" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="144" t="s">
+      <c r="B55" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
       <c r="E55" s="15">
         <v>0</v>
       </c>
@@ -43134,11 +43136,11 @@
     </row>
     <row r="56" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="144" t="s">
+      <c r="B56" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
       <c r="E56" s="18">
         <v>0</v>
       </c>
@@ -43365,47 +43367,47 @@
     </row>
     <row r="59" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="163" t="s">
+      <c r="B59" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="164"/>
-      <c r="D59" s="164"/>
-      <c r="E59" s="142" t="s">
+      <c r="C59" s="172"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="143"/>
-      <c r="G59" s="143"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="143"/>
-      <c r="K59" s="143"/>
-      <c r="L59" s="143"/>
-      <c r="M59" s="143"/>
-      <c r="N59" s="143"/>
-      <c r="O59" s="143"/>
-      <c r="P59" s="143"/>
-      <c r="Q59" s="143"/>
-      <c r="R59" s="143"/>
-      <c r="S59" s="143"/>
-      <c r="T59" s="143"/>
-      <c r="U59" s="143"/>
-      <c r="V59" s="143"/>
-      <c r="W59" s="143"/>
-      <c r="X59" s="143"/>
-      <c r="Y59" s="143"/>
-      <c r="Z59" s="143"/>
-      <c r="AA59" s="143"/>
-      <c r="AB59" s="143"/>
+      <c r="F59" s="158"/>
+      <c r="G59" s="158"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="158"/>
+      <c r="J59" s="158"/>
+      <c r="K59" s="158"/>
+      <c r="L59" s="158"/>
+      <c r="M59" s="158"/>
+      <c r="N59" s="158"/>
+      <c r="O59" s="158"/>
+      <c r="P59" s="158"/>
+      <c r="Q59" s="158"/>
+      <c r="R59" s="158"/>
+      <c r="S59" s="158"/>
+      <c r="T59" s="158"/>
+      <c r="U59" s="158"/>
+      <c r="V59" s="158"/>
+      <c r="W59" s="158"/>
+      <c r="X59" s="158"/>
+      <c r="Y59" s="158"/>
+      <c r="Z59" s="158"/>
+      <c r="AA59" s="158"/>
+      <c r="AB59" s="158"/>
       <c r="AC59" s="61"/>
       <c r="AD59" s="89"/>
     </row>
     <row r="60" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="161" t="s">
+      <c r="B60" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="162"/>
-      <c r="D60" s="162"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
       <c r="E60" s="12">
         <v>0</v>
       </c>
@@ -43488,11 +43490,11 @@
     </row>
     <row r="61" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="144" t="s">
+      <c r="B61" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="160"/>
       <c r="E61" s="15">
         <v>0</v>
       </c>
@@ -43575,11 +43577,11 @@
     </row>
     <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="144" t="s">
+      <c r="B62" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="160"/>
       <c r="E62" s="15">
         <v>0</v>
       </c>
@@ -43911,7 +43913,7 @@
         <f t="shared" ref="AC65:AC66" si="37">SUM(E65:AB65)</f>
         <v>0</v>
       </c>
-      <c r="AD65" s="153"/>
+      <c r="AD65" s="184"/>
     </row>
     <row r="66" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
@@ -44020,7 +44022,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AD66" s="146"/>
+      <c r="AD66" s="175"/>
     </row>
     <row r="67" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
@@ -44129,7 +44131,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AD67" s="146"/>
+      <c r="AD67" s="175"/>
     </row>
     <row r="68" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
@@ -44235,7 +44237,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="112"/>
-      <c r="AD68" s="154"/>
+      <c r="AD68" s="185"/>
     </row>
     <row r="69" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
@@ -44276,31 +44278,31 @@
       </c>
       <c r="C70" s="60"/>
       <c r="D70" s="60"/>
-      <c r="E70" s="150"/>
-      <c r="F70" s="143"/>
-      <c r="G70" s="143"/>
-      <c r="H70" s="143"/>
-      <c r="I70" s="143"/>
-      <c r="J70" s="143"/>
-      <c r="K70" s="143"/>
-      <c r="L70" s="143"/>
-      <c r="M70" s="143"/>
-      <c r="N70" s="143"/>
-      <c r="O70" s="143"/>
-      <c r="P70" s="143"/>
-      <c r="Q70" s="143"/>
-      <c r="R70" s="143"/>
-      <c r="S70" s="143"/>
-      <c r="T70" s="143"/>
-      <c r="U70" s="143"/>
-      <c r="V70" s="143"/>
-      <c r="W70" s="143"/>
-      <c r="X70" s="143"/>
-      <c r="Y70" s="143"/>
-      <c r="Z70" s="143"/>
-      <c r="AA70" s="143"/>
-      <c r="AB70" s="143"/>
-      <c r="AC70" s="143"/>
+      <c r="E70" s="181"/>
+      <c r="F70" s="158"/>
+      <c r="G70" s="158"/>
+      <c r="H70" s="158"/>
+      <c r="I70" s="158"/>
+      <c r="J70" s="158"/>
+      <c r="K70" s="158"/>
+      <c r="L70" s="158"/>
+      <c r="M70" s="158"/>
+      <c r="N70" s="158"/>
+      <c r="O70" s="158"/>
+      <c r="P70" s="158"/>
+      <c r="Q70" s="158"/>
+      <c r="R70" s="158"/>
+      <c r="S70" s="158"/>
+      <c r="T70" s="158"/>
+      <c r="U70" s="158"/>
+      <c r="V70" s="158"/>
+      <c r="W70" s="158"/>
+      <c r="X70" s="158"/>
+      <c r="Y70" s="158"/>
+      <c r="Z70" s="158"/>
+      <c r="AA70" s="158"/>
+      <c r="AB70" s="158"/>
+      <c r="AC70" s="158"/>
       <c r="AD70" s="89"/>
     </row>
     <row r="71" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
@@ -44314,76 +44316,76 @@
       <c r="D71" s="25">
         <v>0</v>
       </c>
-      <c r="E71" s="186">
+      <c r="E71" s="193">
         <f>D71-E72</f>
         <v>0</v>
       </c>
-      <c r="F71" s="186"/>
-      <c r="G71" s="186"/>
-      <c r="H71" s="186"/>
-      <c r="I71" s="186"/>
-      <c r="J71" s="186"/>
-      <c r="K71" s="186"/>
-      <c r="L71" s="186"/>
-      <c r="M71" s="186"/>
-      <c r="N71" s="186"/>
-      <c r="O71" s="186"/>
-      <c r="P71" s="186"/>
-      <c r="Q71" s="186"/>
-      <c r="R71" s="186"/>
-      <c r="S71" s="186"/>
-      <c r="T71" s="186"/>
-      <c r="U71" s="186"/>
-      <c r="V71" s="186"/>
-      <c r="W71" s="186"/>
-      <c r="X71" s="186"/>
-      <c r="Y71" s="186"/>
-      <c r="Z71" s="186"/>
-      <c r="AA71" s="186"/>
-      <c r="AB71" s="186"/>
-      <c r="AC71" s="186"/>
-      <c r="AD71" s="147">
+      <c r="F71" s="193"/>
+      <c r="G71" s="193"/>
+      <c r="H71" s="193"/>
+      <c r="I71" s="193"/>
+      <c r="J71" s="193"/>
+      <c r="K71" s="193"/>
+      <c r="L71" s="193"/>
+      <c r="M71" s="193"/>
+      <c r="N71" s="193"/>
+      <c r="O71" s="193"/>
+      <c r="P71" s="193"/>
+      <c r="Q71" s="193"/>
+      <c r="R71" s="193"/>
+      <c r="S71" s="193"/>
+      <c r="T71" s="193"/>
+      <c r="U71" s="193"/>
+      <c r="V71" s="193"/>
+      <c r="W71" s="193"/>
+      <c r="X71" s="193"/>
+      <c r="Y71" s="193"/>
+      <c r="Z71" s="193"/>
+      <c r="AA71" s="193"/>
+      <c r="AB71" s="193"/>
+      <c r="AC71" s="193"/>
+      <c r="AD71" s="176">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="187" t="s">
+      <c r="B72" s="194" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="188"/>
+      <c r="C72" s="195"/>
       <c r="D72" s="121">
         <v>0</v>
       </c>
-      <c r="E72" s="186">
+      <c r="E72" s="193">
         <f>D71*D72</f>
         <v>0</v>
       </c>
-      <c r="F72" s="186"/>
-      <c r="G72" s="186"/>
-      <c r="H72" s="186"/>
-      <c r="I72" s="186"/>
-      <c r="J72" s="186"/>
-      <c r="K72" s="186"/>
-      <c r="L72" s="186"/>
-      <c r="M72" s="186"/>
-      <c r="N72" s="186"/>
-      <c r="O72" s="186"/>
-      <c r="P72" s="186"/>
-      <c r="Q72" s="186"/>
-      <c r="R72" s="186"/>
-      <c r="S72" s="186"/>
-      <c r="T72" s="186"/>
-      <c r="U72" s="186"/>
-      <c r="V72" s="186"/>
-      <c r="W72" s="186"/>
-      <c r="X72" s="186"/>
-      <c r="Y72" s="186"/>
-      <c r="Z72" s="186"/>
-      <c r="AA72" s="186"/>
-      <c r="AB72" s="186"/>
-      <c r="AC72" s="186"/>
-      <c r="AD72" s="148"/>
+      <c r="F72" s="193"/>
+      <c r="G72" s="193"/>
+      <c r="H72" s="193"/>
+      <c r="I72" s="193"/>
+      <c r="J72" s="193"/>
+      <c r="K72" s="193"/>
+      <c r="L72" s="193"/>
+      <c r="M72" s="193"/>
+      <c r="N72" s="193"/>
+      <c r="O72" s="193"/>
+      <c r="P72" s="193"/>
+      <c r="Q72" s="193"/>
+      <c r="R72" s="193"/>
+      <c r="S72" s="193"/>
+      <c r="T72" s="193"/>
+      <c r="U72" s="193"/>
+      <c r="V72" s="193"/>
+      <c r="W72" s="193"/>
+      <c r="X72" s="193"/>
+      <c r="Y72" s="193"/>
+      <c r="Z72" s="193"/>
+      <c r="AA72" s="193"/>
+      <c r="AB72" s="193"/>
+      <c r="AC72" s="193"/>
+      <c r="AD72" s="177"/>
     </row>
     <row r="73" spans="1:30" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
@@ -44396,35 +44398,35 @@
       <c r="D73" s="117">
         <v>0</v>
       </c>
-      <c r="E73" s="185">
+      <c r="E73" s="192">
         <f>D73</f>
         <v>0</v>
       </c>
-      <c r="F73" s="185"/>
-      <c r="G73" s="185"/>
-      <c r="H73" s="185"/>
-      <c r="I73" s="185"/>
-      <c r="J73" s="185"/>
-      <c r="K73" s="185"/>
-      <c r="L73" s="185"/>
-      <c r="M73" s="185"/>
-      <c r="N73" s="185"/>
-      <c r="O73" s="185"/>
-      <c r="P73" s="185"/>
-      <c r="Q73" s="185"/>
-      <c r="R73" s="185"/>
-      <c r="S73" s="185"/>
-      <c r="T73" s="185"/>
-      <c r="U73" s="185"/>
-      <c r="V73" s="185"/>
-      <c r="W73" s="185"/>
-      <c r="X73" s="185"/>
-      <c r="Y73" s="185"/>
-      <c r="Z73" s="185"/>
-      <c r="AA73" s="185"/>
-      <c r="AB73" s="185"/>
-      <c r="AC73" s="185"/>
-      <c r="AD73" s="146" t="s">
+      <c r="F73" s="192"/>
+      <c r="G73" s="192"/>
+      <c r="H73" s="192"/>
+      <c r="I73" s="192"/>
+      <c r="J73" s="192"/>
+      <c r="K73" s="192"/>
+      <c r="L73" s="192"/>
+      <c r="M73" s="192"/>
+      <c r="N73" s="192"/>
+      <c r="O73" s="192"/>
+      <c r="P73" s="192"/>
+      <c r="Q73" s="192"/>
+      <c r="R73" s="192"/>
+      <c r="S73" s="192"/>
+      <c r="T73" s="192"/>
+      <c r="U73" s="192"/>
+      <c r="V73" s="192"/>
+      <c r="W73" s="192"/>
+      <c r="X73" s="192"/>
+      <c r="Y73" s="192"/>
+      <c r="Z73" s="192"/>
+      <c r="AA73" s="192"/>
+      <c r="AB73" s="192"/>
+      <c r="AC73" s="192"/>
+      <c r="AD73" s="175" t="s">
         <v>54</v>
       </c>
     </row>
@@ -44435,67 +44437,67 @@
       </c>
       <c r="C74" s="119"/>
       <c r="D74" s="119"/>
-      <c r="E74" s="183"/>
-      <c r="F74" s="184"/>
-      <c r="G74" s="184"/>
-      <c r="H74" s="184"/>
-      <c r="I74" s="184"/>
-      <c r="J74" s="184"/>
-      <c r="K74" s="184"/>
-      <c r="L74" s="184"/>
-      <c r="M74" s="184"/>
-      <c r="N74" s="184"/>
-      <c r="O74" s="184"/>
-      <c r="P74" s="184"/>
-      <c r="Q74" s="184"/>
-      <c r="R74" s="184"/>
-      <c r="S74" s="184"/>
-      <c r="T74" s="184"/>
-      <c r="U74" s="184"/>
-      <c r="V74" s="184"/>
-      <c r="W74" s="184"/>
-      <c r="X74" s="184"/>
-      <c r="Y74" s="184"/>
-      <c r="Z74" s="184"/>
-      <c r="AA74" s="184"/>
-      <c r="AB74" s="184"/>
+      <c r="E74" s="190"/>
+      <c r="F74" s="191"/>
+      <c r="G74" s="191"/>
+      <c r="H74" s="191"/>
+      <c r="I74" s="191"/>
+      <c r="J74" s="191"/>
+      <c r="K74" s="191"/>
+      <c r="L74" s="191"/>
+      <c r="M74" s="191"/>
+      <c r="N74" s="191"/>
+      <c r="O74" s="191"/>
+      <c r="P74" s="191"/>
+      <c r="Q74" s="191"/>
+      <c r="R74" s="191"/>
+      <c r="S74" s="191"/>
+      <c r="T74" s="191"/>
+      <c r="U74" s="191"/>
+      <c r="V74" s="191"/>
+      <c r="W74" s="191"/>
+      <c r="X74" s="191"/>
+      <c r="Y74" s="191"/>
+      <c r="Z74" s="191"/>
+      <c r="AA74" s="191"/>
+      <c r="AB74" s="191"/>
       <c r="AC74" s="120">
         <f>D71+D73</f>
         <v>0</v>
       </c>
-      <c r="AD74" s="154"/>
+      <c r="AD74" s="185"/>
     </row>
     <row r="75" spans="1:30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
-      <c r="B75" s="190" t="s">
+      <c r="B75" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="191"/>
+      <c r="C75" s="188"/>
       <c r="D75" s="88"/>
-      <c r="E75" s="192"/>
-      <c r="F75" s="191"/>
-      <c r="G75" s="191"/>
-      <c r="H75" s="191"/>
-      <c r="I75" s="191"/>
-      <c r="J75" s="191"/>
-      <c r="K75" s="191"/>
-      <c r="L75" s="191"/>
-      <c r="M75" s="191"/>
-      <c r="N75" s="191"/>
-      <c r="O75" s="191"/>
-      <c r="P75" s="191"/>
-      <c r="Q75" s="191"/>
-      <c r="R75" s="191"/>
-      <c r="S75" s="191"/>
-      <c r="T75" s="191"/>
-      <c r="U75" s="191"/>
-      <c r="V75" s="191"/>
-      <c r="W75" s="191"/>
-      <c r="X75" s="191"/>
-      <c r="Y75" s="191"/>
-      <c r="Z75" s="191"/>
-      <c r="AA75" s="191"/>
-      <c r="AB75" s="191"/>
+      <c r="E75" s="189"/>
+      <c r="F75" s="188"/>
+      <c r="G75" s="188"/>
+      <c r="H75" s="188"/>
+      <c r="I75" s="188"/>
+      <c r="J75" s="188"/>
+      <c r="K75" s="188"/>
+      <c r="L75" s="188"/>
+      <c r="M75" s="188"/>
+      <c r="N75" s="188"/>
+      <c r="O75" s="188"/>
+      <c r="P75" s="188"/>
+      <c r="Q75" s="188"/>
+      <c r="R75" s="188"/>
+      <c r="S75" s="188"/>
+      <c r="T75" s="188"/>
+      <c r="U75" s="188"/>
+      <c r="V75" s="188"/>
+      <c r="W75" s="188"/>
+      <c r="X75" s="188"/>
+      <c r="Y75" s="188"/>
+      <c r="Z75" s="188"/>
+      <c r="AA75" s="188"/>
+      <c r="AB75" s="188"/>
       <c r="AC75" s="94">
         <f>AC74+AC67</f>
         <v>0</v>
@@ -44569,10 +44571,10 @@
     </row>
     <row r="78" spans="1:30" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="158" t="s">
+      <c r="B78" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="159"/>
+      <c r="C78" s="146"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -44702,10 +44704,10 @@
     </row>
     <row r="82" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="168" t="s">
+      <c r="B82" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="159"/>
+      <c r="C82" s="146"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -44734,10 +44736,10 @@
     </row>
     <row r="83" spans="1:29" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="170" t="s">
+      <c r="B83" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="159"/>
+      <c r="C83" s="146"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -44797,10 +44799,10 @@
     </row>
     <row r="85" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="169" t="s">
+      <c r="B85" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="159"/>
+      <c r="C85" s="146"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -44829,10 +44831,10 @@
     </row>
     <row r="86" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="167" t="s">
+      <c r="B86" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="159"/>
+      <c r="C86" s="146"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -44861,8 +44863,8 @@
     </row>
     <row r="87" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="159"/>
-      <c r="C87" s="159"/>
+      <c r="B87" s="146"/>
+      <c r="C87" s="146"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -44922,10 +44924,10 @@
     </row>
     <row r="89" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="168" t="s">
+      <c r="B89" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="159"/>
+      <c r="C89" s="146"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="1"/>
@@ -44954,10 +44956,10 @@
     </row>
     <row r="90" spans="1:29" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="167" t="s">
+      <c r="B90" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="159"/>
+      <c r="C90" s="146"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -44986,8 +44988,8 @@
     </row>
     <row r="91" spans="1:29" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="159"/>
-      <c r="C91" s="159"/>
+      <c r="B91" s="146"/>
+      <c r="C91" s="146"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -74218,6 +74220,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="E4:AB4"/>
+    <mergeCell ref="E26:AB26"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="E5:AB5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="AD39:AD40"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="AD41:AD42"/>
+    <mergeCell ref="E45:AB45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="AD73:AD74"/>
+    <mergeCell ref="E74:AB74"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:AB59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E73:AC73"/>
+    <mergeCell ref="AD65:AD68"/>
+    <mergeCell ref="E71:AC71"/>
+    <mergeCell ref="AD71:AD72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:AC72"/>
     <mergeCell ref="B86:C87"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B90:C91"/>
@@ -74234,49 +74279,6 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="AD73:AD74"/>
-    <mergeCell ref="E74:AB74"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:AB59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E73:AC73"/>
-    <mergeCell ref="AD65:AD68"/>
-    <mergeCell ref="E71:AC71"/>
-    <mergeCell ref="AD71:AD72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:AC72"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="AD41:AD42"/>
-    <mergeCell ref="E45:AB45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="AD39:AD40"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="E26:AB26"/>
-    <mergeCell ref="AD27:AD28"/>
-    <mergeCell ref="E5:AB5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="E4:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
